--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12345" activeTab="1"/>
+    <workbookView windowWidth="26715" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,6 @@
   </si>
   <si>
     <t>Suzanna Heals 5
-Big Boyo has Armor 1
 Lil Munchy has 3 - 4</t>
   </si>
   <si>
@@ -485,10 +484,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -546,6 +545,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -554,7 +568,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,22 +615,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,30 +625,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,21 +654,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,13 +698,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +722,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,13 +770,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,73 +812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,13 +836,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,31 +854,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,11 +1128,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,15 +1161,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,9 +1182,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,17 +1206,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,7 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,130 +1246,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1837,8 +1836,8 @@
   <sheetPr/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -2598,8 +2597,8 @@
   <sheetPr/>
   <dimension ref="A3:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26715" windowHeight="12345"/>
+    <workbookView windowWidth="13935" windowHeight="12945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,10 @@
     <t>13</t>
   </si>
   <si>
-    <t>Prison Guard</t>
+    <t>Town Guard</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
   </si>
   <si>
     <t>Armor 1</t>
@@ -169,9 +172,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
     <t>On death, leaves spikes
 on the ground
 (2 damage)</t>
@@ -189,7 +189,7 @@
     <t>Heal 6</t>
   </si>
   <si>
-    <t>Town Guard</t>
+    <t>Prison Guard</t>
   </si>
   <si>
     <t>16</t>
@@ -484,10 +484,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -546,15 +546,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,15 +568,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,13 +577,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,18 +591,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,15 +637,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,7 +668,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,7 +698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,25 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,13 +752,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,25 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +806,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,31 +854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,25 +872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,30 +1122,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,6 +1137,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,11 +1167,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,11 +1189,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,20 +1212,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,130 +1246,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1836,7 +1836,7 @@
   <sheetPr/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2597,8 +2597,8 @@
   <sheetPr/>
   <dimension ref="A3:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -2673,91 +2673,91 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" s="8"/>
     </row>
     <row r="7" ht="75" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N7" s="8"/>
     </row>
     <row r="8" ht="37.5" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N8" s="8"/>
     </row>
     <row r="9" ht="75" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>50</v>
@@ -2769,7 +2769,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>52</v>
@@ -2787,7 +2787,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
@@ -2805,10 +2805,10 @@
         <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>59</v>
@@ -2817,7 +2817,7 @@
         <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>61</v>
@@ -2850,7 +2850,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>63</v>
@@ -2931,7 +2931,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>63</v>
@@ -3023,7 +3023,7 @@
         <v>102</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>89</v>
@@ -3061,7 +3061,7 @@
         <v>109</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>8</v>
@@ -3107,7 +3107,7 @@
         <v>114</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>108</v>
@@ -3252,7 +3252,7 @@
         <v>134</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30" s="12">
         <v>7</v>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13935" windowHeight="12945" activeTab="1"/>
+    <workbookView windowWidth="27870" windowHeight="13095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
   <si>
     <t>Player Level</t>
   </si>
@@ -104,16 +104,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>13</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
   </si>
   <si>
     <t>Town Guard</t>
-  </si>
-  <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>Armor 1</t>
   </si>
   <si>
     <t>Serfmaster</t>
@@ -545,9 +542,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,23 +556,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,10 +596,32 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,11 +656,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,14 +672,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,28 +681,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,7 +695,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +809,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,67 +833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,73 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +863,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,6 +1119,26 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,6 +1182,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1188,47 +1220,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1246,130 +1243,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2598,7 +2595,7 @@
   <dimension ref="A3:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -2658,13 +2655,13 @@
         <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2673,395 +2670,393 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="8"/>
     </row>
     <row r="7" ht="75" spans="1:14">
       <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="N7" s="8"/>
     </row>
     <row r="8" ht="37.5" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="N8" s="8"/>
     </row>
     <row r="9" ht="75" spans="1:14">
       <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N11" s="8"/>
     </row>
     <row r="12" ht="56.25" spans="1:14">
       <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="N13" s="8"/>
     </row>
     <row r="14" ht="37.5" spans="1:14">
       <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="N14" s="9"/>
     </row>
     <row r="15" ht="56.25" spans="1:7">
       <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" ht="56.25" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" ht="93.75" spans="1:8">
       <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" ht="37.5" spans="1:8">
       <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" ht="37.5" spans="1:8">
       <c r="A20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" ht="37.5" spans="1:7">
       <c r="A21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" ht="56.25" spans="1:8">
       <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" ht="37.5" spans="1:13">
       <c r="A23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>8</v>
@@ -3075,22 +3070,22 @@
     </row>
     <row r="24" ht="56.25" spans="1:13">
       <c r="A24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="K24" s="12">
         <v>1</v>
@@ -3104,28 +3099,28 @@
     </row>
     <row r="25" ht="37.5" spans="1:13">
       <c r="A25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="K25" s="12">
         <v>2</v>
@@ -3139,19 +3134,19 @@
     </row>
     <row r="26" ht="37.5" spans="1:13">
       <c r="A26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="K26" s="12">
         <v>3</v>
@@ -3165,19 +3160,19 @@
     </row>
     <row r="27" ht="56.25" spans="1:13">
       <c r="A27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="K27" s="12">
         <v>4</v>
@@ -3191,25 +3186,25 @@
     </row>
     <row r="28" ht="37.5" spans="1:13">
       <c r="A28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="K28" s="12">
         <v>5</v>
@@ -3223,19 +3218,19 @@
     </row>
     <row r="29" ht="37.5" spans="1:13">
       <c r="A29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K29" s="12">
         <v>6</v>
@@ -3249,10 +3244,10 @@
     </row>
     <row r="30" ht="37.5" spans="1:13">
       <c r="A30" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K30" s="12">
         <v>7</v>
@@ -3266,7 +3261,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K31" s="12">
         <v>8</v>
@@ -3280,10 +3275,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="K32" s="12">
         <v>9</v>
@@ -3297,10 +3292,10 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K33" s="14">
         <v>10</v>
@@ -3314,10 +3309,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,18 +4,230 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13095" activeTab="1"/>
+    <workbookView windowWidth="23295" windowHeight="13095" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Monsters" sheetId="2" r:id="rId2"/>
+    <sheet name="Traps" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="ID_2440730E3B794D249A4BBFB68234E0A5" descr="barrel"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7766050" y="337185"/>
+          <a:ext cx="962025" cy="956945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="ID_922A22EB4F3240DF82F7BC8E2334A939" descr="spikes_up"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect l="70" t="67017" r="4523" b="-3910"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1493520" y="2018665"/>
+          <a:ext cx="1466850" cy="568325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="ID_6A4BCF7CF4234DD3963837ADFB704BB7" descr="explosive_barrel"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:srcRect l="-59" t="47255" r="59" b="3797"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1941195" y="2524125"/>
+          <a:ext cx="1083945" cy="528320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="ID_DCED4DA3234A4C4592F9A953085503D2" descr="vase"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:srcRect t="24427" b="-4511"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685290" y="2727325"/>
+          <a:ext cx="916305" cy="724535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="ID_E927AF64AF1F4F0796C389FC221298A8" descr="acid"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:srcRect t="65323" b="5420"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1678940" y="3889375"/>
+          <a:ext cx="913765" cy="265430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="ID_3FB322F6A35B4E67A56CEB159387F4E7" descr="crate"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:srcRect t="50730" r="4924"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7830185" y="1853565"/>
+          <a:ext cx="871220" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="ID_491D9B3CF8B4441CAD720B86DCA07462" descr="Rock Blockage"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:srcRect t="39124" r="156"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7625715" y="2329815"/>
+          <a:ext cx="1213485" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="ID_1C66898D56284284A37A02A3EF585440" descr="BearTrap"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1833880" y="964565"/>
+          <a:ext cx="548005" cy="269240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="155">
   <si>
     <t>Player Level</t>
   </si>
@@ -474,6 +686,58 @@
   </si>
   <si>
     <t>Crystal Golem</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Obstacle</t>
+  </si>
+  <si>
+    <t>Bear Trap</t>
+  </si>
+  <si>
+    <t>On step: damage</t>
+  </si>
+  <si>
+    <t>Barrel</t>
+  </si>
+  <si>
+    <t>Spikes</t>
+  </si>
+  <si>
+    <t>On step: damage
+Toggles at round end</t>
+  </si>
+  <si>
+    <t>Crate</t>
+  </si>
+  <si>
+    <t>Explosive
+Barrel</t>
+  </si>
+  <si>
+    <t>Explodes [square]
+on death</t>
+  </si>
+  <si>
+    <t>Rocks</t>
+  </si>
+  <si>
+    <t>Poison Vase</t>
+  </si>
+  <si>
+    <t>Leaves acid around
+[square]</t>
+  </si>
+  <si>
+    <t>Acid</t>
   </si>
 </sst>
 </file>
@@ -481,9 +745,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -542,10 +806,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,9 +837,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,98 +937,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -672,15 +944,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,25 +959,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,13 +1007,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,91 +1049,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,19 +1079,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,30 +1174,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -966,7 +1206,31 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1119,41 +1383,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,17 +1396,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,6 +1431,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1225,15 +1489,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1243,141 +1507,150 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,24 +1668,24 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1425,7 +1698,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1446,55 +1719,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1839,560 +2112,560 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9.71428571428571" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.1428571428571" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.7142857142857" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.8571428571429" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.5714285714286" style="16" customWidth="1"/>
-    <col min="9" max="9" width="19.1428571428571" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="16"/>
+    <col min="1" max="1" width="18.7142857142857" style="19" customWidth="1"/>
+    <col min="2" max="2" width="20.4285714285714" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9.71428571428571" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.7142857142857" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17.8571428571429" style="19" customWidth="1"/>
+    <col min="8" max="8" width="17.5714285714286" style="19" customWidth="1"/>
+    <col min="9" max="9" width="19.1428571428571" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:9">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="17"/>
-      <c r="B3" s="25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="29">
         <v>20</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="30">
         <v>20</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="31">
         <v>6.5</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="32">
         <v>6.5</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="33">
         <v>6.5</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="34">
         <v>12</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="48">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="17"/>
-      <c r="B4" s="25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="28">
         <v>2</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="29">
         <v>21</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="35">
         <v>23</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="29">
         <v>7.5</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="35">
         <v>9</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <v>9</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="36">
         <v>15</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="48">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="17"/>
-      <c r="B5" s="25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="29">
         <v>22</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="35">
         <v>26</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="31">
         <v>8.5</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="32">
         <v>11.5</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="33">
         <v>11.5</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="36">
         <v>18</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="48">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="17"/>
-      <c r="B6" s="25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="28">
         <v>4</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="29">
         <v>23</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="35">
         <v>29</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="29">
         <v>9.5</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="35">
         <v>14</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="20">
         <v>14</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="36">
         <v>21</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="48">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17"/>
-      <c r="B7" s="25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="29">
         <v>24</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="35">
         <v>32</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="31">
         <v>10.5</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="32">
         <v>16.5</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="33">
         <v>16.5</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="36">
         <v>24</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="48">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17"/>
-      <c r="B8" s="25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="28">
         <v>6</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="29">
         <v>25</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="35">
         <v>35</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="29">
         <v>11.5</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="35">
         <v>19</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="20">
         <v>19</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="36">
         <v>27</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="48">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="28">
         <v>7</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="29">
         <v>26</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="35">
         <v>38</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="31">
         <v>12.5</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="32">
         <v>21.5</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="33">
         <v>21.5</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="36">
         <v>30</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="48">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="28">
         <v>8</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="29">
         <v>27</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="35">
         <v>41</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="29">
         <v>13.5</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="35">
         <v>24</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="20">
         <v>24</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="36">
         <v>33</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="48">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-      <c r="B11" s="25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="28">
         <v>9</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="29">
         <v>28</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="35">
         <v>44</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="31">
         <v>14.5</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="32">
         <v>26.5</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="33">
         <v>26.5</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="36">
         <v>36</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="48">
         <v>50</v>
       </c>
     </row>
     <row r="12" ht="19.5" spans="1:9">
-      <c r="A12" s="17"/>
-      <c r="B12" s="34">
+      <c r="A12" s="20"/>
+      <c r="B12" s="37">
         <v>10</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="38">
         <v>29</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="39">
         <v>47</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="38">
         <v>15.5</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="39">
         <v>29</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="40">
         <v>29</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="41">
         <v>39</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="49">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="17"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="17"/>
-      <c r="B17" s="25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="34">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="36">
         <v>1</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="17"/>
-      <c r="B18" s="25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="28">
         <v>2</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="36">
         <v>21</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="36">
         <v>1</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="17"/>
-      <c r="B19" s="25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="28">
         <v>3</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="36">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="36">
         <v>2</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="17"/>
-      <c r="B20" s="25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="28">
         <v>4</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="36">
         <v>33</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="36">
         <v>2</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="28">
         <v>5</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="36">
         <v>39</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="36">
         <v>2</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="25">
+      <c r="B22" s="28">
         <v>6</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="36">
         <v>45</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="36">
         <v>3</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="25">
+      <c r="B23" s="28">
         <v>7</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="36">
         <v>51</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="36">
         <v>3</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="25">
+      <c r="B24" s="28">
         <v>8</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="36">
         <v>57</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="36">
         <v>3</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="25">
+      <c r="B25" s="28">
         <v>9</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="36">
         <v>63</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="36">
         <v>4</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="34">
+      <c r="B26" s="37">
         <v>10</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="41">
         <v>69</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="41">
         <v>4</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30"/>
@@ -2413,175 +2686,175 @@
       <c r="H31"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2592,31 +2865,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N34"/>
+  <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.57142857142857" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5714285714286" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.14285714285714" style="1"/>
-    <col min="13" max="13" width="11.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.4285714285714" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="21.1428571428571" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5714285714286" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.8571428571429" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.8571428571429" style="5" customWidth="1"/>
+    <col min="9" max="9" width="5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="2.57142857142857" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.5714285714286" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.14285714285714" style="5"/>
+    <col min="13" max="13" width="11.5714285714286" style="5" customWidth="1"/>
+    <col min="14" max="14" width="13.4285714285714" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="5"/>
   </cols>
   <sheetData>
+    <row r="2" spans="14:14">
+      <c r="N2"/>
+    </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>20</v>
@@ -2624,695 +2900,825 @@
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6"/>
+    </row>
+    <row r="7" ht="75" spans="1:14">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7"/>
+    </row>
+    <row r="8" ht="37.5" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8"/>
+    </row>
+    <row r="9" ht="75" spans="1:14">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11"/>
+    </row>
+    <row r="12" ht="56.25" spans="1:14">
+      <c r="A12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13"/>
+    </row>
+    <row r="14" ht="37.5" spans="1:14">
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14"/>
+    </row>
+    <row r="15" ht="56.25" spans="1:14">
+      <c r="A15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" ht="56.25" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" ht="93.75" spans="1:8">
+      <c r="A18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" ht="37.5" spans="1:8">
+      <c r="A19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" ht="37.5" spans="1:8">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" ht="37.5" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" ht="56.25" spans="1:8">
+      <c r="A22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" ht="37.5" spans="1:13">
+      <c r="A23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" ht="56.25" spans="1:13">
+      <c r="A24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="13">
+        <v>1</v>
+      </c>
+      <c r="L24" s="14">
+        <v>15</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="37.5" spans="1:13">
+      <c r="A25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="13">
+        <v>2</v>
+      </c>
+      <c r="L25" s="15">
+        <v>21</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" ht="37.5" spans="1:13">
+      <c r="A26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="13">
+        <v>3</v>
+      </c>
+      <c r="L26" s="15">
+        <v>27</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="56.25" spans="1:13">
+      <c r="A27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="13">
+        <v>4</v>
+      </c>
+      <c r="L27" s="15">
+        <v>33</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="37.5" spans="1:13">
+      <c r="A28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="13">
+        <v>5</v>
+      </c>
+      <c r="L28" s="15">
+        <v>39</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="37.5" spans="1:13">
+      <c r="A29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="13">
+        <v>6</v>
+      </c>
+      <c r="L29" s="15">
+        <v>45</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="37.5" spans="1:13">
+      <c r="A30" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="13">
+        <v>7</v>
+      </c>
+      <c r="L30" s="15">
+        <v>51</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="13">
+        <v>8</v>
+      </c>
+      <c r="L31" s="15">
+        <v>57</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="13">
+        <v>9</v>
+      </c>
+      <c r="L32" s="15">
+        <v>63</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33" s="16">
+        <v>10</v>
+      </c>
+      <c r="L33" s="17">
+        <v>69</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9047619047619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.0095238095238" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.14285714285714" style="1"/>
+    <col min="8" max="8" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.552380952381" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7619047619048" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" ht="65.55" customHeight="1" spans="2:9">
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</f>
+        <v>=DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" ht="75" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</f>
+        <v>=DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</v>
+      </c>
+    </row>
+    <row r="5" ht="37.5" spans="2:9">
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</f>
+        <v>=DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</f>
+        <v>=DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</v>
+      </c>
+    </row>
+    <row r="6" ht="39.25" spans="2:9">
+      <c r="B6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</f>
+        <v>=DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</f>
+        <v>=DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="59.3" spans="2:4">
       <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" ht="37.5" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>152</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</f>
+        <v>=DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" ht="24.3" spans="2:4">
+      <c r="B8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</f>
+        <v>=DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" ht="75" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" ht="56.25" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" ht="37.5" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" ht="56.25" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" ht="56.25" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" ht="93.75" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" ht="37.5" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" ht="37.5" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" ht="37.5" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" ht="56.25" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" ht="37.5" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" ht="56.25" spans="1:13">
-      <c r="A24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="12">
-        <v>1</v>
-      </c>
-      <c r="L24" s="13">
-        <v>15</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" ht="37.5" spans="1:13">
-      <c r="A25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="12">
-        <v>2</v>
-      </c>
-      <c r="L25" s="8">
-        <v>21</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="37.5" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" s="12">
-        <v>3</v>
-      </c>
-      <c r="L26" s="8">
-        <v>27</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" ht="56.25" spans="1:13">
-      <c r="A27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" s="12">
-        <v>4</v>
-      </c>
-      <c r="L27" s="8">
-        <v>33</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" ht="37.5" spans="1:13">
-      <c r="A28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K28" s="12">
-        <v>5</v>
-      </c>
-      <c r="L28" s="8">
-        <v>39</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" ht="37.5" spans="1:13">
-      <c r="A29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K29" s="12">
-        <v>6</v>
-      </c>
-      <c r="L29" s="8">
-        <v>45</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" ht="37.5" spans="1:13">
-      <c r="A30" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="12">
-        <v>7</v>
-      </c>
-      <c r="L30" s="8">
-        <v>51</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" s="12">
-        <v>8</v>
-      </c>
-      <c r="L31" s="8">
-        <v>57</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K32" s="12">
-        <v>9</v>
-      </c>
-      <c r="L32" s="8">
-        <v>63</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K33" s="14">
-        <v>10</v>
-      </c>
-      <c r="L33" s="9">
-        <v>69</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -223,11 +223,141 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="ID_CC66E0BDF222479FBCA1D73D9EEF98C9" descr="Log"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:srcRect l="21573" t="62476" r="20720"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7954645" y="2811780"/>
+          <a:ext cx="1160780" cy="368935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_DD37BC4AF6A646D482F166D1DA3483B9" descr="Table"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:srcRect l="25413" t="47320" r="22391"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8062595" y="3523615"/>
+          <a:ext cx="903605" cy="410210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_03A246FAB8D54EF0A611A5197A16854B" descr="gravestone"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:srcRect l="27241" t="19165" r="21981"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8237855" y="2737485"/>
+          <a:ext cx="462915" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="ID_69F91952F7254C9081725FDDC3777D6A" descr="bush"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:srcRect l="27254" t="68910" r="24803"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8087360" y="4425950"/>
+          <a:ext cx="440055" cy="282575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="ID_5883AB3B095E4C91BA3FA08ED96F1A98" descr="hay"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:srcRect l="11806" t="45540" r="9444"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8113395" y="5283200"/>
+          <a:ext cx="720090" cy="490855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
   <si>
     <t>Player Level</t>
   </si>
@@ -703,7 +833,20 @@
     <t>Bear Trap</t>
   </si>
   <si>
-    <t>On step: damage</t>
+    <r>
+      <t>Step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: damage,
+then it disappears</t>
+    </r>
   </si>
   <si>
     <t>Barrel</t>
@@ -712,19 +855,46 @@
     <t>Spikes</t>
   </si>
   <si>
-    <t>On step: damage
+    <r>
+      <t>Step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: damage
 Toggles at round end</t>
+    </r>
   </si>
   <si>
     <t>Crate</t>
+  </si>
+  <si>
+    <t>Small chance
+to drop loot</t>
   </si>
   <si>
     <t>Explosive
 Barrel</t>
   </si>
   <si>
-    <t>Explodes [square]
-on death</t>
+    <r>
+      <t>Death</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Explodes [square]</t>
+    </r>
   </si>
   <si>
     <t>Rocks</t>
@@ -733,11 +903,61 @@
     <t>Poison Vase</t>
   </si>
   <si>
-    <t>Leaves acid around
+    <r>
+      <t>Death</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Leaves acid around
 [square]</t>
+    </r>
+  </si>
+  <si>
+    <t>Gravestone</t>
+  </si>
+  <si>
+    <t>Small chance
+to drop zombie</t>
   </si>
   <si>
     <t>Acid</t>
+  </si>
+  <si>
+    <r>
+      <t>Step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: damage</t>
+    </r>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Hay</t>
+  </si>
+  <si>
+    <t>Small chance
+to drop child</t>
   </si>
 </sst>
 </file>
@@ -745,12 +965,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +989,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.25"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -806,9 +1033,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,39 +1156,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,85 +1170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,13 +1186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,13 +1204,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,73 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,43 +1342,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,26 +1610,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,15 +1629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1442,6 +1640,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1463,9 +1670,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1484,12 +1693,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1507,130 +1734,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1644,8 +1871,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1653,9 +1883,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1663,6 +1890,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1695,10 +1925,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1761,7 +1988,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2112,31 +2339,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="19" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.71428571428571" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.1428571428571" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.7142857142857" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17.8571428571429" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.5714285714286" style="19" customWidth="1"/>
-    <col min="9" max="9" width="19.1428571428571" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="19"/>
+    <col min="1" max="1" width="18.7142857142857" style="20" customWidth="1"/>
+    <col min="2" max="2" width="20.4285714285714" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9.71428571428571" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.7142857142857" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17.8571428571429" style="20" customWidth="1"/>
+    <col min="8" max="8" width="17.5714285714286" style="20" customWidth="1"/>
+    <col min="9" max="9" width="19.1428571428571" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:9">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="20"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
@@ -2161,12 +2388,12 @@
       <c r="I2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="20"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="28">
         <v>1</v>
       </c>
@@ -2193,7 +2420,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="20"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="28">
         <v>2</v>
       </c>
@@ -2209,7 +2436,7 @@
       <c r="F4" s="35">
         <v>9</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="1">
         <v>9</v>
       </c>
       <c r="H4" s="36">
@@ -2220,7 +2447,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="20"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="28">
         <v>3</v>
       </c>
@@ -2247,7 +2474,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="20"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="28">
         <v>4</v>
       </c>
@@ -2263,7 +2490,7 @@
       <c r="F6" s="35">
         <v>14</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="1">
         <v>14</v>
       </c>
       <c r="H6" s="36">
@@ -2274,7 +2501,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="20"/>
+      <c r="A7" s="1"/>
       <c r="B7" s="28">
         <v>5</v>
       </c>
@@ -2301,7 +2528,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="20"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="28">
         <v>6</v>
       </c>
@@ -2317,7 +2544,7 @@
       <c r="F8" s="35">
         <v>19</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="1">
         <v>19</v>
       </c>
       <c r="H8" s="36">
@@ -2328,7 +2555,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="20"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="28">
         <v>7</v>
       </c>
@@ -2355,7 +2582,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="20"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="28">
         <v>8</v>
       </c>
@@ -2371,7 +2598,7 @@
       <c r="F10" s="35">
         <v>24</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="1">
         <v>24</v>
       </c>
       <c r="H10" s="36">
@@ -2382,7 +2609,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="20"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="28">
         <v>9</v>
       </c>
@@ -2409,7 +2636,7 @@
       </c>
     </row>
     <row r="12" ht="19.5" spans="1:9">
-      <c r="A12" s="20"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="37">
         <v>10</v>
       </c>
@@ -2436,40 +2663,40 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="20"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="42" t="s">
         <v>8</v>
       </c>
@@ -2485,17 +2712,17 @@
       <c r="F16" s="45"/>
       <c r="G16" s="46"/>
       <c r="H16" s="47"/>
-      <c r="I16" s="20"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="20"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="28">
         <v>1</v>
       </c>
       <c r="C17" s="34">
         <v>15</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="36">
@@ -2504,17 +2731,17 @@
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="20"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="28">
         <v>2</v>
       </c>
       <c r="C18" s="36">
         <v>21</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="36">
@@ -2523,17 +2750,17 @@
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
       <c r="H18" s="47"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="20"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="28">
         <v>3</v>
       </c>
       <c r="C19" s="36">
         <v>27</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="36">
@@ -2542,17 +2769,17 @@
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
       <c r="H19" s="47"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="20"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="28">
         <v>4</v>
       </c>
       <c r="C20" s="36">
         <v>33</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="36">
@@ -2561,17 +2788,17 @@
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
       <c r="H20" s="47"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="20"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="28">
         <v>5</v>
       </c>
       <c r="C21" s="36">
         <v>39</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="36">
@@ -2580,7 +2807,7 @@
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
       <c r="H21" s="47"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="28">
@@ -2589,7 +2816,7 @@
       <c r="C22" s="36">
         <v>45</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="36">
@@ -2606,7 +2833,7 @@
       <c r="C23" s="36">
         <v>51</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="36">
@@ -2623,7 +2850,7 @@
       <c r="C24" s="36">
         <v>57</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="36">
@@ -2640,7 +2867,7 @@
       <c r="C25" s="36">
         <v>63</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="36">
@@ -2657,7 +2884,7 @@
       <c r="C26" s="41">
         <v>69</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="41">
@@ -2686,175 +2913,175 @@
       <c r="H31"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2873,21 +3100,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.1428571428571" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.5714285714286" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.5714285714286" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.8571428571429" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="2.57142857142857" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.5714285714286" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.14285714285714" style="5"/>
-    <col min="13" max="13" width="11.5714285714286" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13.4285714285714" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9.14285714285714" style="5"/>
+    <col min="1" max="1" width="21.1428571428571" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.5714285714286" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.8571428571429" style="6" customWidth="1"/>
+    <col min="6" max="6" width="26" style="6" customWidth="1"/>
+    <col min="7" max="7" width="27" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.8571428571429" style="6" customWidth="1"/>
+    <col min="9" max="9" width="5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="2.57142857142857" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18.5714285714286" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.14285714285714" style="6"/>
+    <col min="13" max="13" width="11.5714285714286" style="6" customWidth="1"/>
+    <col min="14" max="14" width="13.4285714285714" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="14:14">
@@ -2900,694 +3127,694 @@
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="N3"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="N6"/>
     </row>
     <row r="7" ht="75" spans="1:14">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>40</v>
       </c>
       <c r="N7"/>
     </row>
     <row r="8" ht="37.5" spans="1:14">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="N8"/>
     </row>
     <row r="9" ht="75" spans="1:14">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>49</v>
       </c>
       <c r="N9"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N10"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>56</v>
       </c>
       <c r="N11"/>
     </row>
     <row r="12" ht="56.25" spans="1:14">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>60</v>
       </c>
       <c r="N12"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>65</v>
       </c>
       <c r="N13"/>
     </row>
     <row r="14" ht="37.5" spans="1:14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="11" t="s">
         <v>70</v>
       </c>
       <c r="N14"/>
     </row>
     <row r="15" ht="56.25" spans="1:14">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>74</v>
       </c>
       <c r="N15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" ht="56.25" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" ht="93.75" spans="1:8">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" ht="37.5" spans="1:8">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" ht="37.5" spans="1:8">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" ht="37.5" spans="1:7">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" ht="56.25" spans="1:8">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="23" ht="37.5" spans="1:13">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" ht="56.25" spans="1:13">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="14">
         <v>1</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="15">
         <v>15</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" ht="37.5" spans="1:13">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="14">
         <v>2</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="16">
         <v>21</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" ht="37.5" spans="1:13">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="14">
         <v>3</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="16">
         <v>27</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" ht="56.25" spans="1:13">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="14">
         <v>4</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="16">
         <v>33</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" ht="37.5" spans="1:13">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="14">
         <v>5</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="16">
         <v>39</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" ht="37.5" spans="1:13">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="14">
         <v>6</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="16">
         <v>45</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" ht="37.5" spans="1:13">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="14">
         <v>7</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="16">
         <v>51</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="14">
         <v>8</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="16">
         <v>57</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="14">
         <v>9</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="16">
         <v>63</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="17">
         <v>10</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="18">
         <v>69</v>
       </c>
-      <c r="M33" s="18" t="s">
+      <c r="M33" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3600,27 +3827,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:J8"/>
+  <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.9047619047619" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.3428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.0095238095238" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.0095238095238" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6380952380952" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.552380952381" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7619047619048" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
         <v>139</v>
       </c>
@@ -3630,36 +3858,36 @@
       <c r="D3" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" ht="65.55" customHeight="1" spans="2:9">
-      <c r="B4" s="3" t="s">
+    <row r="4" ht="65.55" customHeight="1" spans="2:7">
+      <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</f>
         <v>=DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="G4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</f>
         <v>=DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</v>
       </c>
     </row>
-    <row r="5" ht="37.5" spans="2:9">
+    <row r="5" ht="44" customHeight="1" spans="2:8">
       <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
@@ -3667,58 +3895,108 @@
         <f>_xlfn.DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</f>
         <v>=DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="G5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</f>
         <v>=DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</v>
       </c>
-    </row>
-    <row r="6" ht="39.25" spans="2:9">
-      <c r="B6" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="6" ht="47" customHeight="1" spans="2:7">
+      <c r="B6" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</f>
         <v>=DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="F6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</f>
         <v>=DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</v>
       </c>
     </row>
-    <row r="7" ht="59.3" spans="2:4">
+    <row r="7" ht="64" customHeight="1" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</f>
         <v>=DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" ht="24.3" spans="2:4">
+      <c r="D7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</f>
+        <v>=DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" ht="40" customHeight="1" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</f>
         <v>=DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>144</v>
+      <c r="D8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</f>
+        <v>=DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="40" customHeight="1" spans="6:7">
+      <c r="F9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</f>
+        <v>=DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="6:7">
+      <c r="F10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</f>
+        <v>=DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</v>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1" spans="6:8">
+      <c r="F11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</f>
+        <v>=DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="13095" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Monsters" sheetId="2" r:id="rId2"/>
     <sheet name="Traps" sheetId="3" r:id="rId3"/>
+    <sheet name="Spells" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -353,11 +354,86 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_B89FB7A8B8234D6EAF929FE5AE44207A" descr="Melee Attack"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="2209800"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_D90184E2EFC94DFCB03996685EEFC48E" descr="Charge"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="3044825"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="ID_797F597F1B7F46D7BFE49889C122C20E" descr="Haymaker"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="4854575"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="188">
   <si>
     <t>Player Level</t>
   </si>
@@ -452,13 +528,22 @@
     <t>1 - 2</t>
   </si>
   <si>
-    <t>Town Guard</t>
+    <t>Patrolling Guard</t>
+  </si>
+  <si>
+    <t>Crossbow Guard</t>
+  </si>
+  <si>
+    <t>Shooter</t>
+  </si>
+  <si>
+    <t>Molotov Peasant</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>Serfmaster</t>
-  </si>
-  <si>
-    <t>x2</t>
   </si>
   <si>
     <t>26</t>
@@ -486,6 +571,11 @@
 Lil Munchy has 3 - 4</t>
   </si>
   <si>
+    <t>Marceline is present here
+at the start and tells them
+to kill you or something</t>
+  </si>
+  <si>
     <t>Evil Paprika</t>
   </si>
   <si>
@@ -503,9 +593,6 @@
   </si>
   <si>
     <t>Pumpling</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
   <si>
     <t>10</t>
@@ -584,6 +671,10 @@
 the 2 Guards</t>
   </si>
   <si>
+    <t>He is actually evil and hand
+in hand with Marceline</t>
+  </si>
+  <si>
     <t>Wolf</t>
   </si>
   <si>
@@ -834,6 +925,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Step</t>
     </r>
     <r>
@@ -856,6 +955,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Step</t>
     </r>
     <r>
@@ -883,6 +990,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Death</t>
     </r>
     <r>
@@ -904,6 +1019,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Death</t>
     </r>
     <r>
@@ -930,6 +1053,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Step</t>
     </r>
     <r>
@@ -959,18 +1090,91 @@
     <t>Small chance
 to drop child</t>
   </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Spell</t>
+  </si>
+  <si>
+    <t>Mana Cost</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>100% DMG</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>2 range
+55% DMG AoE</t>
+  </si>
+  <si>
+    <t>135% DMG</t>
+  </si>
+  <si>
+    <t>Stand Ground</t>
+  </si>
+  <si>
+    <t>Block 90% DMG
+of next Attack;
++1 Damage rest
+of combat</t>
+  </si>
+  <si>
+    <t>Move 1 (free)</t>
+  </si>
+  <si>
+    <t>Haymaker</t>
+  </si>
+  <si>
+    <t>1 range
+75% DMG
+Push 3 away
++ 45% DMG if
+collides</t>
+  </si>
+  <si>
+    <t>Heal 10% HP</t>
+  </si>
+  <si>
+    <t>Indimidation</t>
+  </si>
+  <si>
+    <t>4 range AoE
+Reduces damage
+of enemies by
+25% + 25% of SP
+(doesn't stack)</t>
+  </si>
+  <si>
+    <t>Stun (free)</t>
+  </si>
+  <si>
+    <t>Regeneration</t>
+  </si>
+  <si>
+    <t>Heal 2 + 20% SP
+every turn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,6 +1193,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1033,9 +1245,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,27 +1274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1105,22 +1295,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1164,7 +1338,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1186,7 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,31 +1416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,19 +1464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,7 +1488,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,25 +1530,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,31 +1578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,21 +1822,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1670,6 +1867,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1697,15 +1918,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1716,7 +1928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1734,147 +1946,162 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1883,9 +2110,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1893,6 +2117,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1925,7 +2152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1988,7 +2215,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2334,565 +2561,565 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="20" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" style="20" customWidth="1"/>
-    <col min="3" max="3" width="9.71428571428571" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.1428571428571" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" style="20" customWidth="1"/>
-    <col min="6" max="6" width="17.7142857142857" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17.8571428571429" style="20" customWidth="1"/>
-    <col min="8" max="8" width="17.5714285714286" style="20" customWidth="1"/>
-    <col min="9" max="9" width="19.1428571428571" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="20"/>
+    <col min="1" max="1" width="18.7142857142857" style="25" customWidth="1"/>
+    <col min="2" max="2" width="20.4285714285714" style="25" customWidth="1"/>
+    <col min="3" max="3" width="9.71428571428571" style="25" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" style="25" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" style="25" customWidth="1"/>
+    <col min="6" max="6" width="17.7142857142857" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.8571428571429" style="25" customWidth="1"/>
+    <col min="8" max="8" width="17.5714285714286" style="25" customWidth="1"/>
+    <col min="9" max="9" width="19.1428571428571" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:9">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="28">
+      <c r="A3" s="7"/>
+      <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="34">
         <v>20</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="35">
         <v>20</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="36">
         <v>6.5</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="37">
         <v>6.5</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="38">
         <v>6.5</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="39">
         <v>12</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="28">
+      <c r="A4" s="7"/>
+      <c r="B4" s="33">
         <v>2</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="34">
         <v>21</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="40">
         <v>23</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="34">
         <v>7.5</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="40">
         <v>9</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>9</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="41">
         <v>15</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="28">
+      <c r="A5" s="7"/>
+      <c r="B5" s="33">
         <v>3</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="34">
         <v>22</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="40">
         <v>26</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="36">
         <v>8.5</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="37">
         <v>11.5</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="38">
         <v>11.5</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="41">
         <v>18</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="53">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="28">
+      <c r="A6" s="7"/>
+      <c r="B6" s="33">
         <v>4</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="34">
         <v>23</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="40">
         <v>29</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="34">
         <v>9.5</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="40">
         <v>14</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>14</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="41">
         <v>21</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="53">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="28">
+      <c r="A7" s="7"/>
+      <c r="B7" s="33">
         <v>5</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="34">
         <v>24</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="40">
         <v>32</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="36">
         <v>10.5</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="37">
         <v>16.5</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="38">
         <v>16.5</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="41">
         <v>24</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="53">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="28">
+      <c r="A8" s="7"/>
+      <c r="B8" s="33">
         <v>6</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="34">
         <v>25</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="40">
         <v>35</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="34">
         <v>11.5</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="40">
         <v>19</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>19</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="41">
         <v>27</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="53">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="28">
+      <c r="A9" s="7"/>
+      <c r="B9" s="33">
         <v>7</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="34">
         <v>26</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="40">
         <v>38</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="36">
         <v>12.5</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="37">
         <v>21.5</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="38">
         <v>21.5</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="41">
         <v>30</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="53">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="28">
+      <c r="A10" s="7"/>
+      <c r="B10" s="33">
         <v>8</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="34">
         <v>27</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="40">
         <v>41</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="34">
         <v>13.5</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="40">
         <v>24</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="7">
         <v>24</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="41">
         <v>33</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="53">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="28">
+      <c r="A11" s="7"/>
+      <c r="B11" s="33">
         <v>9</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="34">
         <v>28</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="40">
         <v>44</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="36">
         <v>14.5</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="37">
         <v>26.5</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="38">
         <v>26.5</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="41">
         <v>36</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="12" ht="19.5" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="37">
+      <c r="A12" s="7"/>
+      <c r="B12" s="42">
         <v>10</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="43">
         <v>29</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="44">
         <v>47</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="43">
         <v>15.5</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="44">
         <v>29</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="45">
         <v>29</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="46">
         <v>39</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="54">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="1"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1"/>
-      <c r="B17" s="28">
+      <c r="A17" s="7"/>
+      <c r="B17" s="33">
         <v>1</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="39">
         <v>15</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="41">
         <v>1</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="1"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1"/>
-      <c r="B18" s="28">
+      <c r="A18" s="7"/>
+      <c r="B18" s="33">
         <v>2</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="41">
         <v>21</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="41">
         <v>1</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="1"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="1"/>
-      <c r="B19" s="28">
+      <c r="A19" s="7"/>
+      <c r="B19" s="33">
         <v>3</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="41">
         <v>27</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="41">
         <v>2</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="1"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1"/>
-      <c r="B20" s="28">
+      <c r="A20" s="7"/>
+      <c r="B20" s="33">
         <v>4</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="41">
         <v>33</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="41">
         <v>2</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="1"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1"/>
-      <c r="B21" s="28">
+      <c r="A21" s="7"/>
+      <c r="B21" s="33">
         <v>5</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="41">
         <v>39</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="41">
         <v>2</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="1"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="28">
+      <c r="B22" s="33">
         <v>6</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="41">
         <v>45</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="41">
         <v>3</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="28">
+      <c r="B23" s="33">
         <v>7</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="41">
         <v>51</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="41">
         <v>3</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="28">
+      <c r="B24" s="33">
         <v>8</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="41">
         <v>57</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="41">
         <v>3</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="28">
+      <c r="B25" s="33">
         <v>9</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="41">
         <v>63</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="41">
         <v>4</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="37">
+      <c r="B26" s="42">
         <v>10</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="46">
         <v>69</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="46">
         <v>4</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30"/>
@@ -2913,175 +3140,175 @@
       <c r="H31"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3092,730 +3319,762 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:N34"/>
+  <dimension ref="A2:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.1428571428571" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5714285714286" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.5714285714286" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" style="6" customWidth="1"/>
-    <col min="6" max="6" width="26" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.8571428571429" style="6" customWidth="1"/>
-    <col min="9" max="9" width="5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="2.57142857142857" style="6" customWidth="1"/>
-    <col min="11" max="11" width="18.5714285714286" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.14285714285714" style="6"/>
-    <col min="13" max="13" width="11.5714285714286" style="6" customWidth="1"/>
-    <col min="14" max="14" width="13.4285714285714" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9.14285714285714" style="6"/>
+    <col min="1" max="1" width="21.1428571428571" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.5714285714286" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.8571428571429" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.8571428571429" style="11" customWidth="1"/>
+    <col min="9" max="9" width="36" style="11" customWidth="1"/>
+    <col min="10" max="10" width="2.57142857142857" style="11" customWidth="1"/>
+    <col min="11" max="11" width="18.5714285714286" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.14285714285714" style="11"/>
+    <col min="13" max="13" width="11.5714285714286" style="11" customWidth="1"/>
+    <col min="14" max="14" width="13.4285714285714" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N3"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="11" t="s">
         <v>30</v>
       </c>
       <c r="N4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="11">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" ht="75" spans="1:14">
-      <c r="A7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="F8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8"/>
+    </row>
+    <row r="9" ht="75" spans="1:14">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9"/>
+    </row>
+    <row r="10" ht="37.5" spans="1:14">
+      <c r="A10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10"/>
+    </row>
+    <row r="11" ht="75" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13"/>
+    </row>
+    <row r="14" ht="56.25" spans="1:14">
+      <c r="A14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="G14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15"/>
+    </row>
+    <row r="16" ht="37.5" spans="1:14">
+      <c r="A16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16"/>
+    </row>
+    <row r="17" ht="56.25" spans="1:14">
+      <c r="A17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" ht="56.25" spans="1:6">
+      <c r="A19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" ht="93.75" spans="1:8">
+      <c r="A20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N7"/>
-    </row>
-    <row r="8" ht="37.5" spans="1:14">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8"/>
-    </row>
-    <row r="9" ht="75" spans="1:14">
-      <c r="A9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" ht="37.5" spans="1:8">
+      <c r="A21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" ht="37.5" spans="1:8">
+      <c r="A22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11"/>
-    </row>
-    <row r="12" ht="56.25" spans="1:14">
-      <c r="A12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="F22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" ht="37.5" spans="1:7">
+      <c r="A23" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" ht="56.25" spans="1:8">
+      <c r="A24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" ht="37.5" spans="1:13">
+      <c r="A25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" ht="56.25" spans="1:13">
+      <c r="A26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="19">
+        <v>1</v>
+      </c>
+      <c r="L26" s="20">
+        <v>15</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="37.5" spans="1:13">
+      <c r="A27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="19">
+        <v>2</v>
+      </c>
+      <c r="L27" s="21">
+        <v>21</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="37.5" spans="1:13">
+      <c r="A28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="19">
+        <v>3</v>
+      </c>
+      <c r="L28" s="21">
+        <v>27</v>
+      </c>
+      <c r="M28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13"/>
-    </row>
-    <row r="14" ht="37.5" spans="1:14">
-      <c r="A14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14"/>
-    </row>
-    <row r="15" ht="56.25" spans="1:14">
-      <c r="A15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" ht="56.25" spans="1:6">
-      <c r="A17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" ht="93.75" spans="1:8">
-      <c r="A18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" ht="37.5" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="6" t="s">
+    </row>
+    <row r="29" ht="56.25" spans="1:13">
+      <c r="A29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="19">
+        <v>4</v>
+      </c>
+      <c r="L29" s="21">
+        <v>33</v>
+      </c>
+      <c r="M29" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" ht="37.5" spans="1:8">
-      <c r="A20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" ht="37.5" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" ht="56.25" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" ht="37.5" spans="1:13">
-      <c r="A23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" ht="56.25" spans="1:13">
-      <c r="A24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="14">
-        <v>1</v>
-      </c>
-      <c r="L24" s="15">
-        <v>15</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" ht="37.5" spans="1:13">
-      <c r="A25" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="14">
-        <v>2</v>
-      </c>
-      <c r="L25" s="16">
-        <v>21</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="37.5" spans="1:13">
-      <c r="A26" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" s="14">
-        <v>3</v>
-      </c>
-      <c r="L26" s="16">
-        <v>27</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" ht="56.25" spans="1:13">
-      <c r="A27" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" s="14">
-        <v>4</v>
-      </c>
-      <c r="L27" s="16">
-        <v>33</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" ht="37.5" spans="1:13">
-      <c r="A28" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K28" s="14">
-        <v>5</v>
-      </c>
-      <c r="L28" s="16">
-        <v>39</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" ht="37.5" spans="1:13">
-      <c r="A29" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K29" s="14">
-        <v>6</v>
-      </c>
-      <c r="L29" s="16">
-        <v>45</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="30" ht="37.5" spans="1:13">
       <c r="A30" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="14">
+      <c r="K30" s="19">
+        <v>5</v>
+      </c>
+      <c r="L30" s="21">
+        <v>39</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="37.5" spans="1:13">
+      <c r="A31" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="19">
+        <v>6</v>
+      </c>
+      <c r="L31" s="21">
+        <v>45</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="37.5" spans="1:13">
+      <c r="A32" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="19">
         <v>7</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L32" s="21">
         <v>51</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M32" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" s="14">
+    <row r="33" spans="1:13">
+      <c r="A33" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" s="19">
         <v>8</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L33" s="21">
         <v>57</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M33" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K32" s="14">
+    <row r="34" spans="1:13">
+      <c r="A34" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" s="19">
         <v>9</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L34" s="21">
         <v>63</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M34" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K33" s="17">
+    <row r="35" spans="1:13">
+      <c r="A35" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" s="22">
         <v>10</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L35" s="23">
         <v>69</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M35" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>136</v>
+    <row r="36" spans="1:6">
+      <c r="A36" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3829,175 +4088,362 @@
   <sheetPr/>
   <dimension ref="B3:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.9047619047619" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.3428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.0095238095238" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.0095238095238" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6380952380952" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.552380952381" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="7"/>
+    <col min="2" max="2" width="16" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.9047619047619" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.3428571428571" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.0095238095238" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.2857142857143" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.0095238095238" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.6380952380952" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.552380952381" style="7" customWidth="1"/>
+    <col min="10" max="10" width="19" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>141</v>
+      <c r="B3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" ht="65.55" customHeight="1" spans="2:7">
-      <c r="B4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="1" t="str">
+      <c r="B4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</f>
         <v>=DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="1" t="str">
+      <c r="D4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</f>
         <v>=DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</v>
       </c>
     </row>
     <row r="5" ht="44" customHeight="1" spans="2:8">
-      <c r="B5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="1" t="str">
+      <c r="B5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</f>
         <v>=DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="1" t="str">
+      <c r="D5" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</f>
         <v>=DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>149</v>
+      <c r="H5" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" ht="47" customHeight="1" spans="2:7">
-      <c r="B6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="1" t="str">
+      <c r="B6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</f>
         <v>=DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="1" t="str">
+      <c r="D6" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</f>
         <v>=DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</v>
       </c>
     </row>
     <row r="7" ht="64" customHeight="1" spans="2:8">
-      <c r="B7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="1" t="str">
+      <c r="B7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</f>
         <v>=DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="1" t="str">
+      <c r="D7" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</f>
         <v>=DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>156</v>
+      <c r="H7" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="2:7">
-      <c r="B8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="1" t="str">
+      <c r="B8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</f>
         <v>=DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="1" t="str">
+      <c r="D8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</f>
         <v>=DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</v>
       </c>
     </row>
     <row r="9" ht="40" customHeight="1" spans="6:7">
-      <c r="F9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="1" t="str">
+      <c r="F9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</f>
         <v>=DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="6:7">
-      <c r="F10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="1" t="str">
+      <c r="F10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</f>
         <v>=DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="6:8">
-      <c r="F11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="1" t="str">
+      <c r="F11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</f>
         <v>=DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="H11" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B9:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="18.1428571428571" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.8571428571429" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.8571428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5714285714286" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9.14285714285714" style="1"/>
+    <col min="10" max="10" width="18.8571428571429" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.8571428571429" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:11">
+      <c r="B9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" ht="44" customHeight="1" spans="3:11">
+      <c r="C10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</f>
+        <v>=DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="2:11">
+      <c r="B11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</f>
+        <v>=DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="75" spans="2:11">
+      <c r="B12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="97" customHeight="1" spans="2:11">
+      <c r="B13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</f>
+        <v>=DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="93.75" spans="2:11">
+      <c r="B14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="37.5" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="7:9">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="7:9">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" activeTab="3"/>
+    <workbookView windowWidth="23295" windowHeight="13095" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -429,11 +429,86 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="ID_5B5C76B37B874958A231351EBD5A6E7C" descr="Shoot"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="7210425"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="ID_52D5A41E637044A490A457D53A6E6968" descr="TripleArrow"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="8648700"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="ID_3597ED710A4940C9B87FCDF5F4476A1D" descr="TomeFoxCompanion"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="13230225"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="270">
   <si>
     <t>Player Level</t>
   </si>
@@ -1163,6 +1238,320 @@
     <t>Heal 2 + 20% SP
 every turn</t>
   </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Shoot Arrow</t>
+  </si>
+  <si>
+    <t>90% DMG
+4 range</t>
+  </si>
+  <si>
+    <t>Fox Attack</t>
+  </si>
+  <si>
+    <t>35% DMG
+Bleed 35% SP
+global range</t>
+  </si>
+  <si>
+    <t>Quickfoot</t>
+  </si>
+  <si>
+    <t>+1 Movement</t>
+  </si>
+  <si>
+    <t>Triple Arrow</t>
+  </si>
+  <si>
+    <t>85% DMG
+4 range</t>
+  </si>
+  <si>
+    <t>Flareshot</t>
+  </si>
+  <si>
+    <t>90% SP
+4 range (8 way)
+enemy gets -10
+dodge and crit
+(does not stack)</t>
+  </si>
+  <si>
+    <t>105% SP
+4 range (TIR)
+unit gets snared</t>
+  </si>
+  <si>
+    <t>Disorient</t>
+  </si>
+  <si>
+    <t>3 range (TIR)
+Instant
+enemies around
+scatter away from it</t>
+  </si>
+  <si>
+    <t>Steady Shooting</t>
+  </si>
+  <si>
+    <t>Every second shot
+on the same target
+deals 25% extra
+damage</t>
+  </si>
+  <si>
+    <t>Fox Companion</t>
+  </si>
+  <si>
+    <t>Start every combat
+with a Fox companion</t>
+  </si>
+  <si>
+    <t>&lt;Block/Defense&gt;</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Fire Bolt</t>
+  </si>
+  <si>
+    <t>90% SP
+3 range</t>
+  </si>
+  <si>
+    <t>Magic Arrow</t>
+  </si>
+  <si>
+    <t>75% SP + x
+4 range
+diagonally</t>
+  </si>
+  <si>
+    <t>Blink</t>
+  </si>
+  <si>
+    <t>Instant
+Teleport 2 range</t>
+  </si>
+  <si>
+    <t>Mana Ward</t>
+  </si>
+  <si>
+    <t>Any ally
+Shields for
+85% SP + 20% max mana</t>
+  </si>
+  <si>
+    <t>Ice Spike</t>
+  </si>
+  <si>
+    <t>70% SP
+4 range
+Damages all targets
+in a straight line</t>
+  </si>
+  <si>
+    <t>Ignite</t>
+  </si>
+  <si>
+    <t>All enemies bleed</t>
+  </si>
+  <si>
+    <t>Slowdown</t>
+  </si>
+  <si>
+    <t>35% SP
+50% slow
+4 range</t>
+  </si>
+  <si>
+    <t>Conjure Wall</t>
+  </si>
+  <si>
+    <t>4 range
+75% SP health</t>
+  </si>
+  <si>
+    <t>Iceberg Drop</t>
+  </si>
+  <si>
+    <t>40% SP
+4 range (TIR)
+Stuns the target</t>
+  </si>
+  <si>
+    <t>Soul Drain</t>
+  </si>
+  <si>
+    <t>50% SP
+3 range
+If this kills the target,
+gain 1 gem</t>
+  </si>
+  <si>
+    <t>&lt;Buff&gt;</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Flank</t>
+  </si>
+  <si>
+    <t>110% DMG
+diagonally</t>
+  </si>
+  <si>
+    <t>Backstab</t>
+  </si>
+  <si>
+    <t>135% DMG + x
+left only</t>
+  </si>
+  <si>
+    <t>Shadowstep</t>
+  </si>
+  <si>
+    <t>Teleport 3 range
+Instant
+Next attack ignores armor
+(TIR)</t>
+  </si>
+  <si>
+    <t>Pocket Sand</t>
+  </si>
+  <si>
+    <t>2 range
+8 way
+Stuns the target
+and pushes it
+random direction</t>
+  </si>
+  <si>
+    <t>Hijack</t>
+  </si>
+  <si>
+    <t>Rob Them Blind</t>
+  </si>
+  <si>
+    <t>Instant
+Increases gold loot
+gained by 25%
+(stacks)</t>
+  </si>
+  <si>
+    <t>&lt;Debuff&gt;</t>
+  </si>
+  <si>
+    <t>Fighter
+Ranger
+Rogue</t>
+  </si>
+  <si>
+    <t>Bandage</t>
+  </si>
+  <si>
+    <t>Heal 75% SP
+1 range, 8 way</t>
+  </si>
+  <si>
+    <t>Fighter, Rogue</t>
+  </si>
+  <si>
+    <t>Whirlwind</t>
+  </si>
+  <si>
+    <t>70% DMG
+ AoE
+1 range, 8 way</t>
+  </si>
+  <si>
+    <t>Fighter, Mage</t>
+  </si>
+  <si>
+    <t>Thunderclap</t>
+  </si>
+  <si>
+    <t>60% SP
+3 range, AoE</t>
+  </si>
+  <si>
+    <t>Figher, Ranger</t>
+  </si>
+  <si>
+    <t>Raise Morale</t>
+  </si>
+  <si>
+    <t>All allies +15% DMG
+and +2 initiative
+(does not stack)
+Instant</t>
+  </si>
+  <si>
+    <t>Thrown Skiver</t>
+  </si>
+  <si>
+    <t>15% DMG + bleed
+3 range, but jump
+over the first tile</t>
+  </si>
+  <si>
+    <t>Fighter
+Mage
+Rogue</t>
+  </si>
+  <si>
+    <t>Blood Drain</t>
+  </si>
+  <si>
+    <t>65% SP damage
+Heal 40% SP
+2 range, diagonal</t>
+  </si>
+  <si>
+    <t>Ranger, Rogue</t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
+    <t>Gain 50% dodge
+2 turns
+Instant</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Vampirism</t>
+  </si>
+  <si>
+    <t>Heal for 15% of
+damage dealt</t>
+  </si>
+  <si>
+    <t>Figher
+Ranger
+Rogue</t>
+  </si>
+  <si>
+    <t>Magic Touch</t>
+  </si>
+  <si>
+    <t>Your normal attacks
+or arrows deal
++25% SP damage</t>
+  </si>
 </sst>
 </file>
 
@@ -1170,11 +1559,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1201,6 +1590,20 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1246,6 +1649,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1253,14 +1663,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1269,6 +1712,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,7 +1741,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,7 +1771,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1313,77 +1785,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1398,31 +1801,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,85 +1843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,7 +1861,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,37 +1963,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1826,54 +2229,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1885,17 +2240,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,9 +2261,68 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1928,7 +2331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1946,134 +2349,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2083,9 +2486,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2095,33 +2495,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2149,10 +2552,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2215,7 +2615,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2237,6 +2637,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2566,560 +2969,560 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="25" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" style="25" customWidth="1"/>
-    <col min="3" max="3" width="9.71428571428571" style="25" customWidth="1"/>
-    <col min="4" max="4" width="11.1428571428571" style="25" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" style="25" customWidth="1"/>
-    <col min="6" max="6" width="17.7142857142857" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.8571428571429" style="25" customWidth="1"/>
-    <col min="8" max="8" width="17.5714285714286" style="25" customWidth="1"/>
-    <col min="9" max="9" width="19.1428571428571" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="25"/>
+    <col min="1" max="1" width="18.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.71428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5714285714286" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:9">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7"/>
-      <c r="B3" s="33">
+      <c r="A3" s="2"/>
+      <c r="B3" s="32">
         <v>1</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="33">
         <v>20</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>20</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>6.5</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="36">
         <v>6.5</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="37">
         <v>6.5</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>12</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="52">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="33">
+      <c r="A4" s="2"/>
+      <c r="B4" s="32">
         <v>2</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <v>21</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <v>23</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>7.5</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="39">
         <v>9</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="2">
         <v>9</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="40">
         <v>15</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="52">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7"/>
-      <c r="B5" s="33">
+      <c r="A5" s="2"/>
+      <c r="B5" s="32">
         <v>3</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <v>22</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>26</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>8.5</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <v>11.5</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>11.5</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="40">
         <v>18</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="52">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="33">
+      <c r="A6" s="2"/>
+      <c r="B6" s="32">
         <v>4</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>23</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="39">
         <v>29</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>9.5</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <v>14</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="2">
         <v>14</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="40">
         <v>21</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="52">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="33">
+      <c r="A7" s="2"/>
+      <c r="B7" s="32">
         <v>5</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>24</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="39">
         <v>32</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>10.5</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <v>16.5</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>16.5</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="40">
         <v>24</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="52">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="33">
+      <c r="A8" s="2"/>
+      <c r="B8" s="32">
         <v>6</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>25</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="39">
         <v>35</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>11.5</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="39">
         <v>19</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="2">
         <v>19</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="40">
         <v>27</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="52">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="33">
+      <c r="A9" s="2"/>
+      <c r="B9" s="32">
         <v>7</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>26</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="39">
         <v>38</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>12.5</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <v>21.5</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <v>21.5</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="40">
         <v>30</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="52">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="33">
+      <c r="A10" s="2"/>
+      <c r="B10" s="32">
         <v>8</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>27</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <v>41</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>13.5</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>24</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="2">
         <v>24</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="40">
         <v>33</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="52">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="33">
+      <c r="A11" s="2"/>
+      <c r="B11" s="32">
         <v>9</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>28</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="39">
         <v>44</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>14.5</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <v>26.5</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="37">
         <v>26.5</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="40">
         <v>36</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="52">
         <v>50</v>
       </c>
     </row>
     <row r="12" ht="19.5" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="42">
+      <c r="A12" s="2"/>
+      <c r="B12" s="41">
         <v>10</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="42">
         <v>29</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="43">
         <v>47</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="42">
         <v>15.5</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="43">
         <v>29</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <v>29</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>39</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="53">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7"/>
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="7"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7"/>
-      <c r="B17" s="33">
+      <c r="A17" s="2"/>
+      <c r="B17" s="32">
         <v>1</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="38">
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>1</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="7"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7"/>
-      <c r="B18" s="33">
+      <c r="A18" s="2"/>
+      <c r="B18" s="32">
         <v>2</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="40">
         <v>21</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="40">
         <v>1</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="7"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="7"/>
-      <c r="B19" s="33">
+      <c r="A19" s="2"/>
+      <c r="B19" s="32">
         <v>3</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="40">
         <v>27</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="40">
         <v>2</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="7"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="7"/>
-      <c r="B20" s="33">
+      <c r="A20" s="2"/>
+      <c r="B20" s="32">
         <v>4</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="40">
         <v>33</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="40">
         <v>2</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="7"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="7"/>
-      <c r="B21" s="33">
+      <c r="A21" s="2"/>
+      <c r="B21" s="32">
         <v>5</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="40">
         <v>39</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="40">
         <v>2</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="7"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>6</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="40">
         <v>45</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="40">
         <v>3</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>7</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="40">
         <v>51</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="40">
         <v>3</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>8</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="40">
         <v>57</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="40">
         <v>3</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>9</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="40">
         <v>63</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="40">
         <v>4</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="42">
+      <c r="B26" s="41">
         <v>10</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="45">
         <v>69</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="45">
         <v>4</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30"/>
@@ -3348,10 +3751,10 @@
       <c r="N2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -3438,7 +3841,6 @@
       <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
@@ -3502,7 +3904,6 @@
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
         <v>46</v>
       </c>
@@ -4094,167 +4495,167 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="7"/>
-    <col min="2" max="2" width="16" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.9047619047619" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.3428571428571" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.0095238095238" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.2857142857143" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.0095238095238" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.6380952380952" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.552380952381" style="7" customWidth="1"/>
-    <col min="10" max="10" width="19" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="7"/>
+    <col min="1" max="1" width="9.14285714285714" style="2"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.9047619047619" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.3428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.0095238095238" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.2857142857143" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.0095238095238" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.6380952380952" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.552380952381" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" ht="65.55" customHeight="1" spans="2:7">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</f>
         <v>=DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="7" t="str">
+      <c r="G4" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</f>
         <v>=DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</v>
       </c>
     </row>
     <row r="5" ht="44" customHeight="1" spans="2:8">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</f>
         <v>=DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="7" t="str">
+      <c r="G5" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</f>
         <v>=DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" ht="47" customHeight="1" spans="2:7">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="7" t="str">
+      <c r="C6" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</f>
         <v>=DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="7" t="str">
+      <c r="G6" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</f>
         <v>=DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</v>
       </c>
     </row>
     <row r="7" ht="64" customHeight="1" spans="2:8">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="7" t="str">
+      <c r="C7" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</f>
         <v>=DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="7" t="str">
+      <c r="G7" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</f>
         <v>=DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="2:7">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</f>
         <v>=DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="7" t="str">
+      <c r="G8" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</f>
         <v>=DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</v>
       </c>
     </row>
     <row r="9" ht="40" customHeight="1" spans="6:7">
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="7" t="str">
+      <c r="G9" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</f>
         <v>=DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="6:7">
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="7" t="str">
+      <c r="G10" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</f>
         <v>=DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="6:8">
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="7" t="str">
+      <c r="G11" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</f>
         <v>=DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4267,10 +4668,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B9:K23"/>
+  <dimension ref="B9:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -4282,31 +4683,31 @@
     <col min="5" max="5" width="21.8571428571429" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.5714285714286" style="2" customWidth="1"/>
     <col min="7" max="9" width="9.14285714285714" style="1"/>
-    <col min="10" max="10" width="18.8571428571429" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.8571428571429" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.8571428571429" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.8571428571429" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:11">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4324,10 +4725,10 @@
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4342,16 +4743,16 @@
         <f>_xlfn.DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</f>
         <v>=DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>175</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>2</v>
       </c>
     </row>
@@ -4362,16 +4763,16 @@
       <c r="C12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4386,16 +4787,16 @@
         <f>_xlfn.DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</f>
         <v>=DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>181</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>5</v>
       </c>
     </row>
@@ -4406,44 +4807,596 @@
       <c r="C14" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>184</v>
       </c>
       <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="37.5" spans="2:5">
+    <row r="15" ht="37.5" spans="2:6">
       <c r="B15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="21" spans="7:9">
+      <c r="F15" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" ht="37.5" spans="2:6">
+      <c r="B16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</f>
+        <v>=DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="56.25" spans="2:6">
+      <c r="B17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" ht="37.5" spans="2:6">
+      <c r="B19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</f>
+        <v>=DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" ht="93.75" spans="2:6">
+      <c r="B20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" ht="56.25" spans="2:9">
+      <c r="B21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="7:9">
+    <row r="22" ht="93.75" spans="2:9">
+      <c r="B22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="7:9">
+    <row r="23" ht="75" spans="2:9">
+      <c r="B23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
+    </row>
+    <row r="24" ht="56.25" spans="2:6">
+      <c r="B24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</f>
+        <v>=DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" ht="37.5" spans="2:6">
+      <c r="B26" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="56.25" spans="2:6">
+      <c r="B27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="37.5" spans="2:6">
+      <c r="B28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="75" spans="2:6">
+      <c r="B29" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" ht="93.75" spans="2:6">
+      <c r="B30" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" ht="56.25" spans="2:6">
+      <c r="B32" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" ht="37.5" spans="2:6">
+      <c r="B33" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="56.25" spans="2:6">
+      <c r="B34" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" ht="93.75" spans="2:5">
+      <c r="B35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="37.5" spans="2:6">
+      <c r="B38" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" ht="37.5" spans="2:6">
+      <c r="B39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" ht="93.75" spans="2:6">
+      <c r="B40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" ht="93.75" spans="2:6">
+      <c r="B41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" ht="75" spans="2:6">
+      <c r="B43" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" ht="56.25" spans="2:6">
+      <c r="B46" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" ht="56.25" spans="2:6">
+      <c r="B47" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" ht="37.5" spans="2:6">
+      <c r="B48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F48" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" ht="93.75" spans="2:6">
+      <c r="B49" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" ht="56.25" spans="2:6">
+      <c r="B50" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" ht="56.25" spans="2:6">
+      <c r="B51" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" ht="56.25" spans="2:6">
+      <c r="B52" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F52" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" ht="37.5" spans="2:6">
+      <c r="B53" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" ht="75" spans="2:6">
+      <c r="B54" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="13095" activeTab="3"/>
+    <workbookView windowWidth="20025" windowHeight="12345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -504,6 +504,206 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="ID_3B6DDDD98A8F40BC81817AB7D481E31C" descr="Flare Shot"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="9582150"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="ID_9DEEB880DCB04491A4378D1013CB4998" descr="Bear Trap"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="10582275"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="ID_937E3FF1032A441DAFCEF81E0E8651CE" descr="Disorient"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="11515725"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="ID_601DEB5433E749A5B04D3AB579BF0284" descr="Stand Ground"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="3883025"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="ID_900DEDBC95DA49B6832F8E0EAF3922E7" descr="Intimidation"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="6105525"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="ID_05B2EF6AB8B64DED9EE5B9B0C23F991B" descr="TomeQuickfoot"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="8553450"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="ID_6D29D48731D64D15B7AFC6A55F3580E6" descr="TomeRegeneration"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="7067550"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="ID_B7F3E8AB96A746EEA8D18747E89057C6" descr="Fox Attack"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="8334375"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
@@ -1197,8 +1397,8 @@
     <t>Stand Ground</t>
   </si>
   <si>
-    <t>Block 90% DMG
-of next Attack;
+    <t>Block 60% DMG
+until next turn;
 +1 Damage rest
 of combat</t>
   </si>
@@ -1222,10 +1422,10 @@
     <t>Indimidation</t>
   </si>
   <si>
-    <t>4 range AoE
+    <t>5 range AoE
 Reduces damage
 of enemies by
-25% + 25% of SP
+25% + damages 30% of SP
 (doesn't stack)</t>
   </si>
   <si>
@@ -1235,7 +1435,7 @@
     <t>Regeneration</t>
   </si>
   <si>
-    <t>Heal 2 + 20% SP
+    <t>Heal 1 + 20% SP
 every turn</t>
   </si>
   <si>
@@ -1257,7 +1457,8 @@
   <si>
     <t>35% DMG
 Bleed 35% SP
-global range</t>
+global range
+(3 turns)</t>
   </si>
   <si>
     <t>Quickfoot</t>
@@ -1273,7 +1474,7 @@
 4 range</t>
   </si>
   <si>
-    <t>Flareshot</t>
+    <t>Flare Shot</t>
   </si>
   <si>
     <t>90% SP
@@ -1285,7 +1486,7 @@
   <si>
     <t>105% SP
 4 range (TIR)
-unit gets snared</t>
+(instant)</t>
   </si>
   <si>
     <t>Disorient</t>
@@ -1558,10 +1759,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1649,21 +1850,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1671,7 +1865,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1685,25 +1879,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1718,14 +1895,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1736,6 +1914,45 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1754,39 +1971,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1801,37 +2002,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,31 +2020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,7 +2044,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1897,19 +2128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,7 +2140,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,25 +2170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,19 +2182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2244,50 +2445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2313,6 +2470,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2326,12 +2507,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2349,130 +2550,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2964,7 +3165,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -3725,7 +3926,7 @@
   <dimension ref="A2:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -4490,7 +4691,7 @@
   <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -4670,8 +4871,8 @@
   <sheetPr/>
   <dimension ref="B9:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -4763,6 +4964,10 @@
       <c r="C12" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="D12" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</f>
+        <v>=DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</v>
+      </c>
       <c r="E12" s="5" t="s">
         <v>178</v>
       </c>
@@ -4800,12 +5005,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="93.75" spans="2:11">
+    <row r="14" ht="112.5" spans="2:11">
       <c r="B14" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>183</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</f>
+        <v>=DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>184</v>
@@ -4827,6 +5036,10 @@
       <c r="C15" s="6" t="s">
         <v>186</v>
       </c>
+      <c r="D15" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</f>
+        <v>=DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>187</v>
       </c>
@@ -4852,26 +5065,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="56.25" spans="2:6">
+    <row r="17" ht="75" spans="2:6">
       <c r="B17" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="D17" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</f>
+        <v>=DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>193</v>
       </c>
       <c r="F17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="29.25" spans="2:6">
       <c r="B18" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>194</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</f>
+        <v>=DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</v>
       </c>
       <c r="E18" s="54" t="s">
         <v>195</v>
@@ -4905,6 +5126,10 @@
       <c r="C20" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="D20" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</f>
+        <v>=DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</v>
+      </c>
       <c r="E20" s="5" t="s">
         <v>199</v>
       </c>
@@ -4919,6 +5144,10 @@
       <c r="C21" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="D21" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</f>
+        <v>=DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</v>
+      </c>
       <c r="E21" s="7" t="s">
         <v>200</v>
       </c>
@@ -4935,6 +5164,10 @@
       </c>
       <c r="C22" s="2" t="s">
         <v>201</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</f>
+        <v>=DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>202</v>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20025" windowHeight="12345" activeTab="3"/>
+    <workbookView windowWidth="23295" windowHeight="13095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Monsters" sheetId="2" r:id="rId2"/>
     <sheet name="Traps" sheetId="3" r:id="rId3"/>
     <sheet name="Spells" sheetId="4" r:id="rId4"/>
+    <sheet name="Map Generation" sheetId="5" r:id="rId5"/>
+    <sheet name="Rules" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -704,11 +706,238 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="ID_2FF2D0EDD67E4B1B83779BB6A20A7F3D" descr="Peasant_finished2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="828675"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="ID_173843F37D6244B794D86AF19D859547" descr="Guardus"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="1866900"/>
+          <a:ext cx="647700" cy="708025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="ID_6A82539A52A34473B077CC1FF6D19737" descr="xbow_guard"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1629410" y="2649220"/>
+          <a:ext cx="866140" cy="954405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="ID_0D1348BF351942C0B94814EB2E6C33B3" descr="molotov_peasant"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="3829050"/>
+          <a:ext cx="647700" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="ID_48D844B5BD4E47F1A264B90859DAC1E8" descr="surfmaster2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="4279900"/>
+          <a:ext cx="914400" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="ID_6763D977B250450ABFE5A7D8A1F632C1" descr="Evil Paprika Solo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="5429250"/>
+          <a:ext cx="561975" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="ID_5DCB40CCA6B44244B7519B2BA06EDF1C" descr="Little Scout"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="5099050"/>
+          <a:ext cx="914400" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="ID_A28CCF741D2F4C959572208881E29708" descr="pumpling"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:srcRect l="-177" t="-2143" r="83156" b="2143"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="7286625"/>
+          <a:ext cx="914400" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="ID_9997CD209D774EEAB420C53DDEA056A0" descr="Catholic"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:srcRect l="2917" t="2091" r="78333" b="-2091"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="5464175"/>
+          <a:ext cx="857250" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="316">
   <si>
     <t>Player Level</t>
   </si>
@@ -722,21 +951,21 @@
     <t>D. Base</t>
   </si>
   <si>
+    <t>Spell Power</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>XP to Next Lvl</t>
+  </si>
+  <si>
+    <t>Monster Level</t>
+  </si>
+  <si>
     <t>Damage</t>
   </si>
   <si>
-    <t>Spell Power</t>
-  </si>
-  <si>
-    <t>Mana</t>
-  </si>
-  <si>
-    <t>XP to Next Lvl</t>
-  </si>
-  <si>
-    <t>Monster Level</t>
-  </si>
-  <si>
     <t>XP Award</t>
   </si>
   <si>
@@ -773,7 +1002,7 @@
     <t>Monster</t>
   </si>
   <si>
-    <t>Ratio</t>
+    <t>Image</t>
   </si>
   <si>
     <t>Level</t>
@@ -791,31 +1020,58 @@
     <t>Special 3</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Peasant</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>1 - 2</t>
   </si>
   <si>
+    <t>Has 6*2 + 1 HP</t>
+  </si>
+  <si>
     <t>Patrolling Guard</t>
   </si>
   <si>
+    <t>Killable in 2 shots</t>
+  </si>
+  <si>
     <t>Crossbow Guard</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Shooter</t>
   </si>
   <si>
+    <t>Killable in 1.5 shots, ranged</t>
+  </si>
+  <si>
     <t>Molotov Peasant</t>
   </si>
   <si>
-    <t>13</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Targets a random tile
+in range.
+Leaves fire on the
+ground there + 1 adjacent</t>
+  </si>
+  <si>
+    <t>Killable in 1 + 2 shot</t>
   </si>
   <si>
     <t>Serfmaster</t>
@@ -827,10 +1083,56 @@
     <t>Large</t>
   </si>
   <si>
+    <t>Has 6*4 + 2 HP</t>
+  </si>
+  <si>
+    <t>Little Scout</t>
+  </si>
+  <si>
+    <t>1 (5 range)</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2 - 2 (4 range, diagonal)</t>
+  </si>
+  <si>
+    <t>Heal 4</t>
+  </si>
+  <si>
+    <t>Can't heal self</t>
+  </si>
+  <si>
+    <t>Evil Paprika</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3 - 3 (3 range)</t>
+  </si>
+  <si>
+    <t>Attack pierces all
+(delayed)</t>
+  </si>
+  <si>
+    <t>Pumpling</t>
+  </si>
+  <si>
+    <t>50% dodge chance</t>
+  </si>
+  <si>
     <t>THE PAGAN TRIO</t>
-  </si>
-  <si>
-    <t>BOSS</t>
   </si>
   <si>
     <t>10
@@ -846,59 +1148,6 @@
 Lil Munchy has 3 - 4</t>
   </si>
   <si>
-    <t>Marceline is present here
-at the start and tells them
-to kill you or something</t>
-  </si>
-  <si>
-    <t>Evil Paprika</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3 - 3 (2 range)</t>
-  </si>
-  <si>
-    <t>Explodes on 
-death for 3 damage</t>
-  </si>
-  <si>
-    <t>Pumpling</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>On death, leaves spikes
-on the ground
-(2 damage)</t>
-  </si>
-  <si>
-    <t>Bishop</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>3 - 3 (4 range)</t>
-  </si>
-  <si>
-    <t>Heal 6</t>
-  </si>
-  <si>
-    <t>Prison Guard</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Armor 2</t>
-  </si>
-  <si>
     <t>PUMPZILLA</t>
   </si>
   <si>
@@ -1185,9 +1434,6 @@
   </si>
   <si>
     <t>Trap</t>
-  </si>
-  <si>
-    <t>Image</t>
   </si>
   <si>
     <t>Effect</t>
@@ -1353,6 +1599,55 @@
     <t>Table</t>
   </si>
   <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: damage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start turn here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+damage</t>
+    </r>
+  </si>
+  <si>
     <t>Log</t>
   </si>
   <si>
@@ -1378,7 +1673,7 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>100% DMG</t>
+    <t>100% ATK</t>
   </si>
   <si>
     <t>Fighter</t>
@@ -1388,19 +1683,16 @@
   </si>
   <si>
     <t>2 range
-55% DMG AoE</t>
-  </si>
-  <si>
-    <t>135% DMG</t>
-  </si>
-  <si>
-    <t>Stand Ground</t>
-  </si>
-  <si>
-    <t>Block 60% DMG
-until next turn;
-+1 Damage rest
-of combat</t>
+2 + 75% ATK AoE</t>
+  </si>
+  <si>
+    <t>135% ATK</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Block up to 100% SP damage until next turn.</t>
   </si>
   <si>
     <t>Move 1 (free)</t>
@@ -1410,10 +1702,9 @@
   </si>
   <si>
     <t>1 range
-75% DMG
-Push 3 away
-+ 45% DMG if
-collides</t>
+75% ATK
+Push away (a lot)
++ 75% ATK as FIRE if collides</t>
   </si>
   <si>
     <t>Heal 10% HP</t>
@@ -1425,7 +1716,7 @@
     <t>5 range AoE
 Reduces damage
 of enemies by
-25% + damages 30% of SP
+25% + damages 30% SP PURE
 (doesn't stack)</t>
   </si>
   <si>
@@ -1448,14 +1739,14 @@
     <t>Shoot Arrow</t>
   </si>
   <si>
-    <t>90% DMG
+    <t>100% ATK
 4 range</t>
   </si>
   <si>
     <t>Fox Attack</t>
   </si>
   <si>
-    <t>35% DMG
+    <t>35% ATK
 Bleed 35% SP
 global range
 (3 turns)</t>
@@ -1470,14 +1761,14 @@
     <t>Triple Arrow</t>
   </si>
   <si>
-    <t>85% DMG
+    <t>85% ATK
 4 range</t>
   </si>
   <si>
     <t>Flare Shot</t>
   </si>
   <si>
-    <t>90% SP
+    <t>90% SP FIRE
 4 range (8 way)
 enemy gets -10
 dodge and crit
@@ -1501,7 +1792,7 @@
     <t>Steady Shooting</t>
   </si>
   <si>
-    <t>Every second shot
+    <t>Every second Shoot Arrow
 on the same target
 deals 25% extra
 damage</t>
@@ -1609,14 +1900,14 @@
     <t>Flank</t>
   </si>
   <si>
-    <t>110% DMG
+    <t>110% ATK
 diagonally</t>
   </si>
   <si>
     <t>Backstab</t>
   </si>
   <si>
-    <t>135% DMG + x
+    <t>135% ATK + x
 left only</t>
   </si>
   <si>
@@ -1672,7 +1963,7 @@
     <t>Whirlwind</t>
   </si>
   <si>
-    <t>70% DMG
+    <t>70% ATK
  AoE
 1 range, 8 way</t>
   </si>
@@ -1693,7 +1984,7 @@
     <t>Raise Morale</t>
   </si>
   <si>
-    <t>All allies +15% DMG
+    <t>All allies +15% ATK
 and +2 initiative
 (does not stack)
 Instant</t>
@@ -1702,7 +1993,7 @@
     <t>Thrown Skiver</t>
   </si>
   <si>
-    <t>15% DMG + bleed
+    <t>15% ATK + bleed
 3 range, but jump
 over the first tile</t>
   </si>
@@ -1752,6 +2043,171 @@
     <t>Your normal attacks
 or arrows deal
 +25% SP damage</t>
+  </si>
+  <si>
+    <t>Throw Rock</t>
+  </si>
+  <si>
+    <t>1 Damage</t>
+  </si>
+  <si>
+    <t>Use to trigger traps and stuff</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Standard:</t>
+  </si>
+  <si>
+    <t>2-4 Nodes / Tier</t>
+  </si>
+  <si>
+    <t>All paths have at
+least 1 shop</t>
+  </si>
+  <si>
+    <t>Loot
+(Standard):</t>
+  </si>
+  <si>
+    <t>3 items</t>
+  </si>
+  <si>
+    <t>25% Chance Spells</t>
+  </si>
+  <si>
+    <t>75% Chance Gear</t>
+  </si>
+  <si>
+    <t>25% Chance
+an item is replaced
+with a consumable</t>
+  </si>
+  <si>
+    <t>Chest Loot:</t>
+  </si>
+  <si>
+    <t>level * (12-17)
+gold</t>
+  </si>
+  <si>
+    <t>Random consumable
+of level</t>
+  </si>
+  <si>
+    <t>Spells Loot</t>
+  </si>
+  <si>
+    <t>if enc.level &gt; 1
+then:</t>
+  </si>
+  <si>
+    <t>65% chance common</t>
+  </si>
+  <si>
+    <t>25% chance rare</t>
+  </si>
+  <si>
+    <t>10% chance artifact</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t># Tiers</t>
+  </si>
+  <si>
+    <t>Map Generation Rules</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Strictly the pattern:</t>
+  </si>
+  <si>
+    <t>ROOT</t>
+  </si>
+  <si>
+    <t>"Tutorial"</t>
+  </si>
+  <si>
+    <t>"Home Break-In"</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>"Mad Peasants"</t>
+  </si>
+  <si>
+    <t>Road to the King</t>
+  </si>
+  <si>
+    <t>9 (0-4)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tier #0-2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard</t>
+    </r>
+  </si>
+  <si>
+    <t>Tier #3:
+2 Rescue Missions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tier #4-8:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard</t>
+    </r>
+  </si>
+  <si>
+    <t>Block resets at the start of every turn.
+Acts as extra HP.</t>
+  </si>
+  <si>
+    <t>Calculated just like normal damage, after reductions.</t>
   </si>
 </sst>
 </file>
@@ -1759,12 +2215,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1782,7 +2238,23 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.25"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1819,14 +2291,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="4" tint="-0.25"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1849,17 +2313,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1871,16 +2329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1902,10 +2352,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1948,17 +2398,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1973,7 +2414,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1981,6 +2430,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2002,18 +2466,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2026,13 +2478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,13 +2508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2062,7 +2520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2074,13 +2538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,25 +2550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2128,7 +2580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,7 +2592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2152,19 +2610,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2176,23 +2640,88 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2206,6 +2735,15 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2331,21 +2869,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2375,6 +2898,15 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2410,12 +2942,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
         <color auto="1"/>
-      </right>
+      </left>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2430,17 +2964,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2455,30 +2983,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2508,11 +3012,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2532,7 +3066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2550,294 +3084,333 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -3165,565 +3738,532 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.71428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5714285714286" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="18.7142857142857" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.4285714285714" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.71428571428571" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.7142857142857" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.8571428571429" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.5714285714286" style="13" customWidth="1"/>
+    <col min="9" max="9" width="19.1428571428571" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:9">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="46">
+        <v>1</v>
+      </c>
+      <c r="C3" s="47">
+        <v>20</v>
+      </c>
+      <c r="D3" s="48">
+        <v>20</v>
+      </c>
+      <c r="E3" s="49">
+        <v>6</v>
+      </c>
+      <c r="F3" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="G3" s="50">
+        <v>12</v>
+      </c>
+      <c r="H3" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="46">
+        <v>2</v>
+      </c>
+      <c r="C4" s="47">
+        <v>21</v>
+      </c>
+      <c r="D4" s="52">
+        <v>23</v>
+      </c>
+      <c r="E4" s="47">
         <v>7</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="32">
+      <c r="F4" s="1">
+        <v>9</v>
+      </c>
+      <c r="G4" s="53">
+        <v>15</v>
+      </c>
+      <c r="H4" s="51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="46">
+        <v>3</v>
+      </c>
+      <c r="C5" s="47">
+        <v>22</v>
+      </c>
+      <c r="D5" s="52">
+        <v>26</v>
+      </c>
+      <c r="E5" s="49">
+        <v>8</v>
+      </c>
+      <c r="F5" s="27">
+        <v>11.5</v>
+      </c>
+      <c r="G5" s="53">
+        <v>18</v>
+      </c>
+      <c r="H5" s="51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="46">
+        <v>4</v>
+      </c>
+      <c r="C6" s="47">
+        <v>23</v>
+      </c>
+      <c r="D6" s="52">
+        <v>29</v>
+      </c>
+      <c r="E6" s="49">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>14</v>
+      </c>
+      <c r="G6" s="53">
+        <v>21</v>
+      </c>
+      <c r="H6" s="51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="46">
+        <v>5</v>
+      </c>
+      <c r="C7" s="47">
+        <v>24</v>
+      </c>
+      <c r="D7" s="52">
+        <v>32</v>
+      </c>
+      <c r="E7" s="47">
+        <v>10</v>
+      </c>
+      <c r="F7" s="27">
+        <v>16.5</v>
+      </c>
+      <c r="G7" s="53">
+        <v>24</v>
+      </c>
+      <c r="H7" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="46">
+        <v>6</v>
+      </c>
+      <c r="C8" s="47">
+        <v>25</v>
+      </c>
+      <c r="D8" s="52">
+        <v>35</v>
+      </c>
+      <c r="E8" s="49">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>19</v>
+      </c>
+      <c r="G8" s="53">
+        <v>27</v>
+      </c>
+      <c r="H8" s="51">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="46">
+        <v>7</v>
+      </c>
+      <c r="C9" s="47">
+        <v>26</v>
+      </c>
+      <c r="D9" s="52">
+        <v>38</v>
+      </c>
+      <c r="E9" s="49">
+        <v>12</v>
+      </c>
+      <c r="F9" s="27">
+        <v>21.5</v>
+      </c>
+      <c r="G9" s="53">
+        <v>30</v>
+      </c>
+      <c r="H9" s="51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="46">
+        <v>8</v>
+      </c>
+      <c r="C10" s="47">
+        <v>27</v>
+      </c>
+      <c r="D10" s="52">
+        <v>41</v>
+      </c>
+      <c r="E10" s="47">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
+        <v>24</v>
+      </c>
+      <c r="G10" s="53">
+        <v>33</v>
+      </c>
+      <c r="H10" s="51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="46">
+        <v>9</v>
+      </c>
+      <c r="C11" s="47">
+        <v>28</v>
+      </c>
+      <c r="D11" s="52">
+        <v>44</v>
+      </c>
+      <c r="E11" s="49">
+        <v>14</v>
+      </c>
+      <c r="F11" s="27">
+        <v>26.5</v>
+      </c>
+      <c r="G11" s="53">
+        <v>36</v>
+      </c>
+      <c r="H11" s="51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="54">
+        <v>10</v>
+      </c>
+      <c r="C12" s="55">
+        <v>29</v>
+      </c>
+      <c r="D12" s="56">
+        <v>47</v>
+      </c>
+      <c r="E12" s="57">
+        <v>15</v>
+      </c>
+      <c r="F12" s="58">
+        <v>29</v>
+      </c>
+      <c r="G12" s="59">
+        <v>39</v>
+      </c>
+      <c r="H12" s="60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="46">
         <v>1</v>
       </c>
-      <c r="C3" s="33">
-        <v>20</v>
-      </c>
-      <c r="D3" s="34">
-        <v>20</v>
-      </c>
-      <c r="E3" s="35">
-        <v>6.5</v>
-      </c>
-      <c r="F3" s="36">
-        <v>6.5</v>
-      </c>
-      <c r="G3" s="37">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="38">
+      <c r="C17" s="50">
+        <v>15</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="53">
+        <v>1</v>
+      </c>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="46">
+        <v>2</v>
+      </c>
+      <c r="C18" s="53">
+        <v>21</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="53">
+        <v>1</v>
+      </c>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="46">
+        <v>3</v>
+      </c>
+      <c r="C19" s="53">
+        <v>27</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="52">
+      <c r="E19" s="53">
+        <v>2</v>
+      </c>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1"/>
+      <c r="B20" s="46">
+        <v>4</v>
+      </c>
+      <c r="C20" s="53">
+        <v>33</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="53">
+        <v>2</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="46">
+        <v>5</v>
+      </c>
+      <c r="C21" s="53">
+        <v>39</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="53">
+        <v>2</v>
+      </c>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="46">
+        <v>6</v>
+      </c>
+      <c r="C22" s="53">
+        <v>45</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="53">
+        <v>3</v>
+      </c>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="46">
+        <v>7</v>
+      </c>
+      <c r="C23" s="53">
+        <v>51</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="53">
+        <v>3</v>
+      </c>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="46">
+        <v>8</v>
+      </c>
+      <c r="C24" s="53">
+        <v>57</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="53">
+        <v>3</v>
+      </c>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="46">
+        <v>9</v>
+      </c>
+      <c r="C25" s="53">
+        <v>63</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="53">
+        <v>4</v>
+      </c>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="54">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="32">
-        <v>2</v>
-      </c>
-      <c r="C4" s="33">
-        <v>21</v>
-      </c>
-      <c r="D4" s="39">
-        <v>23</v>
-      </c>
-      <c r="E4" s="33">
-        <v>7.5</v>
-      </c>
-      <c r="F4" s="39">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2">
-        <v>9</v>
-      </c>
-      <c r="H4" s="40">
-        <v>15</v>
-      </c>
-      <c r="I4" s="52">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="32">
-        <v>3</v>
-      </c>
-      <c r="C5" s="33">
-        <v>22</v>
-      </c>
-      <c r="D5" s="39">
-        <v>26</v>
-      </c>
-      <c r="E5" s="35">
-        <v>8.5</v>
-      </c>
-      <c r="F5" s="36">
-        <v>11.5</v>
-      </c>
-      <c r="G5" s="37">
-        <v>11.5</v>
-      </c>
-      <c r="H5" s="40">
-        <v>18</v>
-      </c>
-      <c r="I5" s="52">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="32">
+      <c r="C26" s="59">
+        <v>69</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="59">
         <v>4</v>
       </c>
-      <c r="C6" s="33">
-        <v>23</v>
-      </c>
-      <c r="D6" s="39">
-        <v>29</v>
-      </c>
-      <c r="E6" s="33">
-        <v>9.5</v>
-      </c>
-      <c r="F6" s="39">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
-        <v>14</v>
-      </c>
-      <c r="H6" s="40">
-        <v>21</v>
-      </c>
-      <c r="I6" s="52">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="32">
-        <v>5</v>
-      </c>
-      <c r="C7" s="33">
-        <v>24</v>
-      </c>
-      <c r="D7" s="39">
-        <v>32</v>
-      </c>
-      <c r="E7" s="35">
-        <v>10.5</v>
-      </c>
-      <c r="F7" s="36">
-        <v>16.5</v>
-      </c>
-      <c r="G7" s="37">
-        <v>16.5</v>
-      </c>
-      <c r="H7" s="40">
-        <v>24</v>
-      </c>
-      <c r="I7" s="52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="32">
-        <v>6</v>
-      </c>
-      <c r="C8" s="33">
-        <v>25</v>
-      </c>
-      <c r="D8" s="39">
-        <v>35</v>
-      </c>
-      <c r="E8" s="33">
-        <v>11.5</v>
-      </c>
-      <c r="F8" s="39">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2">
-        <v>19</v>
-      </c>
-      <c r="H8" s="40">
-        <v>27</v>
-      </c>
-      <c r="I8" s="52">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="32">
-        <v>7</v>
-      </c>
-      <c r="C9" s="33">
-        <v>26</v>
-      </c>
-      <c r="D9" s="39">
-        <v>38</v>
-      </c>
-      <c r="E9" s="35">
-        <v>12.5</v>
-      </c>
-      <c r="F9" s="36">
-        <v>21.5</v>
-      </c>
-      <c r="G9" s="37">
-        <v>21.5</v>
-      </c>
-      <c r="H9" s="40">
-        <v>30</v>
-      </c>
-      <c r="I9" s="52">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="32">
-        <v>8</v>
-      </c>
-      <c r="C10" s="33">
-        <v>27</v>
-      </c>
-      <c r="D10" s="39">
-        <v>41</v>
-      </c>
-      <c r="E10" s="33">
-        <v>13.5</v>
-      </c>
-      <c r="F10" s="39">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2">
-        <v>24</v>
-      </c>
-      <c r="H10" s="40">
-        <v>33</v>
-      </c>
-      <c r="I10" s="52">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="32">
-        <v>9</v>
-      </c>
-      <c r="C11" s="33">
-        <v>28</v>
-      </c>
-      <c r="D11" s="39">
-        <v>44</v>
-      </c>
-      <c r="E11" s="35">
-        <v>14.5</v>
-      </c>
-      <c r="F11" s="36">
-        <v>26.5</v>
-      </c>
-      <c r="G11" s="37">
-        <v>26.5</v>
-      </c>
-      <c r="H11" s="40">
-        <v>36</v>
-      </c>
-      <c r="I11" s="52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" ht="19.5" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="41">
-        <v>10</v>
-      </c>
-      <c r="C12" s="42">
-        <v>29</v>
-      </c>
-      <c r="D12" s="43">
-        <v>47</v>
-      </c>
-      <c r="E12" s="42">
-        <v>15.5</v>
-      </c>
-      <c r="F12" s="43">
-        <v>29</v>
-      </c>
-      <c r="G12" s="44">
-        <v>29</v>
-      </c>
-      <c r="H12" s="45">
-        <v>39</v>
-      </c>
-      <c r="I12" s="53">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="32">
-        <v>1</v>
-      </c>
-      <c r="C17" s="38">
-        <v>15</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="40">
-        <v>1</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="32">
-        <v>2</v>
-      </c>
-      <c r="C18" s="40">
-        <v>21</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="40">
-        <v>1</v>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2"/>
-      <c r="B19" s="32">
-        <v>3</v>
-      </c>
-      <c r="C19" s="40">
-        <v>27</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="40">
-        <v>2</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2"/>
-      <c r="B20" s="32">
-        <v>4</v>
-      </c>
-      <c r="C20" s="40">
-        <v>33</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="40">
-        <v>2</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2"/>
-      <c r="B21" s="32">
-        <v>5</v>
-      </c>
-      <c r="C21" s="40">
-        <v>39</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="40">
-        <v>2</v>
-      </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="32">
-        <v>6</v>
-      </c>
-      <c r="C22" s="40">
-        <v>45</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="40">
-        <v>3</v>
-      </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="32">
-        <v>7</v>
-      </c>
-      <c r="C23" s="40">
-        <v>51</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="40">
-        <v>3</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="32">
-        <v>8</v>
-      </c>
-      <c r="C24" s="40">
-        <v>57</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="40">
-        <v>3</v>
-      </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="32">
-        <v>9</v>
-      </c>
-      <c r="C25" s="40">
-        <v>63</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="40">
-        <v>4</v>
-      </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="41">
-        <v>10</v>
-      </c>
-      <c r="C26" s="45">
-        <v>69</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="45">
-        <v>4</v>
-      </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30"/>
@@ -3744,175 +4284,175 @@
       <c r="H31"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3923,760 +4463,809 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.1428571428571" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.5714285714286" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.5714285714286" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26" style="11" customWidth="1"/>
-    <col min="7" max="7" width="27" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.8571428571429" style="11" customWidth="1"/>
-    <col min="9" max="9" width="36" style="11" customWidth="1"/>
-    <col min="10" max="10" width="2.57142857142857" style="11" customWidth="1"/>
-    <col min="11" max="11" width="18.5714285714286" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.14285714285714" style="11"/>
-    <col min="13" max="13" width="11.5714285714286" style="11" customWidth="1"/>
-    <col min="14" max="14" width="13.4285714285714" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="9.14285714285714" style="11"/>
+    <col min="1" max="2" width="21.1428571428571" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="22" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" style="22" customWidth="1"/>
+    <col min="5" max="5" width="17.8571428571429" style="22" customWidth="1"/>
+    <col min="6" max="6" width="26" style="22" customWidth="1"/>
+    <col min="7" max="7" width="27" style="22" customWidth="1"/>
+    <col min="8" max="8" width="16.8571428571429" style="22" customWidth="1"/>
+    <col min="9" max="9" width="36" style="22" customWidth="1"/>
+    <col min="10" max="10" width="2.57142857142857" style="22" customWidth="1"/>
+    <col min="11" max="11" width="18.5714285714286" style="22" customWidth="1"/>
+    <col min="12" max="12" width="9.14285714285714" style="22"/>
+    <col min="13" max="13" width="11.5714285714286" style="22" customWidth="1"/>
+    <col min="14" max="14" width="13.4285714285714" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:14">
+    <row r="1" spans="1:9">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="74.25" spans="1:14">
+      <c r="A2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_2FF2D0EDD67E4B1B83779BB6A20A7F3D",1)</f>
+        <v>=DISPIMG("ID_2FF2D0EDD67E4B1B83779BB6A20A7F3D",1)</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" ht="58" spans="1:14">
+      <c r="A3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_173843F37D6244B794D86AF19D859547",1)</f>
+        <v>=DISPIMG("ID_173843F37D6244B794D86AF19D859547",1)</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
+        <v>12</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3"/>
+    </row>
+    <row r="4" ht="90" customHeight="1" spans="1:14">
+      <c r="A4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_6A82539A52A34473B077CC1FF6D19737",1)</f>
+        <v>=DISPIMG("ID_6A82539A52A34473B077CC1FF6D19737",1)</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4"/>
+    </row>
+    <row r="5" ht="58" customHeight="1" spans="1:14">
+      <c r="A5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_0D1348BF351942C0B94814EB2E6C33B3",1)</f>
+        <v>=DISPIMG("ID_0D1348BF351942C0B94814EB2E6C33B3",1)</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5"/>
+    </row>
+    <row r="6" ht="68" customHeight="1" spans="1:14">
+      <c r="A6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_48D844B5BD4E47F1A264B90859DAC1E8",1)</f>
+        <v>=DISPIMG("ID_48D844B5BD4E47F1A264B90859DAC1E8",1)</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6"/>
+    </row>
+    <row r="7" ht="58" customHeight="1" spans="1:14">
+      <c r="A7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_5DCB40CCA6B44244B7519B2BA06EDF1C",1)</f>
+        <v>=DISPIMG("ID_5DCB40CCA6B44244B7519B2BA06EDF1C",1)</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7"/>
+    </row>
+    <row r="8" ht="71" customHeight="1" spans="1:14">
+      <c r="A8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="30" t="str">
+        <f>_xlfn.DISPIMG("ID_9997CD209D774EEAB420C53DDEA056A0",1)</f>
+        <v>=DISPIMG("ID_9997CD209D774EEAB420C53DDEA056A0",1)</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8"/>
+    </row>
+    <row r="9" ht="71" customHeight="1" spans="1:14">
+      <c r="A9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</f>
+        <v>=DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9"/>
+    </row>
+    <row r="10" ht="75" customHeight="1" spans="1:14">
+      <c r="A10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</f>
+        <v>=DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" ht="75.75" spans="1:14">
+      <c r="A11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="14:14">
+      <c r="N12"/>
+    </row>
+    <row r="13" ht="66" customHeight="1" spans="14:14">
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="14:14">
+      <c r="N14"/>
+    </row>
+    <row r="15" ht="56.25" spans="1:14">
+      <c r="A15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16"/>
+    </row>
+    <row r="17" ht="37.5" spans="1:14">
+      <c r="A17" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17"/>
+    </row>
+    <row r="18" ht="56.25" spans="1:14">
+      <c r="A18" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" ht="56.25" spans="1:6">
+      <c r="A20" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" ht="93.75" spans="1:8">
+      <c r="A21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" ht="37.5" spans="1:8">
+      <c r="A22" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" ht="37.5" spans="1:8">
+      <c r="A23" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" ht="37.5" spans="1:7">
+      <c r="A24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" ht="56.25" spans="1:8">
+      <c r="A25" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" ht="37.5" spans="1:13">
+      <c r="A26" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" ht="56.25" spans="1:13">
+      <c r="A27" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="35">
+        <v>1</v>
+      </c>
+      <c r="L27" s="36">
+        <v>15</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="37.5" spans="1:13">
+      <c r="A28" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="35">
+        <v>2</v>
+      </c>
+      <c r="L28" s="37">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="M28" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" ht="37.5" spans="1:13">
+      <c r="A29" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="35">
+        <v>3</v>
+      </c>
+      <c r="L29" s="37">
+        <v>27</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="56.25" spans="1:13">
+      <c r="A30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="35">
         <v>4</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="L30" s="37">
         <v>33</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="M30" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="37.5" spans="1:13">
+      <c r="A31" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" s="35">
+        <v>5</v>
+      </c>
+      <c r="L31" s="37">
+        <v>39</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="37.5" spans="1:13">
+      <c r="A32" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="35">
+        <v>6</v>
+      </c>
+      <c r="L32" s="37">
+        <v>45</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" ht="37.5" spans="1:13">
+      <c r="A33" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="K33" s="35">
+        <v>7</v>
+      </c>
+      <c r="L33" s="37">
+        <v>51</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K34" s="35">
+        <v>8</v>
+      </c>
+      <c r="L34" s="37">
+        <v>57</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35" s="35">
+        <v>9</v>
+      </c>
+      <c r="L35" s="37">
+        <v>63</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K36" s="38">
         <v>10</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8"/>
-    </row>
-    <row r="9" ht="75" spans="1:14">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9"/>
-    </row>
-    <row r="10" ht="37.5" spans="1:14">
-      <c r="A10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10"/>
-    </row>
-    <row r="11" ht="75" spans="1:14">
-      <c r="A11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13"/>
-    </row>
-    <row r="14" ht="56.25" spans="1:14">
-      <c r="A14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15"/>
-    </row>
-    <row r="16" ht="37.5" spans="1:14">
-      <c r="A16" s="11" t="s">
+      <c r="L36" s="39">
         <v>69</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16"/>
-    </row>
-    <row r="17" ht="56.25" spans="1:14">
-      <c r="A17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N17"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" ht="56.25" spans="1:6">
-      <c r="A19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" ht="93.75" spans="1:8">
-      <c r="A20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" ht="37.5" spans="1:8">
-      <c r="A21" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" ht="37.5" spans="1:8">
-      <c r="A22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" ht="37.5" spans="1:7">
-      <c r="A23" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" ht="56.25" spans="1:8">
-      <c r="A24" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" ht="37.5" spans="1:13">
-      <c r="A25" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" ht="56.25" spans="1:13">
-      <c r="A26" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="19">
-        <v>1</v>
-      </c>
-      <c r="L26" s="20">
-        <v>15</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" ht="37.5" spans="1:13">
-      <c r="A27" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="K27" s="19">
-        <v>2</v>
-      </c>
-      <c r="L27" s="21">
-        <v>21</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" ht="37.5" spans="1:13">
-      <c r="A28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" s="19">
-        <v>3</v>
-      </c>
-      <c r="L28" s="21">
-        <v>27</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" ht="56.25" spans="1:13">
-      <c r="A29" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K29" s="19">
-        <v>4</v>
-      </c>
-      <c r="L29" s="21">
-        <v>33</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" ht="37.5" spans="1:13">
-      <c r="A30" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K30" s="19">
-        <v>5</v>
-      </c>
-      <c r="L30" s="21">
-        <v>39</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" ht="37.5" spans="1:13">
-      <c r="A31" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K31" s="19">
-        <v>6</v>
-      </c>
-      <c r="L31" s="21">
-        <v>45</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" ht="37.5" spans="1:13">
-      <c r="A32" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="19">
-        <v>7</v>
-      </c>
-      <c r="L32" s="21">
-        <v>51</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="K33" s="19">
-        <v>8</v>
-      </c>
-      <c r="L33" s="21">
-        <v>57</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K34" s="19">
-        <v>9</v>
-      </c>
-      <c r="L34" s="21">
-        <v>63</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K35" s="22">
-        <v>10</v>
-      </c>
-      <c r="L35" s="23">
-        <v>69</v>
-      </c>
-      <c r="M35" s="24" t="s">
+      <c r="M36" s="40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>140</v>
+    <row r="37" spans="1:6">
+      <c r="A37" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4691,173 +5280,179 @@
   <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="2"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.9047619047619" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.3428571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.0095238095238" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.2857142857143" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.0095238095238" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.6380952380952" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.552380952381" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9047619047619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.0095238095238" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.0095238095238" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.552380952381" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>145</v>
+      <c r="B3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" ht="65.55" customHeight="1" spans="2:7">
-      <c r="B4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="2" t="str">
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</f>
         <v>=DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="2" t="str">
+      <c r="D4" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</f>
         <v>=DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</v>
       </c>
     </row>
     <row r="5" ht="44" customHeight="1" spans="2:8">
-      <c r="B5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="2" t="str">
+      <c r="B5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</f>
         <v>=DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="2" t="str">
+      <c r="D5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</f>
         <v>=DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>153</v>
+      <c r="H5" s="21" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6" ht="47" customHeight="1" spans="2:7">
-      <c r="B6" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="2" t="str">
+      <c r="B6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</f>
         <v>=DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="2" t="str">
+      <c r="D6" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</f>
         <v>=DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</v>
       </c>
     </row>
     <row r="7" ht="64" customHeight="1" spans="2:8">
-      <c r="B7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="2" t="str">
+      <c r="B7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</f>
         <v>=DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="2" t="str">
+      <c r="D7" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</f>
         <v>=DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>160</v>
+      <c r="H7" s="21" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="2:7">
-      <c r="B8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="2" t="str">
+      <c r="B8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</f>
         <v>=DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="2" t="str">
+      <c r="D8" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</f>
         <v>=DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</v>
       </c>
     </row>
-    <row r="9" ht="40" customHeight="1" spans="6:7">
-      <c r="F9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="2" t="str">
+    <row r="9" ht="62" customHeight="1" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</f>
         <v>=DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="6:7">
-      <c r="F10" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="2" t="str">
+      <c r="F10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</f>
         <v>=DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="6:8">
-      <c r="F11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="2" t="str">
+      <c r="F11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</f>
         <v>=DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>167</v>
+      <c r="H11" s="21" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4869,766 +5464,990 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B9:K54"/>
+  <dimension ref="B9:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9.14285714285714" style="13"/>
+    <col min="2" max="2" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.9428571428571" style="13" customWidth="1"/>
+    <col min="8" max="9" width="9.14285714285714" style="13"/>
+    <col min="10" max="10" width="18.8571428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.8571428571429" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:11">
+      <c r="B9" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" ht="44" customHeight="1" spans="3:11">
+      <c r="C10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</f>
+        <v>=DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="2:11">
+      <c r="B11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</f>
+        <v>=DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="56.25" spans="2:11">
+      <c r="B12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</f>
+        <v>=DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="117" customHeight="1" spans="2:11">
+      <c r="B13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</f>
+        <v>=DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="112.5" spans="2:11">
+      <c r="B14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</f>
+        <v>=DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="37.5" spans="2:6">
+      <c r="B15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</f>
+        <v>=DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" ht="37.5" spans="2:6">
+      <c r="B16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</f>
+        <v>=DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="75" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</f>
+        <v>=DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="29.25" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</f>
+        <v>=DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" ht="37.5" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</f>
+        <v>=DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" ht="93.75" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</f>
+        <v>=DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" ht="56.25" spans="2:9">
+      <c r="B21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</f>
+        <v>=DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" ht="93.75" spans="2:9">
+      <c r="B22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</f>
+        <v>=DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" ht="93.75" spans="2:9">
+      <c r="B23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" ht="56.25" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</f>
+        <v>=DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" ht="37.5" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="56.25" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="37.5" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="75" spans="2:6">
+      <c r="B29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" ht="93.75" spans="2:6">
+      <c r="B30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" ht="56.25" spans="2:6">
+      <c r="B32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" ht="37.5" spans="2:6">
+      <c r="B33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="56.25" spans="2:6">
+      <c r="B34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" ht="93.75" spans="2:5">
+      <c r="B35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="37.5" spans="2:6">
+      <c r="B38" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" ht="37.5" spans="2:6">
+      <c r="B39" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" ht="93.75" spans="2:6">
+      <c r="B40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" ht="93.75" spans="2:6">
+      <c r="B41" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" ht="75" spans="2:6">
+      <c r="B43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" ht="56.25" spans="2:6">
+      <c r="B46" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" ht="56.25" spans="2:6">
+      <c r="B47" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" ht="37.5" spans="2:6">
+      <c r="B48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" ht="75" spans="2:6">
+      <c r="B49" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" ht="56.25" spans="2:6">
+      <c r="B50" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" ht="56.25" spans="2:6">
+      <c r="B51" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" ht="56.25" spans="2:6">
+      <c r="B52" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" ht="37.5" spans="2:6">
+      <c r="B53" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" ht="75" spans="2:6">
+      <c r="B54" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="2" width="18.1428571428571" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.8571428571429" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.8571428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5714285714286" style="2" customWidth="1"/>
-    <col min="7" max="9" width="9.14285714285714" style="1"/>
-    <col min="10" max="10" width="18.8571428571429" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.8571428571429" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:11">
-      <c r="B9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" ht="44" customHeight="1" spans="3:11">
-      <c r="C10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</f>
-        <v>=DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="45" customHeight="1" spans="2:11">
-      <c r="B11" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</f>
-        <v>=DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="2">
+    <row r="2" ht="30" customHeight="1" spans="2:6">
+      <c r="B2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" ht="38.25" spans="2:4">
+      <c r="B3" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" ht="57" spans="2:6">
+      <c r="B4" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" ht="38.25" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="84" customHeight="1" spans="2:6">
+      <c r="B6" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" spans="2:10">
+      <c r="B8" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" ht="19.5" spans="2:10">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" ht="38.25" spans="2:7">
+      <c r="B10" s="12">
         <v>2</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="K11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" ht="75" spans="2:11">
-      <c r="B12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</f>
-        <v>=DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="97" customHeight="1" spans="2:11">
-      <c r="B13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</f>
-        <v>=DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" ht="112.5" spans="2:11">
-      <c r="B14" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</f>
-        <v>=DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E8:J8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="20.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="81" customHeight="1" spans="2:4">
+      <c r="B2" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" ht="37.5" spans="2:6">
-      <c r="B15" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</f>
-        <v>=DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" ht="37.5" spans="2:6">
-      <c r="B16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</f>
-        <v>=DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="75" spans="2:6">
-      <c r="B17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</f>
-        <v>=DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" ht="29.25" spans="2:6">
-      <c r="B18" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</f>
-        <v>=DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" ht="37.5" spans="2:6">
-      <c r="B19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</f>
-        <v>=DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" ht="93.75" spans="2:6">
-      <c r="B20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</f>
-        <v>=DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" ht="56.25" spans="2:9">
-      <c r="B21" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</f>
-        <v>=DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="2">
-        <v>4</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" ht="93.75" spans="2:9">
-      <c r="B22" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</f>
-        <v>=DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" ht="75" spans="2:9">
-      <c r="B23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" ht="56.25" spans="2:6">
-      <c r="B24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="2" t="str">
-        <f>_xlfn.DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</f>
-        <v>=DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" ht="37.5" spans="2:6">
-      <c r="B26" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="56.25" spans="2:6">
-      <c r="B27" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="37.5" spans="2:6">
-      <c r="B28" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" ht="75" spans="2:6">
-      <c r="B29" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F29" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" ht="93.75" spans="2:6">
-      <c r="B30" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F31" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" ht="56.25" spans="2:6">
-      <c r="B32" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" ht="37.5" spans="2:6">
-      <c r="B33" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" ht="56.25" spans="2:6">
-      <c r="B34" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" ht="93.75" spans="2:5">
-      <c r="B35" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="37.5" spans="2:6">
-      <c r="B38" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" ht="37.5" spans="2:6">
-      <c r="B39" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F39" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" ht="93.75" spans="2:6">
-      <c r="B40" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F40" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" ht="93.75" spans="2:6">
-      <c r="B41" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F41" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" ht="75" spans="2:6">
-      <c r="B43" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F43" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" ht="56.25" spans="2:6">
-      <c r="B46" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F46" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" ht="56.25" spans="2:6">
-      <c r="B47" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F47" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" ht="37.5" spans="2:6">
-      <c r="B48" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F48" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" ht="93.75" spans="2:6">
-      <c r="B49" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F49" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" ht="56.25" spans="2:6">
-      <c r="B50" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F50" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" ht="56.25" spans="2:6">
-      <c r="B51" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F51" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" ht="56.25" spans="2:6">
-      <c r="B52" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F52" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" ht="37.5" spans="2:6">
-      <c r="B53" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" ht="75" spans="2:6">
-      <c r="B54" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>188</v>
+      <c r="C2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="13095" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -933,11 +933,167 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="ID_163A9240D4EF485292D7AE5FEFA9852F" descr="highwayman"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:srcRect r="84722"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="8206105"/>
+          <a:ext cx="990600" cy="1080770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="ID_7ED09DD668894ABE8A725CF2D4D0029F" descr="guard"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:srcRect r="83854"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="9280525"/>
+          <a:ext cx="885825" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="ID_D36F8EAEDC3D4A2D9DDF24AE96ABB005" descr="Rat"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:srcRect t="30208" r="78750"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="10290175"/>
+          <a:ext cx="971550" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="ID_A046AFD9A3BF492EADA57F8350871DB2" descr="Peasant3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:srcRect t="25000" r="83160"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1558290" y="11109960"/>
+          <a:ext cx="1089660" cy="808990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="ID_2AC053A6DE184E4097DCE1BD0082E519" descr="WolfAnimated"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:srcRect r="79874"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="12033250"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="ID_D72C5AF664FF4D6C8BB8BF8BE922256D" descr="Bubak"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:srcRect t="2083" r="73958"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="13658850"/>
+          <a:ext cx="952500" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="334">
   <si>
     <t>Player Level</t>
   </si>
@@ -1068,7 +1224,7 @@
     <t>Targets a random tile
 in range.
 Leaves fire on the
-ground there + 1 adjacent</t>
+ground there</t>
   </si>
   <si>
     <t>Killable in 1 + 2 shot</t>
@@ -1077,12 +1233,15 @@
     <t>Serfmaster</t>
   </si>
   <si>
-    <t>26</t>
+    <t>22</t>
   </si>
   <si>
     <t>Large</t>
   </si>
   <si>
+    <t>Attacks push 1</t>
+  </si>
+  <si>
     <t>Has 6*4 + 2 HP</t>
   </si>
   <si>
@@ -1108,6 +1267,12 @@
   </si>
   <si>
     <t>Can't heal self</t>
+  </si>
+  <si>
+    <t>Pumpling</t>
+  </si>
+  <si>
+    <t>50% dodge chance</t>
   </si>
   <si>
     <t>Evil Paprika</t>
@@ -1126,10 +1291,74 @@
 (delayed)</t>
   </si>
   <si>
-    <t>Pumpling</t>
-  </si>
-  <si>
-    <t>50% dodge chance</t>
+    <t>Highwayman</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Marks a cluster of
+3 tiles.
+Shoots them next turn</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Whenever a player
+moves, gain 1 Armor</t>
+  </si>
+  <si>
+    <t>Attacks pierce
+and reach 2</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Attacks diagonally</t>
+  </si>
+  <si>
+    <t>Whenever an ally dies,
+gain 1 attack</t>
+  </si>
+  <si>
+    <t>Immune to Acid</t>
+  </si>
+  <si>
+    <t>Bandit Peasant</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Moves in shape of L</t>
+  </si>
+  <si>
+    <t>Bubak</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Heals allies around
+for 5 hp every turn
+and shreds all block</t>
+  </si>
+  <si>
+    <t>When it dies, all allies:
++10% crit
++10% dodge
++1 magic resistance</t>
   </si>
   <si>
     <t>THE PAGAN TRIO</t>
@@ -1165,12 +1394,6 @@
     <t>Heavenly Spirit</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>Fly</t>
   </si>
   <si>
@@ -1197,9 +1420,6 @@
   <si>
     <t>He is actually evil and hand
 in hand with Marceline</t>
-  </si>
-  <si>
-    <t>Wolf</t>
   </si>
   <si>
     <t>25</t>
@@ -1214,9 +1434,6 @@
 beta wolf</t>
   </si>
   <si>
-    <t>Highwayman</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -1291,9 +1508,6 @@
   </si>
   <si>
     <t>Slime</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>Splits into 2 smaller
@@ -1723,14 +1937,21 @@
     <t>Stun (free)</t>
   </si>
   <si>
+    <t>Kill Block</t>
+  </si>
+  <si>
+    <t>After killing a unit,
+cast Block</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
     <t>Regeneration</t>
   </si>
   <si>
     <t>Heal 1 + 20% SP
 every turn</t>
-  </si>
-  <si>
-    <t>Passive</t>
   </si>
   <si>
     <t>Ranger</t>
@@ -2215,10 +2436,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2313,19 +2534,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2336,9 +2565,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2351,17 +2579,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2376,9 +2612,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2390,23 +2634,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2420,9 +2649,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2435,23 +2670,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2466,13 +2687,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,7 +2765,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2502,151 +2855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2964,39 +3185,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3027,6 +3215,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3038,15 +3268,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3066,15 +3287,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3084,130 +3305,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3738,7 +3959,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -4463,12 +4684,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -4479,7 +4700,7 @@
     <col min="5" max="5" width="17.8571428571429" style="22" customWidth="1"/>
     <col min="6" max="6" width="26" style="22" customWidth="1"/>
     <col min="7" max="7" width="27" style="22" customWidth="1"/>
-    <col min="8" max="8" width="16.8571428571429" style="22" customWidth="1"/>
+    <col min="8" max="8" width="23.7142857142857" style="22" customWidth="1"/>
     <col min="9" max="9" width="36" style="22" customWidth="1"/>
     <col min="10" max="10" width="2.57142857142857" style="22" customWidth="1"/>
     <col min="11" max="11" width="18.5714285714286" style="22" customWidth="1"/>
@@ -4587,7 +4808,7 @@
       </c>
       <c r="N4"/>
     </row>
-    <row r="5" ht="58" customHeight="1" spans="1:14">
+    <row r="5" ht="87" customHeight="1" spans="1:14">
       <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
@@ -4632,14 +4853,17 @@
       <c r="F6" s="22" t="s">
         <v>46</v>
       </c>
+      <c r="G6" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="I6" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6"/>
     </row>
     <row r="7" ht="58" customHeight="1" spans="1:14">
       <c r="A7" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="27" t="str">
         <f>_xlfn.DISPIMG("ID_5DCB40CCA6B44244B7519B2BA06EDF1C",1)</f>
@@ -4652,16 +4876,16 @@
         <v>29</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N7"/>
     </row>
     <row r="8" ht="71" customHeight="1" spans="1:14">
       <c r="A8" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="30" t="str">
         <f>_xlfn.DISPIMG("ID_9997CD209D774EEAB420C53DDEA056A0",1)</f>
@@ -4671,601 +4895,756 @@
         <v>29</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8"/>
     </row>
-    <row r="9" ht="71" customHeight="1" spans="1:14">
+    <row r="9" ht="75" customHeight="1" spans="1:14">
       <c r="A9" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</f>
+        <v>=DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="N9"/>
+    </row>
+    <row r="10" ht="71" customHeight="1" spans="1:14">
+      <c r="A10" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="27" t="str">
         <f>_xlfn.DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</f>
         <v>=DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="28" t="s">
+      <c r="C10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="N9"/>
-    </row>
-    <row r="10" ht="75" customHeight="1" spans="1:14">
-      <c r="A10" s="22" t="s">
+      <c r="D10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="27" t="str">
-        <f>_xlfn.DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</f>
-        <v>=DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="22" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="28"/>
+        <v>63</v>
+      </c>
       <c r="N10"/>
     </row>
-    <row r="11" ht="75.75" spans="1:14">
+    <row r="11" ht="85" customHeight="1" spans="1:6">
       <c r="A11" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B11" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_163A9240D4EF485292D7AE5FEFA9852F",1)</f>
+        <v>=DISPIMG("ID_163A9240D4EF485292D7AE5FEFA9852F",1)</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" ht="75" customHeight="1" spans="1:14">
+      <c r="A12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_7ED09DD668894ABE8A725CF2D4D0029F",1)</f>
+        <v>=DISPIMG("ID_7ED09DD668894ABE8A725CF2D4D0029F",1)</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12"/>
+    </row>
+    <row r="13" ht="66" customHeight="1" spans="1:14">
+      <c r="A13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_D36F8EAEDC3D4A2D9DDF24AE96ABB005",1)</f>
+        <v>=DISPIMG("ID_D36F8EAEDC3D4A2D9DDF24AE96ABB005",1)</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13"/>
+    </row>
+    <row r="14" ht="75" customHeight="1" spans="1:14">
+      <c r="A14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_A046AFD9A3BF492EADA57F8350871DB2",1)</f>
+        <v>=DISPIMG("ID_A046AFD9A3BF492EADA57F8350871DB2",1)</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" ht="75" customHeight="1" spans="1:14">
+      <c r="A15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_2AC053A6DE184E4097DCE1BD0082E519",1)</f>
+        <v>=DISPIMG("ID_2AC053A6DE184E4097DCE1BD0082E519",1)</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" ht="75" customHeight="1" spans="1:14">
+      <c r="A16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_D72C5AF664FF4D6C8BB8BF8BE922256D",1)</f>
+        <v>=DISPIMG("ID_D72C5AF664FF4D6C8BB8BF8BE922256D",1)</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16"/>
+    </row>
+    <row r="17" ht="75" customHeight="1" spans="2:14">
+      <c r="B17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" ht="75" customHeight="1" spans="2:14">
+      <c r="B18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" ht="75" customHeight="1" spans="2:14">
+      <c r="B19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" ht="75" customHeight="1" spans="2:14">
+      <c r="B20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" ht="75.75" spans="1:14">
+      <c r="A21" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" ht="56.25" spans="1:14">
+      <c r="A22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23"/>
+    </row>
+    <row r="24" ht="37.5" spans="1:14">
+      <c r="A24" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24"/>
+    </row>
+    <row r="25" ht="56.25" spans="1:14">
+      <c r="A25" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="28" t="s">
+      <c r="C26" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="14:14">
-      <c r="N12"/>
-    </row>
-    <row r="13" ht="66" customHeight="1" spans="14:14">
-      <c r="N13"/>
-    </row>
-    <row r="14" spans="14:14">
-      <c r="N14"/>
-    </row>
-    <row r="15" ht="56.25" spans="1:14">
-      <c r="A15" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="N15"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="D26" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" ht="56.25" spans="1:6">
+      <c r="A27" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16"/>
-    </row>
-    <row r="17" ht="37.5" spans="1:14">
-      <c r="A17" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17"/>
-    </row>
-    <row r="18" ht="56.25" spans="1:14">
-      <c r="A18" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="N18"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" ht="56.25" spans="1:6">
-      <c r="A20" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" ht="93.75" spans="1:8">
-      <c r="A21" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" ht="37.5" spans="1:8">
-      <c r="A22" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" ht="37.5" spans="1:8">
-      <c r="A23" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" ht="37.5" spans="1:7">
-      <c r="A24" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="F27" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="28" t="s">
+    </row>
+    <row r="28" ht="56.25" spans="1:8">
+      <c r="A28" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="C28" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="25" ht="56.25" spans="1:8">
-      <c r="A25" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" ht="37.5" spans="1:13">
-      <c r="A26" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" ht="56.25" spans="1:13">
-      <c r="A27" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" s="35">
-        <v>1</v>
-      </c>
-      <c r="L27" s="36">
-        <v>15</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" ht="37.5" spans="1:13">
-      <c r="A28" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>125</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" ht="37.5" spans="1:8">
+      <c r="A29" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" ht="37.5" spans="1:8">
+      <c r="A30" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" ht="37.5" spans="1:7">
+      <c r="A31" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G31" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="28" t="s">
+    </row>
+    <row r="32" ht="56.25" spans="1:8">
+      <c r="A32" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="K28" s="35">
+      <c r="C32" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" ht="37.5" spans="1:13">
+      <c r="A33" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L28" s="37">
+      <c r="M33" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" ht="56.25" spans="1:13">
+      <c r="A34" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" s="35">
+        <v>1</v>
+      </c>
+      <c r="L34" s="36">
+        <v>15</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="37.5" spans="1:13">
+      <c r="A35" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35" s="35">
+        <v>2</v>
+      </c>
+      <c r="L35" s="37">
         <v>21</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M35" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" ht="37.5" spans="1:13">
-      <c r="A29" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" s="35">
+    <row r="36" ht="37.5" spans="1:13">
+      <c r="A36" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K36" s="35">
         <v>3</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L36" s="37">
         <v>27</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="M36" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="56.25" spans="1:13">
-      <c r="A30" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="28" t="s">
+    <row r="37" ht="56.25" spans="1:13">
+      <c r="A37" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" s="35">
+      <c r="D37" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K37" s="35">
         <v>4</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L37" s="37">
         <v>33</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="M37" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" ht="37.5" spans="1:13">
-      <c r="A31" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="K31" s="35">
+    <row r="38" ht="37.5" spans="1:13">
+      <c r="A38" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="35">
         <v>5</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L38" s="37">
         <v>39</v>
       </c>
-      <c r="M31" s="22" t="s">
+      <c r="M38" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" ht="37.5" spans="1:13">
-      <c r="A32" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="22" t="s">
+    <row r="39" ht="37.5" spans="1:13">
+      <c r="A39" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="K32" s="35">
+      <c r="F39" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="K39" s="35">
         <v>6</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L39" s="37">
         <v>45</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="M39" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" ht="37.5" spans="1:13">
-      <c r="A33" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="K33" s="35">
+    <row r="40" ht="37.5" spans="1:13">
+      <c r="A40" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="K40" s="35">
         <v>7</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L40" s="37">
         <v>51</v>
       </c>
-      <c r="M33" s="22" t="s">
+      <c r="M40" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="K34" s="35">
+    <row r="41" spans="1:13">
+      <c r="A41" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K41" s="35">
         <v>8</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L41" s="37">
         <v>57</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="M41" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="K35" s="35">
+    <row r="42" spans="1:13">
+      <c r="A42" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K42" s="35">
         <v>9</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L42" s="37">
         <v>63</v>
       </c>
-      <c r="M35" s="22" t="s">
+      <c r="M42" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="K36" s="38">
+    <row r="43" spans="1:13">
+      <c r="A43" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K43" s="38">
         <v>10</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L43" s="39">
         <v>69</v>
       </c>
-      <c r="M36" s="40" t="s">
+      <c r="M43" s="40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>147</v>
+    <row r="44" spans="1:6">
+      <c r="A44" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5280,7 +5659,7 @@
   <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5300,37 +5679,37 @@
   <sheetData>
     <row r="3" spans="2:8">
       <c r="B3" s="14" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" ht="65.55" customHeight="1" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</f>
         <v>=DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</f>
@@ -5339,39 +5718,39 @@
     </row>
     <row r="5" ht="44" customHeight="1" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</f>
         <v>=DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</f>
         <v>=DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" ht="47" customHeight="1" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</f>
         <v>=DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</f>
@@ -5380,39 +5759,39 @@
     </row>
     <row r="7" ht="64" customHeight="1" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</f>
         <v>=DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</f>
         <v>=DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</f>
         <v>=DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</f>
@@ -5421,13 +5800,13 @@
     </row>
     <row r="9" ht="62" customHeight="1" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</f>
@@ -5436,7 +5815,7 @@
     </row>
     <row r="10" ht="33" customHeight="1" spans="6:7">
       <c r="F10" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</f>
@@ -5445,14 +5824,14 @@
     </row>
     <row r="11" ht="50" customHeight="1" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</f>
         <v>=DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5464,10 +5843,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B9:K55"/>
+  <dimension ref="B9:K56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -5487,46 +5866,46 @@
   <sheetData>
     <row r="9" spans="2:11">
       <c r="B9" s="14" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" ht="44" customHeight="1" spans="3:11">
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</f>
         <v>=DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -5534,23 +5913,23 @@
     </row>
     <row r="11" ht="45" customHeight="1" spans="2:11">
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</f>
         <v>=DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
@@ -5558,23 +5937,23 @@
     </row>
     <row r="12" ht="56.25" spans="2:11">
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</f>
         <v>=DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -5582,23 +5961,23 @@
     </row>
     <row r="13" ht="117" customHeight="1" spans="2:11">
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</f>
         <v>=DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="K13" s="1">
         <v>5</v>
@@ -5606,173 +5985,166 @@
     </row>
     <row r="14" ht="112.5" spans="2:11">
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</f>
         <v>=DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="F14" s="1">
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="K14" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="37.5" spans="2:6">
+    <row r="15" ht="117" customHeight="1" spans="2:6">
       <c r="B15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>_xlfn.DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</f>
-        <v>=DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</v>
+        <v>197</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" ht="37.5" spans="2:6">
       <c r="B16" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>198</v>
+      <c r="C16" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="D16" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</f>
+        <v>=DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" ht="37.5" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</f>
         <v>=DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="75" spans="2:6">
-      <c r="B17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="1" t="str">
+    <row r="18" ht="75" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</f>
         <v>=DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="29.25" spans="2:6">
-      <c r="B18" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="1" t="str">
+    <row r="19" ht="29.25" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</f>
         <v>=DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</v>
       </c>
-      <c r="E18" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" ht="37.5" spans="2:6">
-      <c r="B19" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="1" t="str">
+      <c r="E19" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" ht="37.5" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</f>
         <v>=DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="93.75" spans="2:6">
-      <c r="B20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="1" t="str">
+    <row r="21" ht="93.75" spans="2:6">
+      <c r="B21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</f>
         <v>=DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E21" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="21" ht="56.25" spans="2:9">
-      <c r="B21" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="1" t="str">
+    <row r="22" ht="56.25" spans="2:9">
+      <c r="B22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</f>
         <v>=DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E22" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" s="1">
         <v>4</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" ht="93.75" spans="2:9">
-      <c r="B22" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f>_xlfn.DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</f>
-        <v>=DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5780,255 +6152,262 @@
     </row>
     <row r="23" ht="93.75" spans="2:9">
       <c r="B23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</f>
+        <v>=DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>196</v>
+        <v>228</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" ht="56.25" spans="2:6">
+    <row r="24" ht="93.75" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="1" t="str">
+        <v>229</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" ht="56.25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</f>
         <v>=DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="E25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" ht="37.5" spans="2:6">
-      <c r="B26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>218</v>
+      <c r="C26" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="1">
+        <v>234</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" ht="37.5" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="56.25" spans="2:6">
-      <c r="B27" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="1">
+    <row r="28" ht="56.25" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="37.5" spans="2:6">
-      <c r="B28" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F28" s="1">
+    <row r="29" ht="37.5" spans="2:6">
+      <c r="B29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="29" ht="75" spans="2:6">
-      <c r="B29" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F29" s="1">
+    <row r="30" ht="75" spans="2:6">
+      <c r="B30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="30" ht="93.75" spans="2:6">
-      <c r="B30" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
+    <row r="31" ht="93.75" spans="2:6">
       <c r="B31" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="F31" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="56.25" spans="2:6">
+    <row r="32" spans="2:6">
       <c r="B32" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>231</v>
+        <v>246</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="F32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" ht="37.5" spans="2:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" ht="56.25" spans="2:6">
       <c r="B33" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F33" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="34" ht="56.25" spans="2:6">
+    <row r="34" ht="37.5" spans="2:6">
       <c r="B34" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" ht="56.25" spans="2:6">
+      <c r="B35" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F34" s="1">
+      <c r="C35" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="35" ht="93.75" spans="2:5">
-      <c r="B35" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
+    <row r="36" ht="93.75" spans="2:5">
       <c r="B36" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>216</v>
+        <v>235</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" s="1">
+        <v>234</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="37.5" spans="2:6">
-      <c r="B38" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="39" ht="37.5" spans="2:6">
       <c r="B39" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="F39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" ht="93.75" spans="2:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" ht="37.5" spans="2:6">
       <c r="B40" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
@@ -6036,215 +6415,229 @@
     </row>
     <row r="41" ht="93.75" spans="2:6">
       <c r="B41" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" ht="93.75" spans="2:6">
+      <c r="B42" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" ht="75" spans="2:6">
+    <row r="43" spans="2:6">
       <c r="B43" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F43" s="1">
+        <v>257</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" ht="75" spans="2:6">
+      <c r="B44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" ht="56.25" spans="2:6">
-      <c r="B46" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>253</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F46" s="1">
-        <v>5</v>
+        <v>234</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="47" ht="56.25" spans="2:6">
-      <c r="B47" s="1" t="s">
-        <v>255</v>
+      <c r="B47" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="48" ht="37.5" spans="2:6">
+    <row r="48" ht="56.25" spans="2:6">
       <c r="B48" s="1" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" ht="37.5" spans="2:6">
+      <c r="B49" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="49" ht="75" spans="2:6">
-      <c r="B49" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F49" s="1">
+    <row r="50" ht="75" spans="2:6">
+      <c r="B50" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F50" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="56.25" spans="2:6">
-      <c r="B50" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F50" s="1">
+    <row r="51" ht="56.25" spans="2:6">
+      <c r="B51" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F51" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="51" ht="56.25" spans="2:6">
-      <c r="B51" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F51" s="1">
-        <v>6</v>
-      </c>
-    </row>
     <row r="52" ht="56.25" spans="2:6">
-      <c r="B52" s="1" t="s">
-        <v>269</v>
+      <c r="B52" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F52" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="53" ht="37.5" spans="2:6">
+    <row r="53" ht="56.25" spans="2:6">
       <c r="B53" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>273</v>
+        <v>287</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" ht="75" spans="2:6">
-      <c r="B54" s="3" t="s">
-        <v>275</v>
+        <v>289</v>
+      </c>
+      <c r="F53" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" ht="37.5" spans="2:6">
+      <c r="B54" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F55" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" ht="75" spans="2:6">
+      <c r="B55" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F56" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="13" t="s">
-        <v>280</v>
+      <c r="G56" s="13" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -6259,7 +6652,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -6279,7 +6672,7 @@
   <sheetData>
     <row r="2" ht="30" customHeight="1" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -6288,73 +6681,73 @@
     </row>
     <row r="3" ht="38.25" spans="2:4">
       <c r="B3" s="7" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" ht="57" spans="2:6">
       <c r="B4" s="8" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" ht="84" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" ht="19.5" spans="2:10">
       <c r="B8" s="9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -6367,28 +6760,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="2:7">
@@ -6396,19 +6789,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6820,7 @@
   <dimension ref="B2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -6441,13 +6834,13 @@
   <sheetData>
     <row r="2" ht="81" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" activeTab="1"/>
+    <workbookView windowWidth="23295" windowHeight="13095" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -1093,7 +1093,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="337">
   <si>
     <t>Player Level</t>
   </si>
@@ -2275,6 +2275,17 @@
     <t>Use to trigger traps and stuff</t>
   </si>
   <si>
+    <t>Rogue, Ranger</t>
+  </si>
+  <si>
+    <t>Pick Lock</t>
+  </si>
+  <si>
+    <t>Locks become REALLY
+easy to pick, like come on...
+You also get extra treasure</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -2437,8 +2448,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="31">
@@ -2534,17 +2545,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2565,15 +2575,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2582,14 +2601,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2612,7 +2623,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2626,16 +2653,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2650,14 +2676,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2665,14 +2684,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2687,7 +2698,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2705,7 +2746,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,25 +2848,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2747,103 +2866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2855,19 +2878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3186,21 +3197,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3211,6 +3207,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3239,20 +3255,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3274,11 +3287,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3287,15 +3298,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3305,130 +3316,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4686,8 +4697,8 @@
   <sheetPr/>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -5843,10 +5854,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B9:K56"/>
+  <dimension ref="B9:K57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -5857,8 +5868,9 @@
     <col min="4" max="4" width="15.8571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.8571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.9428571428571" style="13" customWidth="1"/>
-    <col min="8" max="9" width="9.14285714285714" style="13"/>
+    <col min="7" max="7" width="34.4" style="13" customWidth="1"/>
+    <col min="8" max="8" width="18.6285714285714" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.14285714285714" style="13"/>
     <col min="10" max="10" width="18.8571428571429" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.8571428571429" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.14285714285714" style="13"/>
@@ -6623,7 +6635,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" ht="39" customHeight="1" spans="2:7">
       <c r="B56" s="1" t="s">
         <v>290</v>
       </c>
@@ -6638,6 +6650,17 @@
       </c>
       <c r="G56" s="13" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="57" ht="112.5" spans="2:5">
+      <c r="B57" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6672,7 +6695,7 @@
   <sheetData>
     <row r="2" ht="30" customHeight="1" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -6681,73 +6704,73 @@
     </row>
     <row r="3" ht="38.25" spans="2:4">
       <c r="B3" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" ht="57" spans="2:6">
       <c r="B4" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" ht="84" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" ht="19.5" spans="2:10">
       <c r="B8" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -6760,28 +6783,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="2:7">
@@ -6789,19 +6812,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6837,10 +6860,10 @@
         <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="13095" activeTab="3"/>
+    <workbookView windowWidth="27195" windowHeight="13095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -1089,11 +1089,685 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="ID_8A4C0CA2B27A4C878CAEF5F7F6D84956" descr="Crewmate"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:srcRect t="-6494" r="83333"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="14297025"/>
+          <a:ext cx="933450" cy="1093470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="ID_8F384D93F8A041A7BCCE76056201BF0F" descr="PumpkinTentacle"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:srcRect r="88802"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="15535275"/>
+          <a:ext cx="819150" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="ID_096FB0EDD1054600AEE93DB32445E432" descr="GiantPumpkin"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:srcRect l="10156" t="29688"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="16421100"/>
+          <a:ext cx="1095375" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="ID_FD9E219F3F5B421E997BB811EC08D139" descr="pumpzilla"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:srcRect l="1563" t="14063" r="83464"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="17297400"/>
+          <a:ext cx="1095375" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="ID_F8B9634EB73D4F649475A0DA1DCAE550" descr="Peasant2_alternative_animated_pirate"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:srcRect t="-1724" r="80816"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="18268950"/>
+          <a:ext cx="532130" cy="668020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="ID_53946E75DFA2463A9C5A11C27661E786" descr="Canon"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="19421475"/>
+          <a:ext cx="523875" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="ID_A9D352B95303458B89C1717F79CDE735" descr="blubber"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:srcRect r="83681"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="19650075"/>
+          <a:ext cx="895350" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="ID_E06E036609E94BB9929FE03D33A7B60B" descr="reverse_mermaid"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:srcRect r="85268"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="20974050"/>
+          <a:ext cx="942975" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="ID_904652B47CF844A8B4968D95A64E3891" descr="gelatinous cube"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="21802725"/>
+          <a:ext cx="838200" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="ID_C711069D368A4C1E9B8B5E98151EADAC" descr="slime mediu"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:srcRect r="82937" b="-10811"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="22840950"/>
+          <a:ext cx="409575" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="ID_6C082183216B495085F7DBF1E3D99F5E" descr="slime small"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:srcRect l="82796" t="-5556"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="23726775"/>
+          <a:ext cx="304800" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="ID_628E96F4BF42434FA277775E1DE2AA20" descr="mushroom"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:srcRect r="83854"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="24564975"/>
+          <a:ext cx="590550" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="ID_B9BED2D4AE354012A6BAB6A7E0FF5802" descr="mermaid"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:srcRect r="85714"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="25631775"/>
+          <a:ext cx="638175" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="ID_7A9E03A399CC4F74B895A88C9005BB92" descr="Pirate Bishop"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:srcRect r="82906"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="26670000"/>
+          <a:ext cx="381000" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="ID_65FDB7CD50CF472E9EE58BDBA9A1B3FA" descr="highwayman-pirate"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:srcRect r="83621"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="27470100"/>
+          <a:ext cx="542925" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="ID_AFFBB67C163A41AA92F2B00342A712D5" descr="WaterElemental"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:srcRect t="-8333" r="82979"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="29451300"/>
+          <a:ext cx="457200" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="ID_A2CCFFC477CB41C68B5C4B028618A131" descr="zombie"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:srcRect t="-2128" r="82857"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="30470475"/>
+          <a:ext cx="342900" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="ID_83BCD919FA48483A8504C30F86775227" descr="LanternGhoul"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:srcRect t="-23913" r="83704"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="31280100"/>
+          <a:ext cx="838200" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="ID_F6C581482AFC49CF88B4B51DB4C2B884" descr="Spine Skull"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:srcRect t="8721" r="95644"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="32280225"/>
+          <a:ext cx="438150" cy="398780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="ID_B56FE51048C84C21B0544EC1D2B49BFB" descr="beholder"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:srcRect t="-2198" r="83333"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="33023175"/>
+          <a:ext cx="657225" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="ID_2BF7160B000D4507A9BC6E9CD0CFBB9A" descr="drider"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:srcRect t="-6024" r="83725"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="33918525"/>
+          <a:ext cx="790575" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="ID_F51C6D32B5FE4CB4BAE5E9D1DF1B99A4" descr="wraith"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId64"/>
+        <a:srcRect t="2778" r="80000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="34975800"/>
+          <a:ext cx="447675" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="ID_4F83562294774CE1B91320A1884FEEA6" descr="crystal3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId65"/>
+        <a:srcRect r="90000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="38928675"/>
+          <a:ext cx="209550" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="ID_42E1FCCA38754E91AC4BDE1CCF581E79" descr="Crystal2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId66"/>
+        <a:srcRect r="83333"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="36128325"/>
+          <a:ext cx="333375" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="ID_FCC8AFB7F83C4286AEE68D9A89ABD31C" descr="crystal"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId67"/>
+        <a:srcRect r="83704"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="36937950"/>
+          <a:ext cx="419100" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="ID_50AEDFD4C9CB4FD09CD7DBAA4E44C1E5" descr="crystal4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId68"/>
+        <a:srcRect r="83333"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="39795450"/>
+          <a:ext cx="438150" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="425">
   <si>
     <t>Player Level</t>
   </si>
@@ -1179,6 +1853,15 @@
     <t>Other</t>
   </si>
   <si>
+    <t>Patrolling Guard</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>Killable in 2 shots</t>
+  </si>
+  <si>
     <t>Peasant</t>
   </si>
   <si>
@@ -1188,34 +1871,22 @@
     <t>13</t>
   </si>
   <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
     <t>Has 6*2 + 1 HP</t>
   </si>
   <si>
-    <t>Patrolling Guard</t>
-  </si>
-  <si>
-    <t>Killable in 2 shots</t>
-  </si>
-  <si>
     <t>Crossbow Guard</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Shooter</t>
+  </si>
+  <si>
+    <t>Molotov Peasant</t>
+  </si>
+  <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>Shooter</t>
-  </si>
-  <si>
-    <t>Killable in 1.5 shots, ranged</t>
-  </si>
-  <si>
-    <t>Molotov Peasant</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>0</t>
@@ -1230,6 +1901,15 @@
     <t>Killable in 1 + 2 shot</t>
   </si>
   <si>
+    <t>Little Scout</t>
+  </si>
+  <si>
+    <t>1 (5 range)</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
     <t>Serfmaster</t>
   </si>
   <si>
@@ -1245,15 +1925,6 @@
     <t>Has 6*4 + 2 HP</t>
   </si>
   <si>
-    <t>Little Scout</t>
-  </si>
-  <si>
-    <t>1 (5 range)</t>
-  </si>
-  <si>
-    <t>Delayed</t>
-  </si>
-  <si>
     <t>Bishop</t>
   </si>
   <si>
@@ -1272,7 +1943,7 @@
     <t>Pumpling</t>
   </si>
   <si>
-    <t>50% dodge chance</t>
+    <t>Goes dormant if stuck</t>
   </si>
   <si>
     <t>Evil Paprika</t>
@@ -1361,6 +2032,303 @@
 +1 magic resistance</t>
   </si>
   <si>
+    <t>Pumpkin Tentacle</t>
+  </si>
+  <si>
+    <t>Every 2 turns, damages all unis in a line (delayed)</t>
+  </si>
+  <si>
+    <t>Giant Pumpkin</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Summons a Pumpkin when hit</t>
+  </si>
+  <si>
+    <t>Pumpzilla</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Speed 1</t>
+  </si>
+  <si>
+    <t>Swpie Attack shaped like a "["</t>
+  </si>
+  <si>
+    <t>Melee Attack</t>
+  </si>
+  <si>
+    <t>Crewmate</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Anchor (hook diagonally)</t>
+  </si>
+  <si>
+    <t>Enrages at 50% HP:
+gains +1 attack every turn</t>
+  </si>
+  <si>
+    <t>Pirate Peasant</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>Shoots every 3 turns (first target hit only)</t>
+  </si>
+  <si>
+    <t>5 armor</t>
+  </si>
+  <si>
+    <t>Blubber</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Bubble Fission (like vel'koz)</t>
+  </si>
+  <si>
+    <t>If it hits a Fish,
+Bubble Fission gives them 4 Block</t>
+  </si>
+  <si>
+    <t>Block does not decay</t>
+  </si>
+  <si>
+    <t>2 armor</t>
+  </si>
+  <si>
+    <t>Reverse Mermaid</t>
+  </si>
+  <si>
+    <t>Bubble Shield (5 block)</t>
+  </si>
+  <si>
+    <t>Bubble Blast
+Consumes all block to deal that much damage</t>
+  </si>
+  <si>
+    <t>Big Slime</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Spawns a Slime every 4 turns</t>
+  </si>
+  <si>
+    <t>Splits into 2 Slimes on death</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Splits into 2 Smol Slimes on death</t>
+  </si>
+  <si>
+    <t>Leaves a trail of Acid Trap when it moves</t>
+  </si>
+  <si>
+    <t>Tries to run away
+from player</t>
+  </si>
+  <si>
+    <t>Smol Slime</t>
+  </si>
+  <si>
+    <t>Spore Keeper</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Infects a random player character's spell</t>
+  </si>
+  <si>
+    <t>Mermaid</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Charms a unit every turn, giving it +3 Attack and SP</t>
+  </si>
+  <si>
+    <t>Pirate Bishop</t>
+  </si>
+  <si>
+    <t>4 - 4 (4 range, diagonal)</t>
+  </si>
+  <si>
+    <t>Heal 8</t>
+  </si>
+  <si>
+    <t>Bucaneer</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Water Elemental</t>
+  </si>
+  <si>
+    <t>Explodes on death</t>
+  </si>
+  <si>
+    <t>Empowered if hit by tidal wave</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Can only take 1 damage at a time.</t>
+  </si>
+  <si>
+    <t>Chomp: Delayed
+Shreds Block
+Drains some mana</t>
+  </si>
+  <si>
+    <t>Lantern Ghoul</t>
+  </si>
+  <si>
+    <t>While exists, enemies that die transform into Spine Skulls or Zombies</t>
+  </si>
+  <si>
+    <t>Spine Skull</t>
+  </si>
+  <si>
+    <t>At end of round, if other Spine Skulls are still alive, revives with 50% HP</t>
+  </si>
+  <si>
+    <t>Beholder</t>
+  </si>
+  <si>
+    <t>Attacks are Chain Ligntning and shred block</t>
+  </si>
+  <si>
+    <t>Attacks shred block</t>
+  </si>
+  <si>
+    <t>When it receives the 3rd hit, novas with Lightning</t>
+  </si>
+  <si>
+    <t>Drider</t>
+  </si>
+  <si>
+    <t>Whenever it takes damage, gains +1 Thorns</t>
+  </si>
+  <si>
+    <t>Spike Rush</t>
+  </si>
+  <si>
+    <t>Wraith</t>
+  </si>
+  <si>
+    <t>Attacks go through</t>
+  </si>
+  <si>
+    <t>Every 3rd attack reduces maximum HP</t>
+  </si>
+  <si>
+    <t>33% Dodge</t>
+  </si>
+  <si>
+    <t>Laser Crystal</t>
+  </si>
+  <si>
+    <t>Moves diagonally on its own</t>
+  </si>
+  <si>
+    <t>Shoots lasers in a line (hit hard)
+(not delayed)</t>
+  </si>
+  <si>
+    <t>Has a random element
+(fire, cold, acid)</t>
+  </si>
+  <si>
+    <t>Draining Crystal</t>
+  </si>
+  <si>
+    <t>Every turn, drains mana from players around it</t>
+  </si>
+  <si>
+    <t>Explodes on death
+equal to all mana stolen</t>
+  </si>
+  <si>
+    <t>Lightning Crystal</t>
+  </si>
+  <si>
+    <t>Every turn, damages all enemies</t>
+  </si>
+  <si>
+    <t>Half of its HP is Armor</t>
+  </si>
+  <si>
+    <t>Charging Crystal</t>
+  </si>
+  <si>
+    <t>Every turn, empowers the Lightning Crystals</t>
+  </si>
+  <si>
+    <t>Void Crystal</t>
+  </si>
+  <si>
+    <t>Slows players near it by 1. That's all.</t>
+  </si>
+  <si>
+    <t>On death, all enemies become empowered</t>
+  </si>
+  <si>
+    <t>Crystal Golem</t>
+  </si>
+  <si>
+    <t>At the end of round, gains X block, equal to previous X + 1
+(caps at N)</t>
+  </si>
+  <si>
+    <t>Close to death, tries to morph into a Crystal.</t>
+  </si>
+  <si>
+    <t>Throws you over its shoulder (once per combat).</t>
+  </si>
+  <si>
+    <t>Cyclops</t>
+  </si>
+  <si>
+    <t>Every time it takes damage, gains +1 damage</t>
+  </si>
+  <si>
+    <t>Huge attack AoE (delayed)</t>
+  </si>
+  <si>
+    <t>Moves randomly
+and attacks
+randomly (blind)</t>
+  </si>
+  <si>
     <t>THE PAGAN TRIO</t>
   </si>
   <si>
@@ -1446,9 +2414,6 @@
     <t>Bandit</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Every hit steals gold
 (you get them back
 after combat)</t>
@@ -1476,9 +2441,6 @@
     <t>Mandrake</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -1505,9 +2467,6 @@
   <si>
     <t>x8 spores around when
 dies (2 damage)</t>
-  </si>
-  <si>
-    <t>Slime</t>
   </si>
   <si>
     <t>Splits into 2 smaller
@@ -1541,9 +2500,6 @@
     <t>Gelatinous Cube</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Has an enemy inside
 which drops on death</t>
   </si>
@@ -1578,9 +2534,6 @@
 Drowned</t>
   </si>
   <si>
-    <t>Mermaid</t>
-  </si>
-  <si>
     <t>4 - 5 (4 range)</t>
   </si>
   <si>
@@ -1642,9 +2595,6 @@
   </si>
   <si>
     <t>Crystal Mushroom</t>
-  </si>
-  <si>
-    <t>Crystal Golem</t>
   </si>
   <si>
     <t>Trap</t>
@@ -2447,9 +3397,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="31">
@@ -2546,25 +3496,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2583,16 +3517,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2653,15 +3579,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2676,6 +3610,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2683,7 +3625,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2698,43 +3648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2746,7 +3660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2770,7 +3684,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2782,13 +3714,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2800,85 +3828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3196,37 +4146,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3270,6 +4194,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3287,9 +4235,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3298,7 +4248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3316,134 +4266,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3513,6 +4463,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3523,14 +4476,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3539,6 +4489,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3970,7 +4926,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -4000,19 +4956,19 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -4027,241 +4983,241 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
-      <c r="B3" s="46">
+      <c r="B3" s="48">
         <v>1</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="49">
         <v>20</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="50">
         <v>20</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="51">
         <v>6</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="28">
         <v>6.5</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="52">
         <v>12</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
-      <c r="B4" s="46">
+      <c r="B4" s="48">
         <v>2</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="49">
         <v>21</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="54">
         <v>23</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="49">
         <v>7</v>
       </c>
       <c r="F4" s="1">
         <v>9</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="55">
         <v>15</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="53">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
-      <c r="B5" s="46">
+      <c r="B5" s="48">
         <v>3</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="49">
         <v>22</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="54">
         <v>26</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="51">
         <v>8</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="28">
         <v>11.5</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="55">
         <v>18</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="53">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
-      <c r="B6" s="46">
+      <c r="B6" s="48">
         <v>4</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="49">
         <v>23</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="54">
         <v>29</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="51">
         <v>9</v>
       </c>
       <c r="F6" s="1">
         <v>14</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="55">
         <v>21</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="53">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1"/>
-      <c r="B7" s="46">
+      <c r="B7" s="48">
         <v>5</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="49">
         <v>24</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="54">
         <v>32</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="49">
         <v>10</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="28">
         <v>16.5</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="55">
         <v>24</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="53">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>
-      <c r="B8" s="46">
+      <c r="B8" s="48">
         <v>6</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="49">
         <v>25</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="54">
         <v>35</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="51">
         <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>19</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="55">
         <v>27</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="53">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
-      <c r="B9" s="46">
+      <c r="B9" s="48">
         <v>7</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="49">
         <v>26</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="54">
         <v>38</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="51">
         <v>12</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="28">
         <v>21.5</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="55">
         <v>30</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="53">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
-      <c r="B10" s="46">
+      <c r="B10" s="48">
         <v>8</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="49">
         <v>27</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="54">
         <v>41</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="49">
         <v>13</v>
       </c>
       <c r="F10" s="1">
         <v>24</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="55">
         <v>33</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="53">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
-      <c r="B11" s="46">
+      <c r="B11" s="48">
         <v>9</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="49">
         <v>28</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="54">
         <v>44</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="51">
         <v>14</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="28">
         <v>26.5</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="55">
         <v>36</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="12" ht="19.5" spans="1:8">
       <c r="A12" s="1"/>
-      <c r="B12" s="54">
+      <c r="B12" s="56">
         <v>10</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="57">
         <v>29</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="58">
         <v>47</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="59">
         <v>15</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="60">
         <v>29</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="61">
         <v>39</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="62">
         <v>55</v>
       </c>
     </row>
@@ -4300,202 +5256,202 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="65" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
-      <c r="B17" s="46">
+      <c r="B17" s="48">
         <v>1</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="52">
         <v>15</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="55">
         <v>1</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
-      <c r="B18" s="46">
+      <c r="B18" s="48">
         <v>2</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="55">
         <v>21</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="55">
         <v>1</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
-      <c r="B19" s="46">
+      <c r="B19" s="48">
         <v>3</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="55">
         <v>27</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="55">
         <v>2</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1"/>
-      <c r="B20" s="46">
+      <c r="B20" s="48">
         <v>4</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="55">
         <v>33</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="55">
         <v>2</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1"/>
-      <c r="B21" s="46">
+      <c r="B21" s="48">
         <v>5</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="55">
         <v>39</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="55">
         <v>2</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="46">
+      <c r="B22" s="48">
         <v>6</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="55">
         <v>45</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="55">
         <v>3</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="46">
+      <c r="B23" s="48">
         <v>7</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="55">
         <v>51</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="55">
         <v>3</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="46">
+      <c r="B24" s="48">
         <v>8</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="55">
         <v>57</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="55">
         <v>3</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="46">
+      <c r="B25" s="48">
         <v>9</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="55">
         <v>63</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="55">
         <v>4</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="54">
+      <c r="B26" s="56">
         <v>10</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="61">
         <v>69</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="61">
         <v>4</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30"/>
@@ -4695,12 +5651,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -4709,11 +5665,11 @@
     <col min="3" max="3" width="9.42857142857143" style="22" customWidth="1"/>
     <col min="4" max="4" width="10.5714285714286" style="22" customWidth="1"/>
     <col min="5" max="5" width="17.8571428571429" style="22" customWidth="1"/>
-    <col min="6" max="6" width="26" style="22" customWidth="1"/>
-    <col min="7" max="7" width="27" style="22" customWidth="1"/>
-    <col min="8" max="8" width="23.7142857142857" style="22" customWidth="1"/>
+    <col min="6" max="6" width="26" style="23" customWidth="1"/>
+    <col min="7" max="7" width="27" style="23" customWidth="1"/>
+    <col min="8" max="8" width="23.7142857142857" style="23" customWidth="1"/>
     <col min="9" max="9" width="36" style="22" customWidth="1"/>
-    <col min="10" max="10" width="2.57142857142857" style="22" customWidth="1"/>
+    <col min="10" max="10" width="27" style="23" customWidth="1"/>
     <col min="11" max="11" width="18.5714285714286" style="22" customWidth="1"/>
     <col min="12" max="12" width="9.14285714285714" style="22"/>
     <col min="13" max="13" width="11.5714285714286" style="22" customWidth="1"/>
@@ -4728,66 +5684,66 @@
       <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="74.25" spans="1:14">
+    <row r="2" ht="58" customHeight="1" spans="1:14">
       <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27" t="str">
+      <c r="B2" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_173843F37D6244B794D86AF19D859547",1)</f>
+        <v>=DISPIMG("ID_173843F37D6244B794D86AF19D859547",1)</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2"/>
+    </row>
+    <row r="3" ht="74.25" spans="1:14">
+      <c r="A3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_2FF2D0EDD67E4B1B83779BB6A20A7F3D",1)</f>
         <v>=DISPIMG("ID_2FF2D0EDD67E4B1B83779BB6A20A7F3D",1)</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2"/>
-    </row>
-    <row r="3" ht="58" spans="1:14">
-      <c r="A3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="27" t="str">
-        <f>_xlfn.DISPIMG("ID_173843F37D6244B794D86AF19D859547",1)</f>
-        <v>=DISPIMG("ID_173843F37D6244B794D86AF19D859547",1)</v>
-      </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22">
-        <v>12</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>34</v>
@@ -4798,864 +5754,1464 @@
       <c r="A4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="27" t="str">
+      <c r="B4" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_6A82539A52A34473B077CC1FF6D19737",1)</f>
         <v>=DISPIMG("ID_6A82539A52A34473B077CC1FF6D19737",1)</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="N4"/>
     </row>
     <row r="5" ht="87" customHeight="1" spans="1:14">
       <c r="A5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="27" t="str">
+        <v>38</v>
+      </c>
+      <c r="B5" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_0D1348BF351942C0B94814EB2E6C33B3",1)</f>
         <v>=DISPIMG("ID_0D1348BF351942C0B94814EB2E6C33B3",1)</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="I5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="N5"/>
+    </row>
+    <row r="6" ht="58" customHeight="1" spans="1:14">
+      <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N5"/>
-    </row>
-    <row r="6" ht="68" customHeight="1" spans="1:14">
-      <c r="A6" s="22" t="s">
+      <c r="B6" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_5DCB40CCA6B44244B7519B2BA06EDF1C",1)</f>
+        <v>=DISPIMG("ID_5DCB40CCA6B44244B7519B2BA06EDF1C",1)</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="27" t="str">
+      <c r="F6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6"/>
+    </row>
+    <row r="7" ht="68" customHeight="1" spans="1:14">
+      <c r="A7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_48D844B5BD4E47F1A264B90859DAC1E8",1)</f>
         <v>=DISPIMG("ID_48D844B5BD4E47F1A264B90859DAC1E8",1)</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" ht="58" customHeight="1" spans="1:14">
-      <c r="A7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="27" t="str">
-        <f>_xlfn.DISPIMG("ID_5DCB40CCA6B44244B7519B2BA06EDF1C",1)</f>
-        <v>=DISPIMG("ID_5DCB40CCA6B44244B7519B2BA06EDF1C",1)</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="I7" s="22" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>51</v>
       </c>
       <c r="N7"/>
     </row>
     <row r="8" ht="71" customHeight="1" spans="1:14">
       <c r="A8" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="30" t="str">
         <f>_xlfn.DISPIMG("ID_9997CD209D774EEAB420C53DDEA056A0",1)</f>
         <v>=DISPIMG("ID_9997CD209D774EEAB420C53DDEA056A0",1)</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="F8" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="G8" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>56</v>
       </c>
       <c r="N8"/>
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:14">
       <c r="A9" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="27" t="str">
+        <v>56</v>
+      </c>
+      <c r="B9" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</f>
         <v>=DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="28"/>
+      <c r="F9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="23"/>
       <c r="N9"/>
     </row>
     <row r="10" ht="71" customHeight="1" spans="1:14">
       <c r="A10" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="27" t="str">
+        <v>58</v>
+      </c>
+      <c r="B10" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</f>
         <v>=DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>63</v>
       </c>
       <c r="N10"/>
     </row>
     <row r="11" ht="85" customHeight="1" spans="1:6">
       <c r="A11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="27" t="str">
+        <v>63</v>
+      </c>
+      <c r="B11" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_163A9240D4EF485292D7AE5FEFA9852F",1)</f>
         <v>=DISPIMG("ID_163A9240D4EF485292D7AE5FEFA9852F",1)</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:14">
       <c r="A12" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="27" t="str">
+        <v>67</v>
+      </c>
+      <c r="B12" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_7ED09DD668894ABE8A725CF2D4D0029F",1)</f>
         <v>=DISPIMG("ID_7ED09DD668894ABE8A725CF2D4D0029F",1)</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="G12" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>71</v>
       </c>
       <c r="N12"/>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:14">
       <c r="A13" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="27" t="str">
+        <v>71</v>
+      </c>
+      <c r="B13" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_D36F8EAEDC3D4A2D9DDF24AE96ABB005",1)</f>
         <v>=DISPIMG("ID_D36F8EAEDC3D4A2D9DDF24AE96ABB005",1)</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="G13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="H13" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>76</v>
       </c>
       <c r="N13"/>
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:14">
       <c r="A14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="27" t="str">
+        <v>76</v>
+      </c>
+      <c r="B14" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_A046AFD9A3BF492EADA57F8350871DB2",1)</f>
         <v>=DISPIMG("ID_A046AFD9A3BF492EADA57F8350871DB2",1)</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+        <v>68</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="N14"/>
     </row>
     <row r="15" ht="75" customHeight="1" spans="1:14">
       <c r="A15" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="27" t="str">
+        <v>77</v>
+      </c>
+      <c r="B15" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_2AC053A6DE184E4097DCE1BD0082E519",1)</f>
         <v>=DISPIMG("ID_2AC053A6DE184E4097DCE1BD0082E519",1)</v>
       </c>
       <c r="C15" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>61</v>
-      </c>
       <c r="E15" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="28"/>
+        <v>65</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="23"/>
       <c r="N15"/>
     </row>
     <row r="16" ht="75" customHeight="1" spans="1:14">
       <c r="A16" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="27" t="str">
+        <v>79</v>
+      </c>
+      <c r="B16" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_D72C5AF664FF4D6C8BB8BF8BE922256D",1)</f>
         <v>=DISPIMG("ID_D72C5AF664FF4D6C8BB8BF8BE922256D",1)</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="G16" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="N16"/>
+    </row>
+    <row r="17" ht="75" customHeight="1" spans="1:14">
+      <c r="A17" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="N16"/>
-    </row>
-    <row r="17" ht="75" customHeight="1" spans="2:14">
-      <c r="B17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_8F384D93F8A041A7BCCE76056201BF0F",1)</f>
+        <v>=DISPIMG("ID_8F384D93F8A041A7BCCE76056201BF0F",1)</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="23"/>
       <c r="N17"/>
     </row>
-    <row r="18" ht="75" customHeight="1" spans="2:14">
-      <c r="B18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+    <row r="18" ht="75" customHeight="1" spans="1:14">
+      <c r="A18" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_096FB0EDD1054600AEE93DB32445E432",1)</f>
+        <v>=DISPIMG("ID_096FB0EDD1054600AEE93DB32445E432",1)</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="23"/>
       <c r="N18"/>
     </row>
-    <row r="19" ht="75" customHeight="1" spans="2:14">
-      <c r="B19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+    <row r="19" ht="75" customHeight="1" spans="1:14">
+      <c r="A19" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_FD9E219F3F5B421E997BB811EC08D139",1)</f>
+        <v>=DISPIMG("ID_FD9E219F3F5B421E997BB811EC08D139",1)</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="N19"/>
     </row>
-    <row r="20" ht="75" customHeight="1" spans="2:14">
-      <c r="B20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+    <row r="20" ht="75" customHeight="1" spans="1:14">
+      <c r="A20" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_8A4C0CA2B27A4C878CAEF5F7F6D84956",1)</f>
+        <v>=DISPIMG("ID_8A4C0CA2B27A4C878CAEF5F7F6D84956",1)</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="N20"/>
     </row>
-    <row r="21" ht="75.75" spans="1:14">
+    <row r="21" ht="75" customHeight="1" spans="1:14">
       <c r="A21" s="22" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="B21" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_F8B9634EB73D4F649475A0DA1DCAE550",1)</f>
+        <v>=DISPIMG("ID_F8B9634EB73D4F649475A0DA1DCAE550",1)</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+        <v>98</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="N21"/>
     </row>
-    <row r="22" ht="56.25" spans="1:14">
+    <row r="22" ht="45" customHeight="1" spans="1:14">
       <c r="A22" s="22" t="s">
-        <v>88</v>
+        <v>99</v>
+      </c>
+      <c r="B22" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_53946E75DFA2463A9C5A11C27661E786",1)</f>
+        <v>=DISPIMG("ID_53946E75DFA2463A9C5A11C27661E786",1)</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="N22"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" ht="75" customHeight="1" spans="1:14">
       <c r="A23" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_A9D352B95303458B89C1717F79CDE735",1)</f>
+        <v>=DISPIMG("ID_A9D352B95303458B89C1717F79CDE735",1)</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23"/>
+    </row>
+    <row r="24" ht="75" customHeight="1" spans="1:14">
+      <c r="A24" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_E06E036609E94BB9929FE03D33A7B60B",1)</f>
+        <v>=DISPIMG("ID_E06E036609E94BB9929FE03D33A7B60B",1)</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24"/>
+    </row>
+    <row r="25" ht="75" customHeight="1" spans="1:14">
+      <c r="A25" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_904652B47CF844A8B4968D95A64E3891",1)</f>
+        <v>=DISPIMG("ID_904652B47CF844A8B4968D95A64E3891",1)</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25"/>
+    </row>
+    <row r="26" ht="75" customHeight="1" spans="1:14">
+      <c r="A26" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_C711069D368A4C1E9B8B5E98151EADAC",1)</f>
+        <v>=DISPIMG("ID_C711069D368A4C1E9B8B5E98151EADAC",1)</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26"/>
+    </row>
+    <row r="27" ht="75" customHeight="1" spans="1:14">
+      <c r="A27" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_6C082183216B495085F7DBF1E3D99F5E",1)</f>
+        <v>=DISPIMG("ID_6C082183216B495085F7DBF1E3D99F5E",1)</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" ht="75" customHeight="1" spans="1:14">
+      <c r="A28" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_628E96F4BF42434FA277775E1DE2AA20",1)</f>
+        <v>=DISPIMG("ID_628E96F4BF42434FA277775E1DE2AA20",1)</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" ht="75" customHeight="1" spans="1:14">
+      <c r="A29" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_B9BED2D4AE354012A6BAB6A7E0FF5802",1)</f>
+        <v>=DISPIMG("ID_B9BED2D4AE354012A6BAB6A7E0FF5802",1)</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" ht="75" customHeight="1" spans="1:14">
+      <c r="A30" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="30" t="str">
+        <f>_xlfn.DISPIMG("ID_7A9E03A399CC4F74B895A88C9005BB92",1)</f>
+        <v>=DISPIMG("ID_7A9E03A399CC4F74B895A88C9005BB92",1)</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30"/>
+    </row>
+    <row r="31" ht="75" customHeight="1" spans="1:14">
+      <c r="A31" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_65FDB7CD50CF472E9EE58BDBA9A1B3FA",1)</f>
+        <v>=DISPIMG("ID_65FDB7CD50CF472E9EE58BDBA9A1B3FA",1)</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" ht="75" customHeight="1" spans="2:14">
+      <c r="B32" s="28"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" ht="75" customHeight="1" spans="1:14">
+      <c r="A33" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_AFFBB67C163A41AA92F2B00342A712D5",1)</f>
+        <v>=DISPIMG("ID_AFFBB67C163A41AA92F2B00342A712D5",1)</v>
+      </c>
+      <c r="F33" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="N23"/>
-    </row>
-    <row r="24" ht="37.5" spans="1:14">
-      <c r="A24" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24"/>
-    </row>
-    <row r="25" ht="56.25" spans="1:14">
-      <c r="A25" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" ht="56.25" spans="1:6">
-      <c r="A27" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" ht="56.25" spans="1:8">
-      <c r="A28" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" ht="37.5" spans="1:8">
-      <c r="A29" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" ht="37.5" spans="1:8">
-      <c r="A30" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" ht="37.5" spans="1:7">
-      <c r="A31" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" ht="56.25" spans="1:8">
-      <c r="A32" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" ht="37.5" spans="1:13">
-      <c r="A33" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="28" t="s">
+      <c r="G33" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" ht="56.25" spans="1:13">
+      <c r="H33" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N33"/>
+    </row>
+    <row r="34" ht="75" customHeight="1" spans="1:14">
       <c r="A34" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="28" t="s">
+      <c r="B34" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_A2CCFFC477CB41C68B5C4B028618A131",1)</f>
+        <v>=DISPIMG("ID_A2CCFFC477CB41C68B5C4B028618A131",1)</v>
+      </c>
+      <c r="F34" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="K34" s="35">
-        <v>1</v>
-      </c>
-      <c r="L34" s="36">
-        <v>15</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" ht="37.5" spans="1:13">
+      <c r="N34"/>
+    </row>
+    <row r="35" ht="75" customHeight="1" spans="1:14">
       <c r="A35" s="22" t="s">
         <v>140</v>
       </c>
+      <c r="B35" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_83BCD919FA48483A8504C30F86775227",1)</f>
+        <v>=DISPIMG("ID_83BCD919FA48483A8504C30F86775227",1)</v>
+      </c>
       <c r="C35" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="22" t="s">
+      <c r="G35" s="23"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" ht="75" customHeight="1" spans="1:14">
+      <c r="A36" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="B36" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_F6C581482AFC49CF88B4B51DB4C2B884",1)</f>
+        <v>=DISPIMG("ID_F6C581482AFC49CF88B4B51DB4C2B884",1)</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="G36" s="23"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" ht="75" customHeight="1" spans="1:14">
+      <c r="A37" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="K35" s="35">
-        <v>2</v>
-      </c>
-      <c r="L35" s="37">
-        <v>21</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" ht="37.5" spans="1:13">
-      <c r="A36" s="22" t="s">
+      <c r="B37" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_B56FE51048C84C21B0544EC1D2B49BFB",1)</f>
+        <v>=DISPIMG("ID_B56FE51048C84C21B0544EC1D2B49BFB",1)</v>
+      </c>
+      <c r="F37" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="22" t="s">
+      <c r="G37" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="H37" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="K36" s="35">
-        <v>3</v>
-      </c>
-      <c r="L36" s="37">
-        <v>27</v>
-      </c>
-      <c r="M36" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" ht="56.25" spans="1:13">
-      <c r="A37" s="22" t="s">
+      <c r="N37"/>
+    </row>
+    <row r="38" ht="75" customHeight="1" spans="1:14">
+      <c r="A38" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="22" t="s">
+      <c r="B38" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_2BF7160B000D4507A9BC6E9CD0CFBB9A",1)</f>
+        <v>=DISPIMG("ID_2BF7160B000D4507A9BC6E9CD0CFBB9A",1)</v>
+      </c>
+      <c r="F38" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="G38" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="N38"/>
+    </row>
+    <row r="39" ht="75" customHeight="1" spans="1:14">
+      <c r="A39" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="K37" s="35">
-        <v>4</v>
-      </c>
-      <c r="L37" s="37">
-        <v>33</v>
-      </c>
-      <c r="M37" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" ht="37.5" spans="1:13">
-      <c r="A38" s="22" t="s">
+      <c r="B39" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_F51C6D32B5FE4CB4BAE5E9D1DF1B99A4",1)</f>
+        <v>=DISPIMG("ID_F51C6D32B5FE4CB4BAE5E9D1DF1B99A4",1)</v>
+      </c>
+      <c r="F39" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="22" t="s">
+      <c r="G39" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="H39" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="N39"/>
+    </row>
+    <row r="40" ht="75" customHeight="1" spans="1:14">
+      <c r="A40" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="B40" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_42E1FCCA38754E91AC4BDE1CCF581E79",1)</f>
+        <v>=DISPIMG("ID_42E1FCCA38754E91AC4BDE1CCF581E79",1)</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="K38" s="35">
-        <v>5</v>
-      </c>
-      <c r="L38" s="37">
-        <v>39</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" ht="37.5" spans="1:13">
-      <c r="A39" s="22" t="s">
+      <c r="G40" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="I40" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="28" t="s">
+      <c r="N40"/>
+    </row>
+    <row r="41" ht="75" customHeight="1" spans="1:14">
+      <c r="A41" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="K39" s="35">
-        <v>6</v>
-      </c>
-      <c r="L39" s="37">
-        <v>45</v>
-      </c>
-      <c r="M39" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" ht="37.5" spans="1:13">
-      <c r="A40" s="28" t="s">
+      <c r="B41" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_FCC8AFB7F83C4286AEE68D9A89ABD31C",1)</f>
+        <v>=DISPIMG("ID_FCC8AFB7F83C4286AEE68D9A89ABD31C",1)</v>
+      </c>
+      <c r="F41" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="K40" s="35">
-        <v>7</v>
-      </c>
-      <c r="L40" s="37">
-        <v>51</v>
-      </c>
-      <c r="M40" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="22" t="s">
+      <c r="G41" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="K41" s="35">
-        <v>8</v>
-      </c>
-      <c r="L41" s="37">
-        <v>57</v>
-      </c>
-      <c r="M41" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41"/>
+    </row>
+    <row r="42" ht="75" customHeight="1" spans="1:14">
       <c r="A42" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="B42" s="28"/>
+      <c r="F42" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K42" s="35">
+      <c r="G42" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="N42"/>
+    </row>
+    <row r="43" ht="75" customHeight="1" spans="1:14">
+      <c r="A43" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_4F83562294774CE1B91320A1884FEEA6",1)</f>
+        <v>=DISPIMG("ID_4F83562294774CE1B91320A1884FEEA6",1)</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="N43"/>
+    </row>
+    <row r="44" ht="75" customHeight="1" spans="1:14">
+      <c r="A44" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_50AEDFD4C9CB4FD09CD7DBAA4E44C1E5",1)</f>
+        <v>=DISPIMG("ID_50AEDFD4C9CB4FD09CD7DBAA4E44C1E5",1)</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="N44"/>
+    </row>
+    <row r="45" ht="75" customHeight="1" spans="1:14">
+      <c r="A45" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="F45" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N45"/>
+    </row>
+    <row r="46" ht="75" customHeight="1" spans="1:14">
+      <c r="A46" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="28"/>
+      <c r="F46" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="N46"/>
+    </row>
+    <row r="47" ht="75" customHeight="1" spans="2:14">
+      <c r="B47" s="28"/>
+      <c r="N47"/>
+    </row>
+    <row r="48" ht="75.75" spans="1:14">
+      <c r="A48" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H48" s="32"/>
+      <c r="I48" s="34"/>
+      <c r="N48"/>
+    </row>
+    <row r="49" ht="56.25" spans="1:14">
+      <c r="A49" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="N50"/>
+    </row>
+    <row r="51" ht="37.5" spans="1:14">
+      <c r="A51" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="N51"/>
+    </row>
+    <row r="52" ht="56.25" spans="1:14">
+      <c r="A52" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" ht="56.25" spans="1:6">
+      <c r="A54" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" ht="56.25" spans="1:8">
+      <c r="A55" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" ht="37.5" spans="1:8">
+      <c r="A56" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" ht="37.5" spans="1:8">
+      <c r="A57" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" ht="37.5" spans="1:7">
+      <c r="A58" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" ht="56.25" spans="1:8">
+      <c r="A59" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" ht="37.5" spans="1:13">
+      <c r="A60" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L60" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M60" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" ht="56.25" spans="1:13">
+      <c r="A61" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K61" s="37">
+        <v>1</v>
+      </c>
+      <c r="L61" s="38">
+        <v>15</v>
+      </c>
+      <c r="M61" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" ht="37.5" spans="1:13">
+      <c r="A62" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="K62" s="37">
+        <v>2</v>
+      </c>
+      <c r="L62" s="39">
+        <v>21</v>
+      </c>
+      <c r="M62" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" ht="37.5" spans="1:13">
+      <c r="A63" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="K63" s="37">
+        <v>3</v>
+      </c>
+      <c r="L63" s="39">
+        <v>27</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="56.25" spans="1:13">
+      <c r="A64" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="K64" s="37">
+        <v>4</v>
+      </c>
+      <c r="L64" s="39">
+        <v>33</v>
+      </c>
+      <c r="M64" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" ht="37.5" spans="1:13">
+      <c r="A65" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="K65" s="37">
+        <v>5</v>
+      </c>
+      <c r="L65" s="39">
+        <v>39</v>
+      </c>
+      <c r="M65" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" ht="37.5" spans="1:13">
+      <c r="A66" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="K66" s="37">
+        <v>6</v>
+      </c>
+      <c r="L66" s="39">
+        <v>45</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" ht="37.5" spans="1:13">
+      <c r="A67" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="K67" s="37">
+        <v>7</v>
+      </c>
+      <c r="L67" s="39">
+        <v>51</v>
+      </c>
+      <c r="M67" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="K68" s="37">
+        <v>8</v>
+      </c>
+      <c r="L68" s="39">
+        <v>57</v>
+      </c>
+      <c r="M68" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="K69" s="37">
         <v>9</v>
       </c>
-      <c r="L42" s="37">
+      <c r="L69" s="39">
         <v>63</v>
       </c>
-      <c r="M42" s="22" t="s">
+      <c r="M69" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="K43" s="38">
+    <row r="70" spans="1:13">
+      <c r="A70" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="K70" s="40">
         <v>10</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L70" s="41">
         <v>69</v>
       </c>
-      <c r="M43" s="40" t="s">
+      <c r="M70" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>163</v>
+    <row r="71" spans="1:6">
+      <c r="A71" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5670,7 +7226,7 @@
   <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -5690,37 +7246,37 @@
   <sheetData>
     <row r="3" spans="2:8">
       <c r="B3" s="14" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" ht="65.55" customHeight="1" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</f>
         <v>=DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</f>
@@ -5729,39 +7285,39 @@
     </row>
     <row r="5" ht="44" customHeight="1" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</f>
         <v>=DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</f>
         <v>=DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" ht="47" customHeight="1" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</f>
         <v>=DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</f>
@@ -5770,39 +7326,39 @@
     </row>
     <row r="7" ht="64" customHeight="1" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</f>
         <v>=DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</f>
         <v>=DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</f>
         <v>=DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</f>
@@ -5811,13 +7367,13 @@
     </row>
     <row r="9" ht="62" customHeight="1" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</f>
@@ -5826,7 +7382,7 @@
     </row>
     <row r="10" ht="33" customHeight="1" spans="6:7">
       <c r="F10" s="1" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</f>
@@ -5835,14 +7391,14 @@
     </row>
     <row r="11" ht="50" customHeight="1" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</f>
         <v>=DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>191</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5856,8 +7412,8 @@
   <sheetPr/>
   <dimension ref="B9:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -5878,46 +7434,46 @@
   <sheetData>
     <row r="9" spans="2:11">
       <c r="B9" s="14" t="s">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" ht="44" customHeight="1" spans="3:11">
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</f>
         <v>=DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -5925,23 +7481,23 @@
     </row>
     <row r="11" ht="45" customHeight="1" spans="2:11">
       <c r="B11" s="1" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</f>
         <v>=DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
@@ -5949,23 +7505,23 @@
     </row>
     <row r="12" ht="56.25" spans="2:11">
       <c r="B12" s="1" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</f>
         <v>=DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -5973,23 +7529,23 @@
     </row>
     <row r="13" ht="117" customHeight="1" spans="2:11">
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</f>
         <v>=DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="K13" s="1">
         <v>5</v>
@@ -5997,23 +7553,23 @@
     </row>
     <row r="14" ht="112.5" spans="2:11">
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</f>
         <v>=DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="F14" s="1">
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="K14" s="1">
         <v>6</v>
@@ -6021,49 +7577,49 @@
     </row>
     <row r="15" ht="117" customHeight="1" spans="2:6">
       <c r="B15" s="1" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" ht="37.5" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</f>
         <v>=DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" ht="37.5" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</f>
         <v>=DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -6071,17 +7627,17 @@
     </row>
     <row r="18" ht="75" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</f>
         <v>=DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -6089,35 +7645,35 @@
     </row>
     <row r="19" ht="29.25" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</f>
         <v>=DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</v>
       </c>
-      <c r="E19" s="67" t="s">
-        <v>221</v>
+      <c r="E19" s="69" t="s">
+        <v>309</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" ht="37.5" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</f>
         <v>=DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
@@ -6125,17 +7681,17 @@
     </row>
     <row r="21" ht="93.75" spans="2:6">
       <c r="B21" s="1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</f>
         <v>=DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
@@ -6143,17 +7699,17 @@
     </row>
     <row r="22" ht="56.25" spans="2:9">
       <c r="B22" s="1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</f>
         <v>=DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
@@ -6164,17 +7720,17 @@
     </row>
     <row r="23" ht="93.75" spans="2:9">
       <c r="B23" s="1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</f>
         <v>=DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
@@ -6185,16 +7741,16 @@
     </row>
     <row r="24" ht="93.75" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -6202,45 +7758,45 @@
     </row>
     <row r="25" ht="56.25" spans="2:6">
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</f>
         <v>=DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" ht="37.5" spans="2:6">
       <c r="B27" s="1" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -6248,13 +7804,13 @@
     </row>
     <row r="28" ht="56.25" spans="2:6">
       <c r="B28" s="1" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>238</v>
+        <v>326</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -6262,13 +7818,13 @@
     </row>
     <row r="29" ht="37.5" spans="2:6">
       <c r="B29" s="1" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="F29" s="1">
         <v>3</v>
@@ -6276,13 +7832,13 @@
     </row>
     <row r="30" ht="75" spans="2:6">
       <c r="B30" s="1" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="F30" s="1">
         <v>8</v>
@@ -6290,13 +7846,13 @@
     </row>
     <row r="31" ht="93.75" spans="2:6">
       <c r="B31" s="1" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="F31" s="1">
         <v>5</v>
@@ -6304,13 +7860,13 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="1" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>247</v>
+        <v>335</v>
       </c>
       <c r="F32" s="1">
         <v>5</v>
@@ -6318,13 +7874,13 @@
     </row>
     <row r="33" ht="56.25" spans="2:6">
       <c r="B33" s="1" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>248</v>
+        <v>336</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>249</v>
+        <v>337</v>
       </c>
       <c r="F33" s="1">
         <v>3</v>
@@ -6332,13 +7888,13 @@
     </row>
     <row r="34" ht="37.5" spans="2:6">
       <c r="B34" s="1" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
@@ -6346,13 +7902,13 @@
     </row>
     <row r="35" ht="56.25" spans="2:6">
       <c r="B35" s="1" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>253</v>
+        <v>341</v>
       </c>
       <c r="F35" s="1">
         <v>9</v>
@@ -6360,38 +7916,38 @@
     </row>
     <row r="36" ht="93.75" spans="2:5">
       <c r="B36" s="1" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>255</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="1" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>256</v>
+        <v>344</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="1" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -6399,13 +7955,13 @@
     </row>
     <row r="39" ht="37.5" spans="2:6">
       <c r="B39" s="1" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>258</v>
+        <v>346</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>259</v>
+        <v>347</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
@@ -6413,13 +7969,13 @@
     </row>
     <row r="40" ht="37.5" spans="2:6">
       <c r="B40" s="1" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>260</v>
+        <v>348</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
@@ -6427,13 +7983,13 @@
     </row>
     <row r="41" ht="93.75" spans="2:6">
       <c r="B41" s="1" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
@@ -6441,13 +7997,13 @@
     </row>
     <row r="42" ht="93.75" spans="2:6">
       <c r="B42" s="1" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="F42" s="1">
         <v>7</v>
@@ -6455,27 +8011,27 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="1" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" ht="75" spans="2:6">
       <c r="B44" s="1" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="F44" s="1">
         <v>4</v>
@@ -6483,41 +8039,41 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="1" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>256</v>
+        <v>344</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="1" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" ht="56.25" spans="2:6">
       <c r="B47" s="3" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>272</v>
+        <v>360</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
@@ -6525,13 +8081,13 @@
     </row>
     <row r="48" ht="56.25" spans="2:6">
       <c r="B48" s="1" t="s">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="F48" s="1">
         <v>5</v>
@@ -6539,13 +8095,13 @@
     </row>
     <row r="49" ht="37.5" spans="2:6">
       <c r="B49" s="1" t="s">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>277</v>
+        <v>365</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="F49" s="1">
         <v>6</v>
@@ -6553,13 +8109,13 @@
     </row>
     <row r="50" ht="75" spans="2:6">
       <c r="B50" s="1" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>280</v>
+        <v>368</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
@@ -6567,13 +8123,13 @@
     </row>
     <row r="51" ht="56.25" spans="2:6">
       <c r="B51" s="1" t="s">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>282</v>
+        <v>370</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
       <c r="F51" s="1">
         <v>4</v>
@@ -6581,13 +8137,13 @@
     </row>
     <row r="52" ht="56.25" spans="2:6">
       <c r="B52" s="3" t="s">
-        <v>284</v>
+        <v>372</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="F52" s="1">
         <v>6</v>
@@ -6595,13 +8151,13 @@
     </row>
     <row r="53" ht="56.25" spans="2:6">
       <c r="B53" s="1" t="s">
-        <v>287</v>
+        <v>375</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>289</v>
+        <v>377</v>
       </c>
       <c r="F53" s="1">
         <v>6</v>
@@ -6609,58 +8165,58 @@
     </row>
     <row r="54" ht="37.5" spans="2:6">
       <c r="B54" s="1" t="s">
-        <v>290</v>
+        <v>378</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>291</v>
+        <v>379</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" ht="75" spans="2:6">
       <c r="B55" s="3" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" ht="39" customHeight="1" spans="2:7">
       <c r="B56" s="1" t="s">
-        <v>290</v>
+        <v>378</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>296</v>
+        <v>384</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" ht="112.5" spans="2:5">
       <c r="B57" s="1" t="s">
-        <v>299</v>
+        <v>387</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6675,7 +8231,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -6695,7 +8251,7 @@
   <sheetData>
     <row r="2" ht="30" customHeight="1" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -6704,73 +8260,73 @@
     </row>
     <row r="3" ht="38.25" spans="2:4">
       <c r="B3" s="7" t="s">
-        <v>303</v>
+        <v>391</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" ht="57" spans="2:6">
       <c r="B4" s="8" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>308</v>
+        <v>396</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>310</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>311</v>
+        <v>399</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>312</v>
+        <v>400</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>313</v>
+        <v>401</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" ht="84" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>315</v>
+        <v>403</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>316</v>
+        <v>404</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" ht="19.5" spans="2:10">
       <c r="B8" s="9" t="s">
-        <v>319</v>
+        <v>407</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>320</v>
+        <v>408</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>321</v>
+        <v>409</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -6783,28 +8339,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>323</v>
+        <v>411</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>324</v>
+        <v>412</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>325</v>
+        <v>413</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>326</v>
+        <v>414</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>327</v>
+        <v>415</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>329</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="2:7">
@@ -6812,19 +8368,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>331</v>
+        <v>419</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>332</v>
+        <v>420</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>333</v>
+        <v>421</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>334</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -6843,7 +8399,7 @@
   <dimension ref="B2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -6857,13 +8413,13 @@
   <sheetData>
     <row r="2" ht="81" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>335</v>
+        <v>423</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>336</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27195" windowHeight="13095" activeTab="1"/>
+    <workbookView windowWidth="23295" windowHeight="13095" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -1763,11 +1763,514 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="ID_7FEFC25B5DDF45199372FEC1ECD4F0DB" descr="CrystalGolem"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId69"/>
+        <a:srcRect l="-1071" t="1538" r="85536" b="-1538"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="40843200"/>
+          <a:ext cx="828675" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="ID_28ECA6BF9B5F4B8AB2A28048D7A7B8D6" descr="crystal5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId70"/>
+        <a:srcRect r="83333"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="37766625"/>
+          <a:ext cx="428625" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="ID_563C63C9B19047BAA87384017A514719" descr="cyclops"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId71"/>
+        <a:srcRect r="87311"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="41767125"/>
+          <a:ext cx="1276350" cy="984885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="ID_F991DDDB9E524EFEA1B831F26AB76DE9" descr="Steady Shooting"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3681095" y="14800580"/>
+          <a:ext cx="302260" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="ID_B70ADECACB0640B388DDE4A570E8A4A0" descr="Longdraw"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3740150" y="15660370"/>
+          <a:ext cx="304165" cy="302895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="ID_FB929A3456EC484B83246B63E363119F" descr="Cobra Shot"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3738880" y="14031595"/>
+          <a:ext cx="305435" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="ID_CDF4F9B6AAE7428396B6B6CB350938A4" descr="Bola Shot"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3813810" y="14678660"/>
+          <a:ext cx="299720" cy="307975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="ID_9E20CD0B9D3344AFA01653BE39E9CAED" descr="Crystal Arrow"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3672840" y="16288385"/>
+          <a:ext cx="300355" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="ID_435D6C639B07467EA8A5C2BDBADEB9EF" descr="Big Block"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3255010" y="2468245"/>
+          <a:ext cx="298450" cy="303530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="ID_F93D45808FD1497AA14207AA5687A0B5" descr="Smite"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3122295" y="3897630"/>
+          <a:ext cx="304800" cy="304165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="ID_BD2F4EFF81EA407EB07B30FC9A025ED8" descr="Lance Thrust"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3130550" y="5582285"/>
+          <a:ext cx="303530" cy="305435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="ID_6F93A133E4B345C3A8C8AB0E41048D37" descr="Dig"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3031490" y="6868795"/>
+          <a:ext cx="303530" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="ID_9DE1483F06B1441B9301F11BB84D2728" descr="Lightning Spear"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3329305" y="8388350"/>
+          <a:ext cx="303530" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="ID_E2D7BCC771AE4C57B67785698BAAC802" descr="Condemnation"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3172460" y="9831705"/>
+          <a:ext cx="303530" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="ID_B819211F6D714CDEBBF38A9148AFAAC7" descr="ANCHORRR"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990215" y="12987020"/>
+          <a:ext cx="303530" cy="305435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="ID_068CF9D1A64D4B1AA847F491190CA498" descr="Blind Execution"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3271520" y="11410315"/>
+          <a:ext cx="301625" cy="305435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="ID_0D3B38AE54A44B3E8DF025084DB6651B" descr="Implosion"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3296285" y="14530705"/>
+          <a:ext cx="304800" cy="305435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="ID_F1C740FD556749E1A3007CADB7F7B5AD" descr="Kill Block"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3039745" y="18552160"/>
+          <a:ext cx="303530" cy="306070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="ID_475395F073B348EBAD90A05DB4F70535" descr="Persistent Block"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3147060" y="20297140"/>
+          <a:ext cx="303530" cy="305435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="ID_7295A5EE838846E9918EEC2351B4AADE" descr="Long Reach"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114040" y="19508470"/>
+          <a:ext cx="303530" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="454">
   <si>
     <t>Player Level</t>
   </si>
@@ -2847,7 +3350,7 @@
   </si>
   <si>
     <t>2 range
-2 + 75% ATK AoE</t>
+2 + 55% ATK AoE</t>
   </si>
   <si>
     <t>135% ATK</t>
@@ -2856,10 +3359,73 @@
     <t>Block</t>
   </si>
   <si>
-    <t>Block up to 100% SP damage until next turn.</t>
+    <t>Gain 2 + 50% SP Block</t>
   </si>
   <si>
     <t>Move 1 (free)</t>
+  </si>
+  <si>
+    <t>Big Block</t>
+  </si>
+  <si>
+    <t>Gain 4 + 100% SP Block</t>
+  </si>
+  <si>
+    <t>Smite</t>
+  </si>
+  <si>
+    <t>Next attack deals 25% extra damage.
+Heal for damage dealt.</t>
+  </si>
+  <si>
+    <t>Lance Thrust</t>
+  </si>
+  <si>
+    <t>1 + 85% ATK + 85% SP
+3 range Line</t>
+  </si>
+  <si>
+    <t>Dig</t>
+  </si>
+  <si>
+    <t>Digs!</t>
+  </si>
+  <si>
+    <t>Lightning Spear</t>
+  </si>
+  <si>
+    <t>40% ATK + 100% SP damage
+Chains to up to 3 units
+Delas +50% damage if target has block</t>
+  </si>
+  <si>
+    <t>Condemnation</t>
+  </si>
+  <si>
+    <t>3 tiles vertically.
+Stuns.
+Heal 2 + 15% SP for each.</t>
+  </si>
+  <si>
+    <t>Blind Execution</t>
+  </si>
+  <si>
+    <t>165% ATK DARK damage to random target near you.
+If it kills it, take another turn.</t>
+  </si>
+  <si>
+    <t>ANCHORRR</t>
+  </si>
+  <si>
+    <t>100% ATK diagonally.
+Pulls.</t>
+  </si>
+  <si>
+    <t>Implosion</t>
+  </si>
+  <si>
+    <t>20% of Max Health damage.
+All units within 2 tiles.</t>
   </si>
   <si>
     <t>Haymaker</t>
@@ -2897,11 +3463,22 @@
     <t>Passive</t>
   </si>
   <si>
-    <t>Regeneration</t>
-  </si>
-  <si>
-    <t>Heal 1 + 20% SP
-every turn</t>
+    <t>Long Reach</t>
+  </si>
+  <si>
+    <t>+1 Attack range</t>
+  </si>
+  <si>
+    <t>Persistent Block</t>
+  </si>
+  <si>
+    <t>Block persists through turns.</t>
+  </si>
+  <si>
+    <t>Hero Regeneration</t>
+  </si>
+  <si>
+    <t>Heal an extra 2 + 15% SP after every combat.</t>
   </si>
   <si>
     <t>Ranger</t>
@@ -2917,22 +3494,16 @@
     <t>Fox Attack</t>
   </si>
   <si>
-    <t>35% ATK
-Bleed 35% SP
+    <t>55% ATK
+Bleed 55% SP
 global range
 (3 turns)</t>
   </si>
   <si>
-    <t>Quickfoot</t>
-  </si>
-  <si>
-    <t>+1 Movement</t>
-  </si>
-  <si>
     <t>Triple Arrow</t>
   </si>
   <si>
-    <t>85% ATK
+    <t>105% ATK
 4 range</t>
   </si>
   <si>
@@ -2942,11 +3513,11 @@
     <t>90% SP FIRE
 4 range (8 way)
 enemy gets -10
-dodge and crit
-(does not stack)</t>
-  </si>
-  <si>
-    <t>105% SP
+dodge and crit.
+Interrupts.</t>
+  </si>
+  <si>
+    <t>205% SP
 4 range (TIR)
 (instant)</t>
   </si>
@@ -2960,6 +3531,41 @@
 scatter away from it</t>
   </si>
   <si>
+    <t>Cobra Shot</t>
+  </si>
+  <si>
+    <t>3 Tiles in a line.
+Shreds block.
+Creates acid traps.</t>
+  </si>
+  <si>
+    <t>Bola Shot</t>
+  </si>
+  <si>
+    <t>50% ATK
+Stuns.</t>
+  </si>
+  <si>
+    <t>Crystal Arrow</t>
+  </si>
+  <si>
+    <t>Shoot diagonally (30% ATK + 70% SP).
+Gain Block for damage done.
+Jump back.</t>
+  </si>
+  <si>
+    <t>Quickfoot</t>
+  </si>
+  <si>
+    <t>+1 Movement</t>
+  </si>
+  <si>
+    <t>Longdraw</t>
+  </si>
+  <si>
+    <t>+1 Shoot Arrow range</t>
+  </si>
+  <si>
     <t>Steady Shooting</t>
   </si>
   <si>
@@ -2976,10 +3582,16 @@
 with a Fox companion</t>
   </si>
   <si>
-    <t>&lt;Block/Defense&gt;</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Throw Rock</t>
+  </si>
+  <si>
+    <t>1 Damage</t>
+  </si>
+  <si>
+    <t>Use to trigger traps and stuff</t>
   </si>
   <si>
     <t>Mage</t>
@@ -3063,6 +3675,9 @@
   </si>
   <si>
     <t>&lt;Buff&gt;</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>Rogue</t>
@@ -3193,9 +3808,6 @@
 Instant</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Vampirism</t>
   </si>
   <si>
@@ -3214,15 +3826,6 @@
     <t>Your normal attacks
 or arrows deal
 +25% SP damage</t>
-  </si>
-  <si>
-    <t>Throw Rock</t>
-  </si>
-  <si>
-    <t>1 Damage</t>
-  </si>
-  <si>
-    <t>Use to trigger traps and stuff</t>
   </si>
   <si>
     <t>Rogue, Ranger</t>
@@ -3397,12 +4000,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3451,7 +4054,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="4" tint="-0.25"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3459,6 +4061,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.25"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3496,7 +4105,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3517,13 +4134,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3535,6 +4145,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3563,14 +4187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -3584,13 +4200,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3609,6 +4218,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -3618,7 +4235,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3626,14 +4243,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3648,7 +4257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3660,7 +4269,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3672,7 +4305,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3684,7 +4341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3696,37 +4359,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3744,7 +4395,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3756,79 +4431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4146,15 +4755,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4166,6 +4766,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4248,103 +4857,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4353,47 +5001,8 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4454,10 +5063,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4469,13 +5081,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4493,7 +5105,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4523,7 +5135,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4583,7 +5195,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4600,6 +5212,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4956,19 +5571,19 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -4983,241 +5598,241 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
-      <c r="B3" s="48">
+      <c r="B3" s="49">
         <v>1</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="50">
         <v>20</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="51">
         <v>20</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="52">
         <v>6</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="29">
         <v>6.5</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="53">
         <v>12</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
-      <c r="B4" s="48">
+      <c r="B4" s="49">
         <v>2</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="50">
         <v>21</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="55">
         <v>23</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="50">
         <v>7</v>
       </c>
       <c r="F4" s="1">
         <v>9</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="56">
         <v>15</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
-      <c r="B5" s="48">
+      <c r="B5" s="49">
         <v>3</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="50">
         <v>22</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="55">
         <v>26</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="52">
         <v>8</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="29">
         <v>11.5</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="56">
         <v>18</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="54">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
-      <c r="B6" s="48">
+      <c r="B6" s="49">
         <v>4</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="50">
         <v>23</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="55">
         <v>29</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="52">
         <v>9</v>
       </c>
       <c r="F6" s="1">
         <v>14</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="56">
         <v>21</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="54">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1"/>
-      <c r="B7" s="48">
+      <c r="B7" s="49">
         <v>5</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="50">
         <v>24</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="55">
         <v>32</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="50">
         <v>10</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="29">
         <v>16.5</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="56">
         <v>24</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="54">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>
-      <c r="B8" s="48">
+      <c r="B8" s="49">
         <v>6</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="50">
         <v>25</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="55">
         <v>35</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="52">
         <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>19</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="56">
         <v>27</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="54">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
-      <c r="B9" s="48">
+      <c r="B9" s="49">
         <v>7</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="50">
         <v>26</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="55">
         <v>38</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="52">
         <v>12</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="29">
         <v>21.5</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="56">
         <v>30</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="54">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
-      <c r="B10" s="48">
+      <c r="B10" s="49">
         <v>8</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="50">
         <v>27</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="55">
         <v>41</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="50">
         <v>13</v>
       </c>
       <c r="F10" s="1">
         <v>24</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="56">
         <v>33</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="54">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
-      <c r="B11" s="48">
+      <c r="B11" s="49">
         <v>9</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="50">
         <v>28</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="55">
         <v>44</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="52">
         <v>14</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="29">
         <v>26.5</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="56">
         <v>36</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="54">
         <v>50</v>
       </c>
     </row>
     <row r="12" ht="19.5" spans="1:8">
       <c r="A12" s="1"/>
-      <c r="B12" s="56">
+      <c r="B12" s="57">
         <v>10</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="58">
         <v>29</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="59">
         <v>47</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="60">
         <v>15</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="61">
         <v>29</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="62">
         <v>39</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="63">
         <v>55</v>
       </c>
     </row>
@@ -5256,202 +5871,202 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="66" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
-      <c r="B17" s="48">
+      <c r="B17" s="49">
         <v>1</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="53">
         <v>15</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="56">
         <v>1</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
-      <c r="B18" s="48">
+      <c r="B18" s="49">
         <v>2</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="56">
         <v>21</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="56">
         <v>1</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
-      <c r="B19" s="48">
+      <c r="B19" s="49">
         <v>3</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="56">
         <v>27</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1"/>
-      <c r="B20" s="48">
+      <c r="B20" s="49">
         <v>4</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="56">
         <v>33</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="56">
         <v>2</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1"/>
-      <c r="B21" s="48">
+      <c r="B21" s="49">
         <v>5</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="56">
         <v>39</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="56">
         <v>2</v>
       </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="48">
+      <c r="B22" s="49">
         <v>6</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="56">
         <v>45</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="56">
         <v>3</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="48">
+      <c r="B23" s="49">
         <v>7</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="56">
         <v>51</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="56">
         <v>3</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="48">
+      <c r="B24" s="49">
         <v>8</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="56">
         <v>57</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="56">
         <v>3</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="48">
+      <c r="B25" s="49">
         <v>9</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="56">
         <v>63</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="56">
         <v>4</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="56">
+      <c r="B26" s="57">
         <v>10</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="62">
         <v>69</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="62">
         <v>4</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30"/>
@@ -5472,175 +6087,175 @@
       <c r="H31"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5653,28 +6268,28 @@
   <sheetPr/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="21.1428571428571" style="22" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="22" customWidth="1"/>
-    <col min="4" max="4" width="10.5714285714286" style="22" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" style="22" customWidth="1"/>
-    <col min="6" max="6" width="26" style="23" customWidth="1"/>
-    <col min="7" max="7" width="27" style="23" customWidth="1"/>
-    <col min="8" max="8" width="23.7142857142857" style="23" customWidth="1"/>
-    <col min="9" max="9" width="36" style="22" customWidth="1"/>
-    <col min="10" max="10" width="27" style="23" customWidth="1"/>
-    <col min="11" max="11" width="18.5714285714286" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9.14285714285714" style="22"/>
-    <col min="13" max="13" width="11.5714285714286" style="22" customWidth="1"/>
-    <col min="14" max="14" width="13.4285714285714" style="22" customWidth="1"/>
-    <col min="15" max="16384" width="9.14285714285714" style="22"/>
+    <col min="1" max="2" width="21.1428571428571" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.8571428571429" style="23" customWidth="1"/>
+    <col min="6" max="6" width="26" style="24" customWidth="1"/>
+    <col min="7" max="7" width="27" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.7142857142857" style="24" customWidth="1"/>
+    <col min="9" max="9" width="36" style="23" customWidth="1"/>
+    <col min="10" max="10" width="27" style="24" customWidth="1"/>
+    <col min="11" max="11" width="18.5714285714286" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.14285714285714" style="23"/>
+    <col min="13" max="13" width="11.5714285714286" style="23" customWidth="1"/>
+    <col min="14" max="14" width="13.4285714285714" style="23" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5684,1533 +6299,1528 @@
       <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="58" customHeight="1" spans="1:14">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="28" t="str">
+      <c r="B2" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_173843F37D6244B794D86AF19D859547",1)</f>
         <v>=DISPIMG("ID_173843F37D6244B794D86AF19D859547",1)</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="23">
         <v>1</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="23">
         <v>12</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N2"/>
     </row>
     <row r="3" ht="74.25" spans="1:14">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="28" t="str">
+      <c r="B3" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_2FF2D0EDD67E4B1B83779BB6A20A7F3D",1)</f>
         <v>=DISPIMG("ID_2FF2D0EDD67E4B1B83779BB6A20A7F3D",1)</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="23" t="s">
         <v>34</v>
       </c>
       <c r="N3"/>
     </row>
     <row r="4" ht="90" customHeight="1" spans="1:14">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="28" t="str">
+      <c r="B4" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_6A82539A52A34473B077CC1FF6D19737",1)</f>
         <v>=DISPIMG("ID_6A82539A52A34473B077CC1FF6D19737",1)</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="24" t="s">
         <v>37</v>
       </c>
       <c r="N4"/>
     </row>
     <row r="5" ht="87" customHeight="1" spans="1:14">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="28" t="str">
+      <c r="B5" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_0D1348BF351942C0B94814EB2E6C33B3",1)</f>
         <v>=DISPIMG("ID_0D1348BF351942C0B94814EB2E6C33B3",1)</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="23" t="s">
         <v>42</v>
       </c>
       <c r="N5"/>
     </row>
     <row r="6" ht="58" customHeight="1" spans="1:14">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="28" t="str">
+      <c r="B6" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_5DCB40CCA6B44244B7519B2BA06EDF1C",1)</f>
         <v>=DISPIMG("ID_5DCB40CCA6B44244B7519B2BA06EDF1C",1)</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>45</v>
       </c>
       <c r="N6"/>
     </row>
     <row r="7" ht="68" customHeight="1" spans="1:14">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="28" t="str">
+      <c r="B7" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_48D844B5BD4E47F1A264B90859DAC1E8",1)</f>
         <v>=DISPIMG("ID_48D844B5BD4E47F1A264B90859DAC1E8",1)</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="23" t="s">
         <v>50</v>
       </c>
       <c r="N7"/>
     </row>
     <row r="8" ht="71" customHeight="1" spans="1:14">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="30" t="str">
+      <c r="B8" s="31" t="str">
         <f>_xlfn.DISPIMG("ID_9997CD209D774EEAB420C53DDEA056A0",1)</f>
         <v>=DISPIMG("ID_9997CD209D774EEAB420C53DDEA056A0",1)</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="32" t="s">
         <v>55</v>
       </c>
       <c r="N8"/>
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:14">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="28" t="str">
+      <c r="B9" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</f>
         <v>=DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="24"/>
       <c r="N9"/>
     </row>
     <row r="10" ht="71" customHeight="1" spans="1:14">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="28" t="str">
+      <c r="B10" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</f>
         <v>=DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="24" t="s">
         <v>62</v>
       </c>
       <c r="N10"/>
     </row>
     <row r="11" ht="85" customHeight="1" spans="1:6">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="28" t="str">
+      <c r="B11" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_163A9240D4EF485292D7AE5FEFA9852F",1)</f>
         <v>=DISPIMG("ID_163A9240D4EF485292D7AE5FEFA9852F",1)</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:14">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="28" t="str">
+      <c r="B12" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_7ED09DD668894ABE8A725CF2D4D0029F",1)</f>
         <v>=DISPIMG("ID_7ED09DD668894ABE8A725CF2D4D0029F",1)</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="24" t="s">
         <v>70</v>
       </c>
       <c r="N12"/>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:14">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="28" t="str">
+      <c r="B13" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_D36F8EAEDC3D4A2D9DDF24AE96ABB005",1)</f>
         <v>=DISPIMG("ID_D36F8EAEDC3D4A2D9DDF24AE96ABB005",1)</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="24" t="s">
         <v>75</v>
       </c>
       <c r="N13"/>
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:14">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="28" t="str">
+      <c r="B14" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A046AFD9A3BF492EADA57F8350871DB2",1)</f>
         <v>=DISPIMG("ID_A046AFD9A3BF492EADA57F8350871DB2",1)</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
       <c r="N14"/>
     </row>
     <row r="15" ht="75" customHeight="1" spans="1:14">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="28" t="str">
+      <c r="B15" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_2AC053A6DE184E4097DCE1BD0082E519",1)</f>
         <v>=DISPIMG("ID_2AC053A6DE184E4097DCE1BD0082E519",1)</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="23"/>
       <c r="N15"/>
     </row>
     <row r="16" ht="75" customHeight="1" spans="1:14">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="28" t="str">
+      <c r="B16" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_D72C5AF664FF4D6C8BB8BF8BE922256D",1)</f>
         <v>=DISPIMG("ID_D72C5AF664FF4D6C8BB8BF8BE922256D",1)</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>82</v>
       </c>
       <c r="N16"/>
     </row>
     <row r="17" ht="75" customHeight="1" spans="1:14">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="28" t="str">
+      <c r="B17" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_8F384D93F8A041A7BCCE76056201BF0F",1)</f>
         <v>=DISPIMG("ID_8F384D93F8A041A7BCCE76056201BF0F",1)</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="23"/>
       <c r="N17"/>
     </row>
     <row r="18" ht="75" customHeight="1" spans="1:14">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="28" t="str">
+      <c r="B18" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_096FB0EDD1054600AEE93DB32445E432",1)</f>
         <v>=DISPIMG("ID_096FB0EDD1054600AEE93DB32445E432",1)</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="23"/>
       <c r="N18"/>
     </row>
     <row r="19" ht="75" customHeight="1" spans="1:14">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="28" t="str">
+      <c r="B19" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_FD9E219F3F5B421E997BB811EC08D139",1)</f>
         <v>=DISPIMG("ID_FD9E219F3F5B421E997BB811EC08D139",1)</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="24" t="s">
         <v>92</v>
       </c>
       <c r="N19"/>
     </row>
     <row r="20" ht="75" customHeight="1" spans="1:14">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="28" t="str">
+      <c r="B20" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_8A4C0CA2B27A4C878CAEF5F7F6D84956",1)</f>
         <v>=DISPIMG("ID_8A4C0CA2B27A4C878CAEF5F7F6D84956",1)</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="24" t="s">
         <v>96</v>
       </c>
       <c r="N20"/>
     </row>
     <row r="21" ht="75" customHeight="1" spans="1:14">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="28" t="str">
+      <c r="B21" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_F8B9634EB73D4F649475A0DA1DCAE550",1)</f>
         <v>=DISPIMG("ID_F8B9634EB73D4F649475A0DA1DCAE550",1)</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
       <c r="N21"/>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:14">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="28" t="str">
+      <c r="B22" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_53946E75DFA2463A9C5A11C27661E786",1)</f>
         <v>=DISPIMG("ID_53946E75DFA2463A9C5A11C27661E786",1)</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="24" t="s">
         <v>103</v>
       </c>
       <c r="N22"/>
     </row>
     <row r="23" ht="75" customHeight="1" spans="1:14">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="28" t="str">
+      <c r="B23" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A9D352B95303458B89C1717F79CDE735",1)</f>
         <v>=DISPIMG("ID_A9D352B95303458B89C1717F79CDE735",1)</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="24" t="s">
         <v>110</v>
       </c>
       <c r="N23"/>
     </row>
     <row r="24" ht="75" customHeight="1" spans="1:14">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="28" t="str">
+      <c r="B24" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_E06E036609E94BB9929FE03D33A7B60B",1)</f>
         <v>=DISPIMG("ID_E06E036609E94BB9929FE03D33A7B60B",1)</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="24" t="s">
         <v>109</v>
       </c>
       <c r="N24"/>
     </row>
     <row r="25" ht="75" customHeight="1" spans="1:14">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="28" t="str">
+      <c r="B25" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_904652B47CF844A8B4968D95A64E3891",1)</f>
         <v>=DISPIMG("ID_904652B47CF844A8B4968D95A64E3891",1)</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="24" t="s">
         <v>117</v>
       </c>
       <c r="N25"/>
     </row>
     <row r="26" ht="75" customHeight="1" spans="1:14">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="28" t="str">
+      <c r="B26" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_C711069D368A4C1E9B8B5E98151EADAC",1)</f>
         <v>=DISPIMG("ID_C711069D368A4C1E9B8B5E98151EADAC",1)</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="24" t="s">
         <v>121</v>
       </c>
       <c r="N26"/>
     </row>
     <row r="27" ht="75" customHeight="1" spans="1:14">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="28" t="str">
+      <c r="B27" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_6C082183216B495085F7DBF1E3D99F5E",1)</f>
         <v>=DISPIMG("ID_6C082183216B495085F7DBF1E3D99F5E",1)</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
       <c r="N27"/>
     </row>
     <row r="28" ht="75" customHeight="1" spans="1:14">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="28" t="str">
+      <c r="B28" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_628E96F4BF42434FA277775E1DE2AA20",1)</f>
         <v>=DISPIMG("ID_628E96F4BF42434FA277775E1DE2AA20",1)</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="23"/>
       <c r="N28"/>
     </row>
     <row r="29" ht="75" customHeight="1" spans="1:14">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="28" t="str">
+      <c r="B29" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_B9BED2D4AE354012A6BAB6A7E0FF5802",1)</f>
         <v>=DISPIMG("ID_B9BED2D4AE354012A6BAB6A7E0FF5802",1)</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="23"/>
       <c r="N29"/>
     </row>
     <row r="30" ht="75" customHeight="1" spans="1:14">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="30" t="str">
+      <c r="B30" s="31" t="str">
         <f>_xlfn.DISPIMG("ID_7A9E03A399CC4F74B895A88C9005BB92",1)</f>
         <v>=DISPIMG("ID_7A9E03A399CC4F74B895A88C9005BB92",1)</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="32" t="s">
         <v>55</v>
       </c>
       <c r="N30"/>
     </row>
     <row r="31" ht="75" customHeight="1" spans="1:14">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="28" t="str">
+      <c r="B31" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_65FDB7CD50CF472E9EE58BDBA9A1B3FA",1)</f>
         <v>=DISPIMG("ID_65FDB7CD50CF472E9EE58BDBA9A1B3FA",1)</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="23"/>
       <c r="N31"/>
     </row>
     <row r="32" ht="75" customHeight="1" spans="2:14">
-      <c r="B32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="N32"/>
     </row>
     <row r="33" ht="75" customHeight="1" spans="1:14">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="28" t="str">
+      <c r="B33" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_AFFBB67C163A41AA92F2B00342A712D5",1)</f>
         <v>=DISPIMG("ID_AFFBB67C163A41AA92F2B00342A712D5",1)</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="24" t="s">
         <v>136</v>
       </c>
       <c r="N33"/>
     </row>
     <row r="34" ht="75" customHeight="1" spans="1:14">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="28" t="str">
+      <c r="B34" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A2CCFFC477CB41C68B5C4B028618A131",1)</f>
         <v>=DISPIMG("ID_A2CCFFC477CB41C68B5C4B028618A131",1)</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="24" t="s">
         <v>139</v>
       </c>
       <c r="N34"/>
     </row>
     <row r="35" ht="75" customHeight="1" spans="1:14">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="28" t="str">
+      <c r="B35" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_83BCD919FA48483A8504C30F86775227",1)</f>
         <v>=DISPIMG("ID_83BCD919FA48483A8504C30F86775227",1)</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="23"/>
       <c r="N35"/>
     </row>
     <row r="36" ht="75" customHeight="1" spans="1:14">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="28" t="str">
+      <c r="B36" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_F6C581482AFC49CF88B4B51DB4C2B884",1)</f>
         <v>=DISPIMG("ID_F6C581482AFC49CF88B4B51DB4C2B884",1)</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="23"/>
       <c r="N36"/>
     </row>
     <row r="37" ht="75" customHeight="1" spans="1:14">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="28" t="str">
+      <c r="B37" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_B56FE51048C84C21B0544EC1D2B49BFB",1)</f>
         <v>=DISPIMG("ID_B56FE51048C84C21B0544EC1D2B49BFB",1)</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="24" t="s">
         <v>147</v>
       </c>
       <c r="N37"/>
     </row>
     <row r="38" ht="75" customHeight="1" spans="1:14">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="28" t="str">
+      <c r="B38" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_2BF7160B000D4507A9BC6E9CD0CFBB9A",1)</f>
         <v>=DISPIMG("ID_2BF7160B000D4507A9BC6E9CD0CFBB9A",1)</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="24" t="s">
         <v>150</v>
       </c>
       <c r="N38"/>
     </row>
     <row r="39" ht="75" customHeight="1" spans="1:14">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="28" t="str">
+      <c r="B39" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_F51C6D32B5FE4CB4BAE5E9D1DF1B99A4",1)</f>
         <v>=DISPIMG("ID_F51C6D32B5FE4CB4BAE5E9D1DF1B99A4",1)</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="24" t="s">
         <v>154</v>
       </c>
       <c r="N39"/>
     </row>
     <row r="40" ht="75" customHeight="1" spans="1:14">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="28" t="str">
+      <c r="B40" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_42E1FCCA38754E91AC4BDE1CCF581E79",1)</f>
         <v>=DISPIMG("ID_42E1FCCA38754E91AC4BDE1CCF581E79",1)</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I40" s="24" t="s">
         <v>158</v>
       </c>
       <c r="N40"/>
     </row>
     <row r="41" ht="75" customHeight="1" spans="1:14">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="28" t="str">
+      <c r="B41" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_FCC8AFB7F83C4286AEE68D9A89ABD31C",1)</f>
         <v>=DISPIMG("ID_FCC8AFB7F83C4286AEE68D9A89ABD31C",1)</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="24" t="s">
         <v>161</v>
       </c>
       <c r="N41"/>
     </row>
     <row r="42" ht="75" customHeight="1" spans="1:14">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="F42" s="23" t="s">
+      <c r="B42" s="29" t="str">
+        <f>_xlfn.DISPIMG("ID_28ECA6BF9B5F4B8AB2A28048D7A7B8D6",1)</f>
+        <v>=DISPIMG("ID_28ECA6BF9B5F4B8AB2A28048D7A7B8D6",1)</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="24" t="s">
         <v>164</v>
       </c>
       <c r="N42"/>
     </row>
     <row r="43" ht="75" customHeight="1" spans="1:14">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="28" t="str">
+      <c r="B43" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_4F83562294774CE1B91320A1884FEEA6",1)</f>
         <v>=DISPIMG("ID_4F83562294774CE1B91320A1884FEEA6",1)</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="24" t="s">
         <v>164</v>
       </c>
       <c r="N43"/>
     </row>
     <row r="44" ht="75" customHeight="1" spans="1:14">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="28" t="str">
+      <c r="B44" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_50AEDFD4C9CB4FD09CD7DBAA4E44C1E5",1)</f>
         <v>=DISPIMG("ID_50AEDFD4C9CB4FD09CD7DBAA4E44C1E5",1)</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="24" t="s">
         <v>169</v>
       </c>
       <c r="N44"/>
     </row>
     <row r="45" ht="75" customHeight="1" spans="1:14">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="F45" s="23" t="s">
+      <c r="B45" s="29" t="str">
+        <f>_xlfn.DISPIMG("ID_7FEFC25B5DDF45199372FEC1ECD4F0DB",1)</f>
+        <v>=DISPIMG("ID_7FEFC25B5DDF45199372FEC1ECD4F0DB",1)</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="I45" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="J45" s="24" t="s">
         <v>173</v>
       </c>
       <c r="N45"/>
     </row>
     <row r="46" ht="75" customHeight="1" spans="1:14">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="F46" s="23" t="s">
+      <c r="B46" s="29" t="str">
+        <f>_xlfn.DISPIMG("ID_563C63C9B19047BAA87384017A514719",1)</f>
+        <v>=DISPIMG("ID_563C63C9B19047BAA87384017A514719",1)</v>
+      </c>
+      <c r="F46" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="24" t="s">
         <v>177</v>
       </c>
       <c r="N46"/>
     </row>
     <row r="47" ht="75" customHeight="1" spans="2:14">
-      <c r="B47" s="28"/>
+      <c r="B47" s="29"/>
       <c r="N47"/>
     </row>
     <row r="48" ht="75.75" spans="1:14">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="34"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="35"/>
       <c r="N48"/>
     </row>
     <row r="49" ht="56.25" spans="1:14">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="24" t="s">
         <v>185</v>
       </c>
       <c r="N49"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="24" t="s">
         <v>188</v>
       </c>
       <c r="N50"/>
     </row>
     <row r="51" ht="37.5" spans="1:14">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="H51" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="I51" s="23" t="s">
+      <c r="I51" s="24" t="s">
         <v>194</v>
       </c>
       <c r="N51"/>
     </row>
     <row r="52" ht="56.25" spans="1:14">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="24" t="s">
         <v>197</v>
       </c>
       <c r="N52"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="24" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="54" ht="56.25" spans="1:6">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="24" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="55" ht="56.25" spans="1:8">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="H55" s="24" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="56" ht="37.5" spans="1:8">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="57" ht="37.5" spans="1:8">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="G57" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="H57" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="58" ht="37.5" spans="1:7">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="24" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="59" ht="56.25" spans="1:8">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H59" s="24" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="60" ht="37.5" spans="1:13">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K60" s="33" t="s">
+      <c r="K60" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L60" s="35" t="s">
+      <c r="L60" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="M60" s="36" t="s">
+      <c r="M60" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" ht="56.25" spans="1:13">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="K61" s="37">
+      <c r="K61" s="38">
         <v>1</v>
       </c>
-      <c r="L61" s="38">
+      <c r="L61" s="39">
         <v>15</v>
       </c>
-      <c r="M61" s="22" t="s">
+      <c r="M61" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62" ht="37.5" spans="1:13">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H62" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="K62" s="37">
+      <c r="K62" s="38">
         <v>2</v>
       </c>
-      <c r="L62" s="39">
+      <c r="L62" s="40">
         <v>21</v>
       </c>
-      <c r="M62" s="22" t="s">
+      <c r="M62" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" ht="37.5" spans="1:13">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="K63" s="37">
+      <c r="K63" s="38">
         <v>3</v>
       </c>
-      <c r="L63" s="39">
+      <c r="L63" s="40">
         <v>27</v>
       </c>
-      <c r="M63" s="22" t="s">
+      <c r="M63" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" ht="56.25" spans="1:13">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="K64" s="37">
+      <c r="K64" s="38">
         <v>4</v>
       </c>
-      <c r="L64" s="39">
+      <c r="L64" s="40">
         <v>33</v>
       </c>
-      <c r="M64" s="22" t="s">
+      <c r="M64" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" ht="37.5" spans="1:13">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="F65" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="G65" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="H65" s="23" t="s">
+      <c r="H65" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="K65" s="37">
+      <c r="K65" s="38">
         <v>5</v>
       </c>
-      <c r="L65" s="39">
+      <c r="L65" s="40">
         <v>39</v>
       </c>
-      <c r="M65" s="22" t="s">
+      <c r="M65" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" ht="37.5" spans="1:13">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="F66" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="K66" s="37">
+      <c r="K66" s="38">
         <v>6</v>
       </c>
-      <c r="L66" s="39">
+      <c r="L66" s="40">
         <v>45</v>
       </c>
-      <c r="M66" s="22" t="s">
+      <c r="M66" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" ht="37.5" spans="1:13">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="K67" s="37">
+      <c r="B67" s="24"/>
+      <c r="K67" s="38">
         <v>7</v>
       </c>
-      <c r="L67" s="39">
+      <c r="L67" s="40">
         <v>51</v>
       </c>
-      <c r="M67" s="22" t="s">
+      <c r="M67" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="K68" s="37">
+      <c r="K68" s="38">
         <v>8</v>
       </c>
-      <c r="L68" s="39">
+      <c r="L68" s="40">
         <v>57</v>
       </c>
-      <c r="M68" s="22" t="s">
+      <c r="M68" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="K69" s="37">
+      <c r="K69" s="38">
         <v>9</v>
       </c>
-      <c r="L69" s="39">
+      <c r="L69" s="40">
         <v>63</v>
       </c>
-      <c r="M69" s="22" t="s">
+      <c r="M69" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="K70" s="40">
+      <c r="K70" s="41">
         <v>10</v>
       </c>
-      <c r="L70" s="41">
+      <c r="L70" s="42">
         <v>69</v>
       </c>
-      <c r="M70" s="42" t="s">
+      <c r="M70" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="24" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7272,7 +7882,7 @@
         <f>_xlfn.DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</f>
         <v>=DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>258</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -7291,7 +7901,7 @@
         <f>_xlfn.DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</f>
         <v>=DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>261</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -7301,7 +7911,7 @@
         <f>_xlfn.DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</f>
         <v>=DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="22" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7313,7 +7923,7 @@
         <f>_xlfn.DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</f>
         <v>=DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>265</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -7332,7 +7942,7 @@
         <f>_xlfn.DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</f>
         <v>=DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>268</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -7342,7 +7952,7 @@
         <f>_xlfn.DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</f>
         <v>=DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7354,7 +7964,7 @@
         <f>_xlfn.DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</f>
         <v>=DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>272</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -7369,7 +7979,7 @@
       <c r="B9" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>275</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -7397,7 +8007,7 @@
         <f>_xlfn.DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</f>
         <v>=DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="22" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7410,813 +8020,1052 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B9:K57"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="13"/>
-    <col min="2" max="2" width="18.1428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.8571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.4" style="13" customWidth="1"/>
-    <col min="8" max="8" width="18.6285714285714" style="13" customWidth="1"/>
-    <col min="9" max="9" width="9.14285714285714" style="13"/>
-    <col min="10" max="10" width="18.8571428571429" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.8571428571429" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.14285714285714" style="13"/>
+    <col min="1" max="1" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.8761904761905" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.4" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.6285714285714" style="13" customWidth="1"/>
+    <col min="8" max="8" width="9.14285714285714" style="13"/>
+    <col min="9" max="9" width="18.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.8571428571429" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:11">
-      <c r="B9" s="14" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="B1" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="10" ht="44" customHeight="1" spans="3:11">
-      <c r="C10" s="1" t="s">
+    <row r="2" ht="44" customHeight="1" spans="2:10">
+      <c r="B2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="C2" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</f>
         <v>=DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F10" s="1">
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="45" customHeight="1" spans="2:11">
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="3" ht="45" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="C3" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</f>
         <v>=DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" ht="56.25" spans="2:11">
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="4" ht="29.25" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="C4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</f>
         <v>=DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F12" s="1">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K12" s="1">
+      <c r="J4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="117" customHeight="1" spans="2:11">
+    <row r="5" ht="117" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_435D6C639B07467EA8A5C2BDBADEB9EF",1)</f>
+        <v>=DISPIMG("ID_435D6C639B07467EA8A5C2BDBADEB9EF",1)</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="117" customHeight="1" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_F93D45808FD1497AA14207AA5687A0B5",1)</f>
+        <v>=DISPIMG("ID_F93D45808FD1497AA14207AA5687A0B5",1)</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="61" customHeight="1" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_BD2F4EFF81EA407EB07B30FC9A025ED8",1)</f>
+        <v>=DISPIMG("ID_BD2F4EFF81EA407EB07B30FC9A025ED8",1)</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" ht="56" customHeight="1" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_6F93A133E4B345C3A8C8AB0E41048D37",1)</f>
+        <v>=DISPIMG("ID_6F93A133E4B345C3A8C8AB0E41048D37",1)</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" ht="67" customHeight="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_9DE1483F06B1441B9301F11BB84D2728",1)</f>
+        <v>=DISPIMG("ID_9DE1483F06B1441B9301F11BB84D2728",1)</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" ht="97" customHeight="1" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_E2D7BCC771AE4C57B67785698BAAC802",1)</f>
+        <v>=DISPIMG("ID_E2D7BCC771AE4C57B67785698BAAC802",1)</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" ht="80" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_068CF9D1A64D4B1AA847F491190CA498",1)</f>
+        <v>=DISPIMG("ID_068CF9D1A64D4B1AA847F491190CA498",1)</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" ht="67" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_B819211F6D714CDEBBF38A9148AFAAC7",1)</f>
+        <v>=DISPIMG("ID_B819211F6D714CDEBBF38A9148AFAAC7",1)</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" ht="69" customHeight="1" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="B13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_0D3B38AE54A44B3E8DF025084DB6651B",1)</f>
+        <v>=DISPIMG("ID_0D3B38AE54A44B3E8DF025084DB6651B",1)</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" ht="71" customHeight="1" spans="1:10">
+      <c r="A14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D13" s="1" t="str">
+      <c r="B14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</f>
         <v>=DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="D14" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="112.5" spans="2:11">
-      <c r="B14" s="1" t="s">
+    <row r="15" ht="93.75" spans="1:10">
+      <c r="A15" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D14" s="1" t="str">
+      <c r="B15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</f>
         <v>=DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="D15" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="I15" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J15" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="117" customHeight="1" spans="2:6">
-      <c r="B15" s="1" t="s">
+    <row r="16" ht="117" customHeight="1" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" ht="37.5" spans="2:6">
       <c r="B16" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_F1C740FD556749E1A3007CADB7F7B5AD",1)</f>
+        <v>=DISPIMG("ID_F1C740FD556749E1A3007CADB7F7B5AD",1)</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" ht="53" customHeight="1" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" s="1" t="str">
+      <c r="B17" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_7295A5EE838846E9918EEC2351B4AADE",1)</f>
+        <v>=DISPIMG("ID_7295A5EE838846E9918EEC2351B4AADE",1)</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" ht="70" customHeight="1" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_475395F073B348EBAD90A05DB4F70535",1)</f>
+        <v>=DISPIMG("ID_475395F073B348EBAD90A05DB4F70535",1)</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" ht="37.5" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</f>
         <v>=DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" ht="37.5" spans="2:6">
-      <c r="B17" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D17" s="1" t="str">
+      <c r="D19" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" ht="37.5" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</f>
         <v>=DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="75" spans="2:6">
-      <c r="B18" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D18" s="1" t="str">
+      <c r="D20" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" ht="75" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</f>
         <v>=DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="D21" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" ht="37.5" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</f>
+        <v>=DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="93.75" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</f>
+        <v>=DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="29.25" spans="2:6">
-      <c r="B19" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D19" s="1" t="str">
+    <row r="24" ht="56.25" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</f>
+        <v>=DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" ht="75" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</f>
+        <v>=DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" ht="86" customHeight="1" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_FB929A3456EC484B83246B63E363119F",1)</f>
+        <v>=DISPIMG("ID_FB929A3456EC484B83246B63E363119F",1)</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" ht="74" customHeight="1" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_CDF4F9B6AAE7428396B6B6CB350938A4",1)</f>
+        <v>=DISPIMG("ID_CDF4F9B6AAE7428396B6B6CB350938A4",1)</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" ht="98" customHeight="1" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_9E20CD0B9D3344AFA01653BE39E9CAED",1)</f>
+        <v>=DISPIMG("ID_9E20CD0B9D3344AFA01653BE39E9CAED",1)</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="29.25" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</f>
         <v>=DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</v>
       </c>
-      <c r="E19" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" ht="37.5" spans="2:6">
-      <c r="B20" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f>_xlfn.DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</f>
-        <v>=DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" ht="93.75" spans="2:6">
-      <c r="B21" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f>_xlfn.DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</f>
-        <v>=DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" ht="56.25" spans="2:9">
-      <c r="B22" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f>_xlfn.DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</f>
-        <v>=DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" ht="93.75" spans="2:9">
-      <c r="B23" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f>_xlfn.DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</f>
-        <v>=DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" ht="93.75" spans="2:9">
-      <c r="B24" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D29" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" ht="56.25" spans="2:6">
-      <c r="B25" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="D25" s="1" t="str">
+    </row>
+    <row r="30" ht="44" customHeight="1" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_B70ADECACB0640B388DDE4A570E8A4A0",1)</f>
+        <v>=DISPIMG("ID_B70ADECACB0640B388DDE4A570E8A4A0",1)</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" ht="93.75" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_F991DDDB9E524EFEA1B831F26AB76DE9",1)</f>
+        <v>=DISPIMG("ID_F991DDDB9E524EFEA1B831F26AB76DE9",1)</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" ht="37.5" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</f>
         <v>=DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" ht="37.5" spans="2:6">
-      <c r="B27" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="D32" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" ht="39" customHeight="1" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" ht="37.5" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="56.25" spans="2:6">
-      <c r="B28" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F28" s="1">
+    <row r="35" ht="56.25" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="37.5" spans="2:6">
-      <c r="B29" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F29" s="1">
+    <row r="36" ht="37.5" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E36" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="30" ht="75" spans="2:6">
-      <c r="B30" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F30" s="1">
+    <row r="37" ht="56.25" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="31" ht="93.75" spans="2:6">
-      <c r="B31" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F31" s="1">
+    <row r="38" ht="75" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F32" s="1">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="33" ht="56.25" spans="2:6">
-      <c r="B33" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F33" s="1">
+    <row r="40" ht="56.25" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E40" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="34" ht="37.5" spans="2:6">
-      <c r="B34" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F34" s="1">
+    <row r="41" ht="37.5" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E41" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="35" ht="56.25" spans="2:6">
-      <c r="B35" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F35" s="1">
+    <row r="42" ht="56.25" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E42" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="36" ht="93.75" spans="2:5">
-      <c r="B36" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    <row r="43" ht="75" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F38" s="1">
+      <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="37.5" spans="2:6">
-      <c r="B39" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F39" s="1">
+    <row r="46" ht="37.5" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E46" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="40" ht="37.5" spans="2:6">
-      <c r="B40" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F40" s="1">
+    <row r="47" ht="37.5" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E47" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="41" ht="93.75" spans="2:6">
-      <c r="B41" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E41" s="3" t="s">
+    <row r="48" ht="75" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" ht="93.75" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" ht="75" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54" ht="56.25" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" ht="56.25" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" ht="37.5" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" ht="75" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" ht="56.25" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" ht="56.25" spans="1:5">
+      <c r="A59" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" ht="56.25" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E60" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" ht="37.5" spans="1:5">
+      <c r="A61" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" ht="93.75" spans="2:6">
-      <c r="B42" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F42" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" ht="75" spans="2:6">
-      <c r="B44" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F44" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="47" ht="56.25" spans="2:6">
-      <c r="B47" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F47" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" ht="56.25" spans="2:6">
-      <c r="B48" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F48" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" ht="37.5" spans="2:6">
-      <c r="B49" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F49" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" ht="75" spans="2:6">
-      <c r="B50" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F50" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" ht="56.25" spans="2:6">
-      <c r="B51" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F51" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" ht="56.25" spans="2:6">
-      <c r="B52" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F52" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" ht="56.25" spans="2:6">
-      <c r="B53" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F53" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" ht="37.5" spans="2:6">
-      <c r="B54" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" ht="75" spans="2:6">
-      <c r="B55" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" ht="39" customHeight="1" spans="2:7">
-      <c r="B56" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="57" ht="112.5" spans="2:5">
-      <c r="B57" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>389</v>
+      <c r="B61" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" ht="56.25" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" ht="56.25" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -8251,7 +9100,7 @@
   <sheetData>
     <row r="2" ht="30" customHeight="1" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -8260,73 +9109,73 @@
     </row>
     <row r="3" ht="38.25" spans="2:4">
       <c r="B3" s="7" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" ht="57" spans="2:6">
       <c r="B4" s="8" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" ht="84" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" ht="19.5" spans="2:10">
       <c r="B8" s="9" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -8339,28 +9188,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="2:7">
@@ -8368,19 +9217,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -8416,10 +9265,10 @@
         <v>289</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="13095" activeTab="3"/>
+    <workbookView windowWidth="23295" windowHeight="13095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -2270,7 +2270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="456">
   <si>
     <t>Player Level</t>
   </si>
@@ -2401,6 +2401,9 @@
 ground there</t>
   </si>
   <si>
+    <t>50% chance to hit a player</t>
+  </si>
+  <si>
     <t>Killable in 1 + 2 shot</t>
   </si>
   <si>
@@ -2447,6 +2450,9 @@
   </si>
   <si>
     <t>Goes dormant if stuck</t>
+  </si>
+  <si>
+    <t>On death, infects all nearby units</t>
   </si>
   <si>
     <t>Evil Paprika</t>
@@ -4000,10 +4006,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -4104,18 +4110,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4126,9 +4133,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4145,20 +4151,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4187,6 +4179,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -4197,14 +4197,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4227,15 +4234,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4257,7 +4263,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4269,31 +4287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4305,19 +4305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4329,25 +4323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4365,13 +4341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4383,7 +4353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4401,31 +4383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4438,6 +4402,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4755,6 +4761,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4766,15 +4781,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4805,9 +4811,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4844,11 +4852,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4857,148 +4863,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6268,10 +6274,10 @@
   <sheetPr/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -6407,14 +6413,17 @@
       <c r="F5" s="24" t="s">
         <v>41</v>
       </c>
+      <c r="G5" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="I5" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5"/>
     </row>
     <row r="6" ht="58" customHeight="1" spans="1:14">
       <c r="A6" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_5DCB40CCA6B44244B7519B2BA06EDF1C",1)</f>
@@ -6427,16 +6436,16 @@
         <v>32</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6"/>
     </row>
     <row r="7" ht="68" customHeight="1" spans="1:14">
       <c r="A7" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_48D844B5BD4E47F1A264B90859DAC1E8",1)</f>
@@ -6446,25 +6455,25 @@
         <v>32</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N7"/>
     </row>
     <row r="8" ht="71" customHeight="1" spans="1:14">
       <c r="A8" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="31" t="str">
         <f>_xlfn.DISPIMG("ID_9997CD209D774EEAB420C53DDEA056A0",1)</f>
@@ -6474,22 +6483,22 @@
         <v>32</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8"/>
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:14">
       <c r="A9" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</f>
@@ -6505,530 +6514,533 @@
         <v>29</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="24"/>
       <c r="N9"/>
     </row>
     <row r="10" ht="71" customHeight="1" spans="1:14">
       <c r="A10" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</f>
         <v>=DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N10"/>
     </row>
     <row r="11" ht="85" customHeight="1" spans="1:6">
       <c r="A11" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_163A9240D4EF485292D7AE5FEFA9852F",1)</f>
         <v>=DISPIMG("ID_163A9240D4EF485292D7AE5FEFA9852F",1)</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:14">
       <c r="A12" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_7ED09DD668894ABE8A725CF2D4D0029F",1)</f>
         <v>=DISPIMG("ID_7ED09DD668894ABE8A725CF2D4D0029F",1)</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N12"/>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:14">
       <c r="A13" s="23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_D36F8EAEDC3D4A2D9DDF24AE96ABB005",1)</f>
         <v>=DISPIMG("ID_D36F8EAEDC3D4A2D9DDF24AE96ABB005",1)</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N13"/>
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:14">
       <c r="A14" s="23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A046AFD9A3BF492EADA57F8350871DB2",1)</f>
         <v>=DISPIMG("ID_A046AFD9A3BF492EADA57F8350871DB2",1)</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N14"/>
     </row>
     <row r="15" ht="75" customHeight="1" spans="1:14">
       <c r="A15" s="23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_2AC053A6DE184E4097DCE1BD0082E519",1)</f>
         <v>=DISPIMG("ID_2AC053A6DE184E4097DCE1BD0082E519",1)</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N15"/>
     </row>
     <row r="16" ht="75" customHeight="1" spans="1:14">
       <c r="A16" s="23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_D72C5AF664FF4D6C8BB8BF8BE922256D",1)</f>
         <v>=DISPIMG("ID_D72C5AF664FF4D6C8BB8BF8BE922256D",1)</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N16"/>
     </row>
     <row r="17" ht="75" customHeight="1" spans="1:14">
       <c r="A17" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B17" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_8F384D93F8A041A7BCCE76056201BF0F",1)</f>
         <v>=DISPIMG("ID_8F384D93F8A041A7BCCE76056201BF0F",1)</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N17"/>
     </row>
     <row r="18" ht="75" customHeight="1" spans="1:14">
       <c r="A18" s="23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_096FB0EDD1054600AEE93DB32445E432",1)</f>
         <v>=DISPIMG("ID_096FB0EDD1054600AEE93DB32445E432",1)</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N18"/>
     </row>
     <row r="19" ht="75" customHeight="1" spans="1:14">
       <c r="A19" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_FD9E219F3F5B421E997BB811EC08D139",1)</f>
         <v>=DISPIMG("ID_FD9E219F3F5B421E997BB811EC08D139",1)</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N19"/>
     </row>
     <row r="20" ht="75" customHeight="1" spans="1:14">
       <c r="A20" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_8A4C0CA2B27A4C878CAEF5F7F6D84956",1)</f>
         <v>=DISPIMG("ID_8A4C0CA2B27A4C878CAEF5F7F6D84956",1)</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N20"/>
     </row>
     <row r="21" ht="75" customHeight="1" spans="1:14">
       <c r="A21" s="23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B21" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_F8B9634EB73D4F649475A0DA1DCAE550",1)</f>
         <v>=DISPIMG("ID_F8B9634EB73D4F649475A0DA1DCAE550",1)</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N21"/>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:14">
       <c r="A22" s="23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_53946E75DFA2463A9C5A11C27661E786",1)</f>
         <v>=DISPIMG("ID_53946E75DFA2463A9C5A11C27661E786",1)</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N22"/>
     </row>
     <row r="23" ht="75" customHeight="1" spans="1:14">
       <c r="A23" s="23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B23" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A9D352B95303458B89C1717F79CDE735",1)</f>
         <v>=DISPIMG("ID_A9D352B95303458B89C1717F79CDE735",1)</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N23"/>
     </row>
     <row r="24" ht="75" customHeight="1" spans="1:14">
       <c r="A24" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B24" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_E06E036609E94BB9929FE03D33A7B60B",1)</f>
         <v>=DISPIMG("ID_E06E036609E94BB9929FE03D33A7B60B",1)</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N24"/>
     </row>
     <row r="25" ht="75" customHeight="1" spans="1:14">
       <c r="A25" s="23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B25" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_904652B47CF844A8B4968D95A64E3891",1)</f>
         <v>=DISPIMG("ID_904652B47CF844A8B4968D95A64E3891",1)</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N25"/>
     </row>
     <row r="26" ht="75" customHeight="1" spans="1:14">
       <c r="A26" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B26" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_C711069D368A4C1E9B8B5E98151EADAC",1)</f>
         <v>=DISPIMG("ID_C711069D368A4C1E9B8B5E98151EADAC",1)</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N26"/>
     </row>
     <row r="27" ht="75" customHeight="1" spans="1:14">
       <c r="A27" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B27" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_6C082183216B495085F7DBF1E3D99F5E",1)</f>
         <v>=DISPIMG("ID_6C082183216B495085F7DBF1E3D99F5E",1)</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N27"/>
     </row>
     <row r="28" ht="75" customHeight="1" spans="1:14">
       <c r="A28" s="23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B28" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_628E96F4BF42434FA277775E1DE2AA20",1)</f>
         <v>=DISPIMG("ID_628E96F4BF42434FA277775E1DE2AA20",1)</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N28"/>
     </row>
     <row r="29" ht="75" customHeight="1" spans="1:14">
       <c r="A29" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B29" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_B9BED2D4AE354012A6BAB6A7E0FF5802",1)</f>
         <v>=DISPIMG("ID_B9BED2D4AE354012A6BAB6A7E0FF5802",1)</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N29"/>
     </row>
     <row r="30" ht="75" customHeight="1" spans="1:14">
       <c r="A30" s="30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B30" s="31" t="str">
         <f>_xlfn.DISPIMG("ID_7A9E03A399CC4F74B895A88C9005BB92",1)</f>
         <v>=DISPIMG("ID_7A9E03A399CC4F74B895A88C9005BB92",1)</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N30"/>
     </row>
     <row r="31" ht="75" customHeight="1" spans="1:14">
       <c r="A31" s="23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B31" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_65FDB7CD50CF472E9EE58BDBA9A1B3FA",1)</f>
         <v>=DISPIMG("ID_65FDB7CD50CF472E9EE58BDBA9A1B3FA",1)</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N31"/>
     </row>
@@ -7038,255 +7050,255 @@
     </row>
     <row r="33" ht="75" customHeight="1" spans="1:14">
       <c r="A33" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B33" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_AFFBB67C163A41AA92F2B00342A712D5",1)</f>
         <v>=DISPIMG("ID_AFFBB67C163A41AA92F2B00342A712D5",1)</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N33"/>
     </row>
     <row r="34" ht="75" customHeight="1" spans="1:14">
       <c r="A34" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B34" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A2CCFFC477CB41C68B5C4B028618A131",1)</f>
         <v>=DISPIMG("ID_A2CCFFC477CB41C68B5C4B028618A131",1)</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N34"/>
     </row>
     <row r="35" ht="75" customHeight="1" spans="1:14">
       <c r="A35" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B35" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_83BCD919FA48483A8504C30F86775227",1)</f>
         <v>=DISPIMG("ID_83BCD919FA48483A8504C30F86775227",1)</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N35"/>
     </row>
     <row r="36" ht="75" customHeight="1" spans="1:14">
       <c r="A36" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B36" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_F6C581482AFC49CF88B4B51DB4C2B884",1)</f>
         <v>=DISPIMG("ID_F6C581482AFC49CF88B4B51DB4C2B884",1)</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N36"/>
     </row>
     <row r="37" ht="75" customHeight="1" spans="1:14">
       <c r="A37" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B37" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_B56FE51048C84C21B0544EC1D2B49BFB",1)</f>
         <v>=DISPIMG("ID_B56FE51048C84C21B0544EC1D2B49BFB",1)</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N37"/>
     </row>
     <row r="38" ht="75" customHeight="1" spans="1:14">
       <c r="A38" s="23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B38" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_2BF7160B000D4507A9BC6E9CD0CFBB9A",1)</f>
         <v>=DISPIMG("ID_2BF7160B000D4507A9BC6E9CD0CFBB9A",1)</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N38"/>
     </row>
     <row r="39" ht="75" customHeight="1" spans="1:14">
       <c r="A39" s="23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B39" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_F51C6D32B5FE4CB4BAE5E9D1DF1B99A4",1)</f>
         <v>=DISPIMG("ID_F51C6D32B5FE4CB4BAE5E9D1DF1B99A4",1)</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N39"/>
     </row>
     <row r="40" ht="75" customHeight="1" spans="1:14">
       <c r="A40" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B40" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_42E1FCCA38754E91AC4BDE1CCF581E79",1)</f>
         <v>=DISPIMG("ID_42E1FCCA38754E91AC4BDE1CCF581E79",1)</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N40"/>
     </row>
     <row r="41" ht="75" customHeight="1" spans="1:14">
       <c r="A41" s="23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B41" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_FCC8AFB7F83C4286AEE68D9A89ABD31C",1)</f>
         <v>=DISPIMG("ID_FCC8AFB7F83C4286AEE68D9A89ABD31C",1)</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N41"/>
     </row>
     <row r="42" ht="75" customHeight="1" spans="1:14">
       <c r="A42" s="23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B42" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_28ECA6BF9B5F4B8AB2A28048D7A7B8D6",1)</f>
         <v>=DISPIMG("ID_28ECA6BF9B5F4B8AB2A28048D7A7B8D6",1)</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N42"/>
     </row>
     <row r="43" ht="75" customHeight="1" spans="1:14">
       <c r="A43" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B43" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_4F83562294774CE1B91320A1884FEEA6",1)</f>
         <v>=DISPIMG("ID_4F83562294774CE1B91320A1884FEEA6",1)</v>
       </c>
       <c r="F43" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="24" t="s">
         <v>166</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="N43"/>
     </row>
     <row r="44" ht="75" customHeight="1" spans="1:14">
       <c r="A44" s="23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B44" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_50AEDFD4C9CB4FD09CD7DBAA4E44C1E5",1)</f>
         <v>=DISPIMG("ID_50AEDFD4C9CB4FD09CD7DBAA4E44C1E5",1)</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N44"/>
     </row>
     <row r="45" ht="75" customHeight="1" spans="1:14">
       <c r="A45" s="23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B45" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_7FEFC25B5DDF45199372FEC1ECD4F0DB",1)</f>
         <v>=DISPIMG("ID_7FEFC25B5DDF45199372FEC1ECD4F0DB",1)</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N45"/>
     </row>
     <row r="46" ht="75" customHeight="1" spans="1:14">
       <c r="A46" s="23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B46" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_563C63C9B19047BAA87384017A514719",1)</f>
         <v>=DISPIMG("ID_563C63C9B19047BAA87384017A514719",1)</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N46"/>
     </row>
@@ -7296,22 +7308,22 @@
     </row>
     <row r="48" ht="75.75" spans="1:14">
       <c r="A48" s="23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H48" s="33"/>
       <c r="I48" s="35"/>
@@ -7319,258 +7331,258 @@
     </row>
     <row r="49" ht="56.25" spans="1:14">
       <c r="A49" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N49"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N50"/>
     </row>
     <row r="51" ht="37.5" spans="1:14">
       <c r="A51" s="23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N51"/>
     </row>
     <row r="52" ht="56.25" spans="1:14">
       <c r="A52" s="23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N52"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" ht="56.25" spans="1:6">
       <c r="A54" s="23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" ht="56.25" spans="1:8">
       <c r="A55" s="23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" ht="37.5" spans="1:8">
       <c r="A56" s="23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" ht="37.5" spans="1:8">
       <c r="A57" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" ht="37.5" spans="1:7">
       <c r="A58" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" ht="56.25" spans="1:8">
       <c r="A59" s="23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" ht="37.5" spans="1:13">
       <c r="A60" s="23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60" s="34" t="s">
         <v>7</v>
@@ -7584,22 +7596,22 @@
     </row>
     <row r="61" ht="56.25" spans="1:13">
       <c r="A61" s="23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K61" s="38">
         <v>1</v>
@@ -7613,25 +7625,25 @@
     </row>
     <row r="62" ht="37.5" spans="1:13">
       <c r="A62" s="23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K62" s="38">
         <v>2</v>
@@ -7645,19 +7657,19 @@
     </row>
     <row r="63" ht="37.5" spans="1:13">
       <c r="A63" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K63" s="38">
         <v>3</v>
@@ -7671,19 +7683,19 @@
     </row>
     <row r="64" ht="56.25" spans="1:13">
       <c r="A64" s="23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K64" s="38">
         <v>4</v>
@@ -7697,25 +7709,25 @@
     </row>
     <row r="65" ht="37.5" spans="1:13">
       <c r="A65" s="23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K65" s="38">
         <v>5</v>
@@ -7729,19 +7741,19 @@
     </row>
     <row r="66" ht="37.5" spans="1:13">
       <c r="A66" s="23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K66" s="38">
         <v>6</v>
@@ -7755,7 +7767,7 @@
     </row>
     <row r="67" ht="37.5" spans="1:13">
       <c r="A67" s="24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B67" s="24"/>
       <c r="K67" s="38">
@@ -7770,7 +7782,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K68" s="38">
         <v>8</v>
@@ -7784,10 +7796,10 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K69" s="38">
         <v>9</v>
@@ -7801,10 +7813,10 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K70" s="41">
         <v>10</v>
@@ -7818,10 +7830,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -7856,37 +7868,37 @@
   <sheetData>
     <row r="3" spans="2:8">
       <c r="B3" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" ht="65.55" customHeight="1" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</f>
         <v>=DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</f>
@@ -7895,39 +7907,39 @@
     </row>
     <row r="5" ht="44" customHeight="1" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</f>
         <v>=DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</f>
         <v>=DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" ht="47" customHeight="1" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</f>
         <v>=DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</f>
@@ -7936,39 +7948,39 @@
     </row>
     <row r="7" ht="64" customHeight="1" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</f>
         <v>=DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</f>
         <v>=DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</f>
         <v>=DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</f>
@@ -7977,13 +7989,13 @@
     </row>
     <row r="9" ht="62" customHeight="1" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</f>
@@ -7992,7 +8004,7 @@
     </row>
     <row r="10" ht="33" customHeight="1" spans="6:7">
       <c r="F10" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</f>
@@ -8001,14 +8013,14 @@
     </row>
     <row r="11" ht="50" customHeight="1" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</f>
         <v>=DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -8022,7 +8034,7 @@
   <sheetPr/>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A18" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -8043,46 +8055,46 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" ht="44" customHeight="1" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</f>
         <v>=DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -8090,23 +8102,23 @@
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</f>
         <v>=DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -8114,23 +8126,23 @@
     </row>
     <row r="4" ht="29.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</f>
         <v>=DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -8138,17 +8150,17 @@
     </row>
     <row r="5" ht="117" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_435D6C639B07467EA8A5C2BDBADEB9EF",1)</f>
         <v>=DISPIMG("ID_435D6C639B07467EA8A5C2BDBADEB9EF",1)</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -8156,17 +8168,17 @@
     </row>
     <row r="6" ht="117" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F93D45808FD1497AA14207AA5687A0B5",1)</f>
         <v>=DISPIMG("ID_F93D45808FD1497AA14207AA5687A0B5",1)</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -8174,128 +8186,128 @@
     </row>
     <row r="7" ht="61" customHeight="1" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_BD2F4EFF81EA407EB07B30FC9A025ED8",1)</f>
         <v>=DISPIMG("ID_BD2F4EFF81EA407EB07B30FC9A025ED8",1)</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" ht="56" customHeight="1" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6F93A133E4B345C3A8C8AB0E41048D37",1)</f>
         <v>=DISPIMG("ID_6F93A133E4B345C3A8C8AB0E41048D37",1)</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" ht="67" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_9DE1483F06B1441B9301F11BB84D2728",1)</f>
         <v>=DISPIMG("ID_9DE1483F06B1441B9301F11BB84D2728",1)</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" ht="97" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_E2D7BCC771AE4C57B67785698BAAC802",1)</f>
         <v>=DISPIMG("ID_E2D7BCC771AE4C57B67785698BAAC802",1)</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" ht="80" customHeight="1" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_068CF9D1A64D4B1AA847F491190CA498",1)</f>
         <v>=DISPIMG("ID_068CF9D1A64D4B1AA847F491190CA498",1)</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" ht="67" customHeight="1" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B819211F6D714CDEBBF38A9148AFAAC7",1)</f>
         <v>=DISPIMG("ID_B819211F6D714CDEBBF38A9148AFAAC7",1)</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" ht="69" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_0D3B38AE54A44B3E8DF025084DB6651B",1)</f>
         <v>=DISPIMG("ID_0D3B38AE54A44B3E8DF025084DB6651B",1)</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" ht="71" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</f>
         <v>=DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E14" s="1">
         <v>6</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J14" s="1">
         <v>5</v>
@@ -8303,23 +8315,23 @@
     </row>
     <row r="15" ht="93.75" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</f>
         <v>=DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J15" s="1">
         <v>6</v>
@@ -8327,83 +8339,83 @@
     </row>
     <row r="16" ht="117" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F1C740FD556749E1A3007CADB7F7B5AD",1)</f>
         <v>=DISPIMG("ID_F1C740FD556749E1A3007CADB7F7B5AD",1)</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" ht="53" customHeight="1" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_7295A5EE838846E9918EEC2351B4AADE",1)</f>
         <v>=DISPIMG("ID_7295A5EE838846E9918EEC2351B4AADE",1)</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" ht="70" customHeight="1" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_475395F073B348EBAD90A05DB4F70535",1)</f>
         <v>=DISPIMG("ID_475395F073B348EBAD90A05DB4F70535",1)</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" ht="37.5" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</f>
         <v>=DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" ht="37.5" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</f>
         <v>=DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -8411,17 +8423,17 @@
     </row>
     <row r="21" ht="75" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</f>
         <v>=DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -8429,17 +8441,17 @@
     </row>
     <row r="22" ht="37.5" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</f>
         <v>=DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -8447,17 +8459,17 @@
     </row>
     <row r="23" ht="93.75" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</f>
         <v>=DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -8465,17 +8477,17 @@
     </row>
     <row r="24" ht="56.25" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</f>
         <v>=DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -8486,17 +8498,17 @@
     </row>
     <row r="25" ht="75" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</f>
         <v>=DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -8507,17 +8519,17 @@
     </row>
     <row r="26" ht="86" customHeight="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C26" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_FB929A3456EC484B83246B63E363119F",1)</f>
         <v>=DISPIMG("ID_FB929A3456EC484B83246B63E363119F",1)</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -8525,17 +8537,17 @@
     </row>
     <row r="27" ht="74" customHeight="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_CDF4F9B6AAE7428396B6B6CB350938A4",1)</f>
         <v>=DISPIMG("ID_CDF4F9B6AAE7428396B6B6CB350938A4",1)</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E27" s="1">
         <v>8</v>
@@ -8546,17 +8558,17 @@
     </row>
     <row r="28" ht="98" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C28" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_9E20CD0B9D3344AFA01653BE39E9CAED",1)</f>
         <v>=DISPIMG("ID_9E20CD0B9D3344AFA01653BE39E9CAED",1)</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
@@ -8564,56 +8576,56 @@
     </row>
     <row r="29" ht="29.25" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C29" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</f>
         <v>=DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" ht="44" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B70ADECACB0640B388DDE4A570E8A4A0",1)</f>
         <v>=DISPIMG("ID_B70ADECACB0640B388DDE4A570E8A4A0",1)</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" ht="93.75" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F991DDDB9E524EFEA1B831F26AB76DE9",1)</f>
         <v>=DISPIMG("ID_F991DDDB9E524EFEA1B831F26AB76DE9",1)</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -8621,48 +8633,48 @@
     </row>
     <row r="32" ht="37.5" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C32" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</f>
         <v>=DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" ht="39" customHeight="1" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" ht="37.5" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -8670,13 +8682,13 @@
     </row>
     <row r="35" ht="56.25" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -8684,13 +8696,13 @@
     </row>
     <row r="36" ht="37.5" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -8698,13 +8710,13 @@
     </row>
     <row r="37" ht="56.25" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E37" s="1">
         <v>8</v>
@@ -8712,13 +8724,13 @@
     </row>
     <row r="38" ht="75" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E38" s="1">
         <v>5</v>
@@ -8726,13 +8738,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
@@ -8740,13 +8752,13 @@
     </row>
     <row r="40" ht="56.25" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
@@ -8754,13 +8766,13 @@
     </row>
     <row r="41" ht="37.5" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
@@ -8768,13 +8780,13 @@
     </row>
     <row r="42" ht="56.25" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E42" s="1">
         <v>9</v>
@@ -8782,38 +8794,38 @@
     </row>
     <row r="43" ht="75" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -8821,13 +8833,13 @@
     </row>
     <row r="46" ht="37.5" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
@@ -8835,13 +8847,13 @@
     </row>
     <row r="47" ht="37.5" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
@@ -8849,13 +8861,13 @@
     </row>
     <row r="48" ht="75" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -8863,13 +8875,13 @@
     </row>
     <row r="49" ht="93.75" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E49" s="1">
         <v>7</v>
@@ -8877,27 +8889,27 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" ht="75" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E51" s="1">
         <v>4</v>
@@ -8905,41 +8917,41 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" ht="56.25" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E54" s="1">
         <v>5</v>
@@ -8947,13 +8959,13 @@
     </row>
     <row r="55" ht="56.25" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E55" s="1">
         <v>5</v>
@@ -8961,13 +8973,13 @@
     </row>
     <row r="56" ht="37.5" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E56" s="1">
         <v>6</v>
@@ -8975,13 +8987,13 @@
     </row>
     <row r="57" ht="75" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E57" s="1">
         <v>5</v>
@@ -8989,13 +9001,13 @@
     </row>
     <row r="58" ht="56.25" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E58" s="1">
         <v>4</v>
@@ -9003,13 +9015,13 @@
     </row>
     <row r="59" ht="56.25" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E59" s="1">
         <v>6</v>
@@ -9017,13 +9029,13 @@
     </row>
     <row r="60" ht="56.25" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E60" s="1">
         <v>6</v>
@@ -9031,41 +9043,41 @@
     </row>
     <row r="61" ht="37.5" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" ht="56.25" spans="1:5">
       <c r="A62" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" ht="56.25" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -9100,7 +9112,7 @@
   <sheetData>
     <row r="2" ht="30" customHeight="1" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -9109,73 +9121,73 @@
     </row>
     <row r="3" ht="38.25" spans="2:4">
       <c r="B3" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" ht="57" spans="2:6">
       <c r="B4" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" ht="84" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" ht="19.5" spans="2:10">
       <c r="B8" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -9188,28 +9200,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="2:7">
@@ -9217,19 +9229,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -9262,13 +9274,13 @@
   <sheetData>
     <row r="2" ht="81" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="13095" activeTab="1"/>
+    <workbookView windowWidth="23295" windowHeight="13095" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -2266,11 +2266,136 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="ID_BB4C04DA0D82463FB165645D87472EF4" descr="Throw Rock"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3138805" y="27501215"/>
+          <a:ext cx="303530" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="ID_38F9D2AF49AB4BCA9F11DD0853E30AF5" descr="Magic Arrow"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048635" y="28002230"/>
+          <a:ext cx="300355" cy="308610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="ID_36828F0C21034B8DBBF17DCCDA5DA267" descr="Siphon Mana"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3098165" y="28496260"/>
+          <a:ext cx="303530" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="ID_A9DB86C046194BD7BA43F0E79E4830FA" descr="Blink"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3097530" y="28966160"/>
+          <a:ext cx="304800" cy="307975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="ID_8658678BBB954416846A781790E04465" descr="Iceberg Drop"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3023235" y="29467175"/>
+          <a:ext cx="303530" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="459">
   <si>
     <t>Player Level</t>
   </si>
@@ -2372,6 +2497,9 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>Roots every 3 to 8 turns</t>
   </si>
   <si>
     <t>Has 6*2 + 1 HP</t>
@@ -2485,6 +2613,10 @@
 Shoots them next turn</t>
   </si>
   <si>
+    <t>Every 4 turns, shoots 3 bullets at an enemy.
+Can be partially blocked by sitting behind another unit.</t>
+  </si>
+  <si>
     <t>Guard</t>
   </si>
   <si>
@@ -2497,6 +2629,9 @@
   <si>
     <t>Attacks pierce
 and reach 2</t>
+  </si>
+  <si>
+    <t>Blocks every 2nd turn</t>
   </si>
   <si>
     <t>Rat</t>
@@ -2710,12 +2845,7 @@
     <t>Zombie</t>
   </si>
   <si>
-    <t>Can only take 1 damage at a time.</t>
-  </si>
-  <si>
-    <t>Chomp: Delayed
-Shreds Block
-Drains some mana</t>
+    <t>Attacks steal a random stat (armor, damage or MR)</t>
   </si>
   <si>
     <t>Lantern Ghoul</t>
@@ -2733,7 +2863,7 @@
     <t>Beholder</t>
   </si>
   <si>
-    <t>Attacks are Chain Ligntning and shred block</t>
+    <t>Attacks are Chain Lightning and shred block</t>
   </si>
   <si>
     <t>Attacks shred block</t>
@@ -3603,26 +3733,32 @@
     <t>Mage</t>
   </si>
   <si>
-    <t>Fire Bolt</t>
-  </si>
-  <si>
-    <t>90% SP
-3 range</t>
-  </si>
-  <si>
     <t>Magic Arrow</t>
   </si>
   <si>
-    <t>75% SP + x
-4 range
-diagonally</t>
+    <t>100% SP, 3 range diagonally.
++50% damage to CC'ed</t>
+  </si>
+  <si>
+    <t>Siphon Mana</t>
+  </si>
+  <si>
+    <t>Drain up to 2 mana from a target.</t>
   </si>
   <si>
     <t>Blink</t>
   </si>
   <si>
     <t>Instant
-Teleport 2 range</t>
+Teleport 4 range</t>
+  </si>
+  <si>
+    <t>Iceberg Drop</t>
+  </si>
+  <si>
+    <t>Delayed 3x3
+165% SP
+Stuns targets</t>
   </si>
   <si>
     <t>Mana Ward</t>
@@ -3661,9 +3797,6 @@
   <si>
     <t>4 range
 75% SP health</t>
-  </si>
-  <si>
-    <t>Iceberg Drop</t>
   </si>
   <si>
     <t>40% SP
@@ -4006,10 +4139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -4110,6 +4243,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -4120,21 +4267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4143,6 +4276,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4195,23 +4335,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4225,7 +4365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -4233,15 +4372,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4263,19 +4396,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4287,13 +4438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4311,7 +4456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4323,7 +4468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4335,7 +4492,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4347,103 +4576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4761,11 +4894,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4811,26 +4950,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4858,12 +4980,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4881,130 +5014,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6274,10 +6407,10 @@
   <sheetPr/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -6366,14 +6499,17 @@
       <c r="E3" s="23" t="s">
         <v>29</v>
       </c>
+      <c r="F3" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3"/>
     </row>
     <row r="4" ht="90" customHeight="1" spans="1:14">
       <c r="A4" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_6A82539A52A34473B077CC1FF6D19737",1)</f>
@@ -6383,19 +6519,19 @@
         <v>32</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4"/>
     </row>
     <row r="5" ht="87" customHeight="1" spans="1:14">
       <c r="A5" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_0D1348BF351942C0B94814EB2E6C33B3",1)</f>
@@ -6405,25 +6541,25 @@
         <v>32</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5"/>
     </row>
     <row r="6" ht="58" customHeight="1" spans="1:14">
       <c r="A6" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_5DCB40CCA6B44244B7519B2BA06EDF1C",1)</f>
@@ -6436,16 +6572,16 @@
         <v>32</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6"/>
     </row>
     <row r="7" ht="68" customHeight="1" spans="1:14">
       <c r="A7" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_48D844B5BD4E47F1A264B90859DAC1E8",1)</f>
@@ -6455,25 +6591,25 @@
         <v>32</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N7"/>
     </row>
     <row r="8" ht="71" customHeight="1" spans="1:14">
       <c r="A8" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="31" t="str">
         <f>_xlfn.DISPIMG("ID_9997CD209D774EEAB420C53DDEA056A0",1)</f>
@@ -6483,22 +6619,22 @@
         <v>32</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N8"/>
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:14">
       <c r="A9" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A28CCF741D2F4C959572208881E29708",1)</f>
@@ -6514,533 +6650,540 @@
         <v>29</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="24"/>
       <c r="N9"/>
     </row>
     <row r="10" ht="71" customHeight="1" spans="1:14">
       <c r="A10" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</f>
         <v>=DISPIMG("ID_6763D977B250450ABFE5A7D8A1F632C1",1)</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>64</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G10" s="24"/>
       <c r="N10"/>
     </row>
-    <row r="11" ht="85" customHeight="1" spans="1:6">
+    <row r="11" ht="102" customHeight="1" spans="1:7">
       <c r="A11" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_163A9240D4EF485292D7AE5FEFA9852F",1)</f>
         <v>=DISPIMG("ID_163A9240D4EF485292D7AE5FEFA9852F",1)</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:14">
       <c r="A12" s="23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B12" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_7ED09DD668894ABE8A725CF2D4D0029F",1)</f>
         <v>=DISPIMG("ID_7ED09DD668894ABE8A725CF2D4D0029F",1)</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="N12"/>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:14">
       <c r="A13" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B13" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_D36F8EAEDC3D4A2D9DDF24AE96ABB005",1)</f>
         <v>=DISPIMG("ID_D36F8EAEDC3D4A2D9DDF24AE96ABB005",1)</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N13"/>
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:14">
       <c r="A14" s="23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B14" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A046AFD9A3BF492EADA57F8350871DB2",1)</f>
         <v>=DISPIMG("ID_A046AFD9A3BF492EADA57F8350871DB2",1)</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N14"/>
     </row>
     <row r="15" ht="75" customHeight="1" spans="1:14">
       <c r="A15" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B15" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_2AC053A6DE184E4097DCE1BD0082E519",1)</f>
         <v>=DISPIMG("ID_2AC053A6DE184E4097DCE1BD0082E519",1)</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N15"/>
     </row>
     <row r="16" ht="75" customHeight="1" spans="1:14">
       <c r="A16" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B16" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_D72C5AF664FF4D6C8BB8BF8BE922256D",1)</f>
         <v>=DISPIMG("ID_D72C5AF664FF4D6C8BB8BF8BE922256D",1)</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N16"/>
     </row>
     <row r="17" ht="75" customHeight="1" spans="1:14">
       <c r="A17" s="23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B17" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_8F384D93F8A041A7BCCE76056201BF0F",1)</f>
         <v>=DISPIMG("ID_8F384D93F8A041A7BCCE76056201BF0F",1)</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>66</v>
-      </c>
       <c r="E17" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N17"/>
     </row>
     <row r="18" ht="75" customHeight="1" spans="1:14">
       <c r="A18" s="23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B18" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_096FB0EDD1054600AEE93DB32445E432",1)</f>
         <v>=DISPIMG("ID_096FB0EDD1054600AEE93DB32445E432",1)</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N18"/>
     </row>
     <row r="19" ht="75" customHeight="1" spans="1:14">
       <c r="A19" s="23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B19" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_FD9E219F3F5B421E997BB811EC08D139",1)</f>
         <v>=DISPIMG("ID_FD9E219F3F5B421E997BB811EC08D139",1)</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N19"/>
     </row>
     <row r="20" ht="75" customHeight="1" spans="1:14">
       <c r="A20" s="23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B20" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_8A4C0CA2B27A4C878CAEF5F7F6D84956",1)</f>
         <v>=DISPIMG("ID_8A4C0CA2B27A4C878CAEF5F7F6D84956",1)</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="H20" s="24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N20"/>
     </row>
     <row r="21" ht="75" customHeight="1" spans="1:14">
       <c r="A21" s="23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B21" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_F8B9634EB73D4F649475A0DA1DCAE550",1)</f>
         <v>=DISPIMG("ID_F8B9634EB73D4F649475A0DA1DCAE550",1)</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N21"/>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:14">
       <c r="A22" s="23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B22" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_53946E75DFA2463A9C5A11C27661E786",1)</f>
         <v>=DISPIMG("ID_53946E75DFA2463A9C5A11C27661E786",1)</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N22"/>
     </row>
     <row r="23" ht="75" customHeight="1" spans="1:14">
       <c r="A23" s="23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B23" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A9D352B95303458B89C1717F79CDE735",1)</f>
         <v>=DISPIMG("ID_A9D352B95303458B89C1717F79CDE735",1)</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N23"/>
     </row>
     <row r="24" ht="75" customHeight="1" spans="1:14">
       <c r="A24" s="23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B24" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_E06E036609E94BB9929FE03D33A7B60B",1)</f>
         <v>=DISPIMG("ID_E06E036609E94BB9929FE03D33A7B60B",1)</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F24" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>111</v>
       </c>
       <c r="N24"/>
     </row>
     <row r="25" ht="75" customHeight="1" spans="1:14">
       <c r="A25" s="23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B25" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_904652B47CF844A8B4968D95A64E3891",1)</f>
         <v>=DISPIMG("ID_904652B47CF844A8B4968D95A64E3891",1)</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N25"/>
     </row>
     <row r="26" ht="75" customHeight="1" spans="1:14">
       <c r="A26" s="23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B26" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_C711069D368A4C1E9B8B5E98151EADAC",1)</f>
         <v>=DISPIMG("ID_C711069D368A4C1E9B8B5E98151EADAC",1)</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N26"/>
     </row>
     <row r="27" ht="75" customHeight="1" spans="1:14">
       <c r="A27" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B27" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_6C082183216B495085F7DBF1E3D99F5E",1)</f>
         <v>=DISPIMG("ID_6C082183216B495085F7DBF1E3D99F5E",1)</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N27"/>
     </row>
     <row r="28" ht="75" customHeight="1" spans="1:14">
       <c r="A28" s="23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B28" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_628E96F4BF42434FA277775E1DE2AA20",1)</f>
         <v>=DISPIMG("ID_628E96F4BF42434FA277775E1DE2AA20",1)</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N28"/>
     </row>
     <row r="29" ht="75" customHeight="1" spans="1:14">
       <c r="A29" s="23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B29" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_B9BED2D4AE354012A6BAB6A7E0FF5802",1)</f>
         <v>=DISPIMG("ID_B9BED2D4AE354012A6BAB6A7E0FF5802",1)</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N29"/>
     </row>
     <row r="30" ht="75" customHeight="1" spans="1:14">
       <c r="A30" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B30" s="31" t="str">
         <f>_xlfn.DISPIMG("ID_7A9E03A399CC4F74B895A88C9005BB92",1)</f>
         <v>=DISPIMG("ID_7A9E03A399CC4F74B895A88C9005BB92",1)</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N30"/>
     </row>
     <row r="31" ht="75" customHeight="1" spans="1:14">
       <c r="A31" s="23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B31" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_65FDB7CD50CF472E9EE58BDBA9A1B3FA",1)</f>
         <v>=DISPIMG("ID_65FDB7CD50CF472E9EE58BDBA9A1B3FA",1)</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N31"/>
     </row>
@@ -7050,255 +7193,249 @@
     </row>
     <row r="33" ht="75" customHeight="1" spans="1:14">
       <c r="A33" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B33" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_AFFBB67C163A41AA92F2B00342A712D5",1)</f>
         <v>=DISPIMG("ID_AFFBB67C163A41AA92F2B00342A712D5",1)</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N33"/>
     </row>
     <row r="34" ht="75" customHeight="1" spans="1:14">
       <c r="A34" s="23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B34" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_A2CCFFC477CB41C68B5C4B028618A131",1)</f>
         <v>=DISPIMG("ID_A2CCFFC477CB41C68B5C4B028618A131",1)</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N34"/>
     </row>
     <row r="35" ht="75" customHeight="1" spans="1:14">
       <c r="A35" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B35" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_83BCD919FA48483A8504C30F86775227",1)</f>
         <v>=DISPIMG("ID_83BCD919FA48483A8504C30F86775227",1)</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="F35" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N35"/>
     </row>
     <row r="36" ht="75" customHeight="1" spans="1:14">
       <c r="A36" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B36" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_F6C581482AFC49CF88B4B51DB4C2B884",1)</f>
         <v>=DISPIMG("ID_F6C581482AFC49CF88B4B51DB4C2B884",1)</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="F36" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N36"/>
     </row>
     <row r="37" ht="75" customHeight="1" spans="1:14">
       <c r="A37" s="23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B37" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_B56FE51048C84C21B0544EC1D2B49BFB",1)</f>
         <v>=DISPIMG("ID_B56FE51048C84C21B0544EC1D2B49BFB",1)</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N37"/>
     </row>
     <row r="38" ht="75" customHeight="1" spans="1:14">
       <c r="A38" s="23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B38" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_2BF7160B000D4507A9BC6E9CD0CFBB9A",1)</f>
         <v>=DISPIMG("ID_2BF7160B000D4507A9BC6E9CD0CFBB9A",1)</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N38"/>
     </row>
     <row r="39" ht="75" customHeight="1" spans="1:14">
       <c r="A39" s="23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B39" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_F51C6D32B5FE4CB4BAE5E9D1DF1B99A4",1)</f>
         <v>=DISPIMG("ID_F51C6D32B5FE4CB4BAE5E9D1DF1B99A4",1)</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N39"/>
     </row>
     <row r="40" ht="75" customHeight="1" spans="1:14">
       <c r="A40" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B40" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_42E1FCCA38754E91AC4BDE1CCF581E79",1)</f>
         <v>=DISPIMG("ID_42E1FCCA38754E91AC4BDE1CCF581E79",1)</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N40"/>
     </row>
     <row r="41" ht="75" customHeight="1" spans="1:14">
       <c r="A41" s="23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B41" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_FCC8AFB7F83C4286AEE68D9A89ABD31C",1)</f>
         <v>=DISPIMG("ID_FCC8AFB7F83C4286AEE68D9A89ABD31C",1)</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N41"/>
     </row>
     <row r="42" ht="75" customHeight="1" spans="1:14">
       <c r="A42" s="23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B42" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_28ECA6BF9B5F4B8AB2A28048D7A7B8D6",1)</f>
         <v>=DISPIMG("ID_28ECA6BF9B5F4B8AB2A28048D7A7B8D6",1)</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N42"/>
     </row>
     <row r="43" ht="75" customHeight="1" spans="1:14">
       <c r="A43" s="23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B43" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_4F83562294774CE1B91320A1884FEEA6",1)</f>
         <v>=DISPIMG("ID_4F83562294774CE1B91320A1884FEEA6",1)</v>
       </c>
       <c r="F43" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="24" t="s">
         <v>168</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="N43"/>
     </row>
     <row r="44" ht="75" customHeight="1" spans="1:14">
       <c r="A44" s="23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B44" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_50AEDFD4C9CB4FD09CD7DBAA4E44C1E5",1)</f>
         <v>=DISPIMG("ID_50AEDFD4C9CB4FD09CD7DBAA4E44C1E5",1)</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N44"/>
     </row>
     <row r="45" ht="75" customHeight="1" spans="1:14">
       <c r="A45" s="23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B45" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_7FEFC25B5DDF45199372FEC1ECD4F0DB",1)</f>
         <v>=DISPIMG("ID_7FEFC25B5DDF45199372FEC1ECD4F0DB",1)</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N45"/>
     </row>
     <row r="46" ht="75" customHeight="1" spans="1:14">
       <c r="A46" s="23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B46" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_563C63C9B19047BAA87384017A514719",1)</f>
         <v>=DISPIMG("ID_563C63C9B19047BAA87384017A514719",1)</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N46"/>
     </row>
@@ -7308,22 +7445,22 @@
     </row>
     <row r="48" ht="75.75" spans="1:14">
       <c r="A48" s="23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H48" s="33"/>
       <c r="I48" s="35"/>
@@ -7331,258 +7468,258 @@
     </row>
     <row r="49" ht="56.25" spans="1:14">
       <c r="A49" s="23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N49"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N50"/>
     </row>
     <row r="51" ht="37.5" spans="1:14">
       <c r="A51" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N51"/>
     </row>
     <row r="52" ht="56.25" spans="1:14">
       <c r="A52" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N52"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" ht="56.25" spans="1:6">
       <c r="A54" s="23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" ht="56.25" spans="1:8">
       <c r="A55" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" ht="37.5" spans="1:8">
       <c r="A56" s="23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" ht="37.5" spans="1:8">
       <c r="A57" s="23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="37.5" spans="1:7">
       <c r="A58" s="23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" ht="56.25" spans="1:8">
       <c r="A59" s="23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" ht="37.5" spans="1:13">
       <c r="A60" s="23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60" s="34" t="s">
         <v>7</v>
@@ -7596,22 +7733,22 @@
     </row>
     <row r="61" ht="56.25" spans="1:13">
       <c r="A61" s="23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K61" s="38">
         <v>1</v>
@@ -7625,25 +7762,25 @@
     </row>
     <row r="62" ht="37.5" spans="1:13">
       <c r="A62" s="23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K62" s="38">
         <v>2</v>
@@ -7657,19 +7794,19 @@
     </row>
     <row r="63" ht="37.5" spans="1:13">
       <c r="A63" s="23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K63" s="38">
         <v>3</v>
@@ -7683,19 +7820,19 @@
     </row>
     <row r="64" ht="56.25" spans="1:13">
       <c r="A64" s="23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K64" s="38">
         <v>4</v>
@@ -7709,25 +7846,25 @@
     </row>
     <row r="65" ht="37.5" spans="1:13">
       <c r="A65" s="23" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K65" s="38">
         <v>5</v>
@@ -7741,19 +7878,19 @@
     </row>
     <row r="66" ht="37.5" spans="1:13">
       <c r="A66" s="23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K66" s="38">
         <v>6</v>
@@ -7767,7 +7904,7 @@
     </row>
     <row r="67" ht="37.5" spans="1:13">
       <c r="A67" s="24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B67" s="24"/>
       <c r="K67" s="38">
@@ -7782,7 +7919,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K68" s="38">
         <v>8</v>
@@ -7796,10 +7933,10 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K69" s="38">
         <v>9</v>
@@ -7813,10 +7950,10 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K70" s="41">
         <v>10</v>
@@ -7830,10 +7967,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7868,37 +8005,37 @@
   <sheetData>
     <row r="3" spans="2:8">
       <c r="B3" s="14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" ht="65.55" customHeight="1" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</f>
         <v>=DISPIMG("ID_1C66898D56284284A37A02A3EF585440",1)</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_2440730E3B794D249A4BBFB68234E0A5",1)</f>
@@ -7907,39 +8044,39 @@
     </row>
     <row r="5" ht="44" customHeight="1" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</f>
         <v>=DISPIMG("ID_922A22EB4F3240DF82F7BC8E2334A939",1)</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</f>
         <v>=DISPIMG("ID_3FB322F6A35B4E67A56CEB159387F4E7",1)</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" ht="47" customHeight="1" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</f>
         <v>=DISPIMG("ID_6A4BCF7CF4234DD3963837ADFB704BB7",1)</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_491D9B3CF8B4441CAD720B86DCA07462",1)</f>
@@ -7948,39 +8085,39 @@
     </row>
     <row r="7" ht="64" customHeight="1" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</f>
         <v>=DISPIMG("ID_DCED4DA3234A4C4592F9A953085503D2",1)</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</f>
         <v>=DISPIMG("ID_03A246FAB8D54EF0A611A5197A16854B",1)</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</f>
         <v>=DISPIMG("ID_E927AF64AF1F4F0796C389FC221298A8",1)</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DD37BC4AF6A646D482F166D1DA3483B9",1)</f>
@@ -7989,13 +8126,13 @@
     </row>
     <row r="9" ht="62" customHeight="1" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_CC66E0BDF222479FBCA1D73D9EEF98C9",1)</f>
@@ -8004,7 +8141,7 @@
     </row>
     <row r="10" ht="33" customHeight="1" spans="6:7">
       <c r="F10" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_69F91952F7254C9081725FDDC3777D6A",1)</f>
@@ -8013,14 +8150,14 @@
     </row>
     <row r="11" ht="50" customHeight="1" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</f>
         <v>=DISPIMG("ID_5883AB3B095E4C91BA3FA08ED96F1A98",1)</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -8032,10 +8169,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -8055,46 +8192,46 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" ht="44" customHeight="1" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</f>
         <v>=DISPIMG("ID_B89FB7A8B8234D6EAF929FE5AE44207A",1)</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -8102,23 +8239,23 @@
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</f>
         <v>=DISPIMG("ID_D90184E2EFC94DFCB03996685EEFC48E",1)</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -8126,23 +8263,23 @@
     </row>
     <row r="4" ht="29.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</f>
         <v>=DISPIMG("ID_601DEB5433E749A5B04D3AB579BF0284",1)</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -8150,17 +8287,17 @@
     </row>
     <row r="5" ht="117" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_435D6C639B07467EA8A5C2BDBADEB9EF",1)</f>
         <v>=DISPIMG("ID_435D6C639B07467EA8A5C2BDBADEB9EF",1)</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -8168,17 +8305,17 @@
     </row>
     <row r="6" ht="117" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F93D45808FD1497AA14207AA5687A0B5",1)</f>
         <v>=DISPIMG("ID_F93D45808FD1497AA14207AA5687A0B5",1)</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -8186,128 +8323,128 @@
     </row>
     <row r="7" ht="61" customHeight="1" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_BD2F4EFF81EA407EB07B30FC9A025ED8",1)</f>
         <v>=DISPIMG("ID_BD2F4EFF81EA407EB07B30FC9A025ED8",1)</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" ht="56" customHeight="1" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6F93A133E4B345C3A8C8AB0E41048D37",1)</f>
         <v>=DISPIMG("ID_6F93A133E4B345C3A8C8AB0E41048D37",1)</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" ht="67" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_9DE1483F06B1441B9301F11BB84D2728",1)</f>
         <v>=DISPIMG("ID_9DE1483F06B1441B9301F11BB84D2728",1)</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" ht="97" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_E2D7BCC771AE4C57B67785698BAAC802",1)</f>
         <v>=DISPIMG("ID_E2D7BCC771AE4C57B67785698BAAC802",1)</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" ht="80" customHeight="1" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_068CF9D1A64D4B1AA847F491190CA498",1)</f>
         <v>=DISPIMG("ID_068CF9D1A64D4B1AA847F491190CA498",1)</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" ht="67" customHeight="1" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B819211F6D714CDEBBF38A9148AFAAC7",1)</f>
         <v>=DISPIMG("ID_B819211F6D714CDEBBF38A9148AFAAC7",1)</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" ht="69" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_0D3B38AE54A44B3E8DF025084DB6651B",1)</f>
         <v>=DISPIMG("ID_0D3B38AE54A44B3E8DF025084DB6651B",1)</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" ht="71" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</f>
         <v>=DISPIMG("ID_797F597F1B7F46D7BFE49889C122C20E",1)</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E14" s="1">
         <v>6</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J14" s="1">
         <v>5</v>
@@ -8315,23 +8452,23 @@
     </row>
     <row r="15" ht="93.75" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</f>
         <v>=DISPIMG("ID_900DEDBC95DA49B6832F8E0EAF3922E7",1)</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J15" s="1">
         <v>6</v>
@@ -8339,83 +8476,83 @@
     </row>
     <row r="16" ht="117" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F1C740FD556749E1A3007CADB7F7B5AD",1)</f>
         <v>=DISPIMG("ID_F1C740FD556749E1A3007CADB7F7B5AD",1)</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" ht="53" customHeight="1" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_7295A5EE838846E9918EEC2351B4AADE",1)</f>
         <v>=DISPIMG("ID_7295A5EE838846E9918EEC2351B4AADE",1)</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" ht="70" customHeight="1" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_475395F073B348EBAD90A05DB4F70535",1)</f>
         <v>=DISPIMG("ID_475395F073B348EBAD90A05DB4F70535",1)</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" ht="37.5" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</f>
         <v>=DISPIMG("ID_6D29D48731D64D15B7AFC6A55F3580E6",1)</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" ht="37.5" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</f>
         <v>=DISPIMG("ID_5B5C76B37B874958A231351EBD5A6E7C",1)</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -8423,17 +8560,17 @@
     </row>
     <row r="21" ht="75" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</f>
         <v>=DISPIMG("ID_B7F3E8AB96A746EEA8D18747E89057C6",1)</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -8441,17 +8578,17 @@
     </row>
     <row r="22" ht="37.5" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</f>
         <v>=DISPIMG("ID_52D5A41E637044A490A457D53A6E6968",1)</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -8459,17 +8596,17 @@
     </row>
     <row r="23" ht="93.75" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</f>
         <v>=DISPIMG("ID_3B6DDDD98A8F40BC81817AB7D481E31C",1)</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -8477,17 +8614,17 @@
     </row>
     <row r="24" ht="56.25" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</f>
         <v>=DISPIMG("ID_9DEEB880DCB04491A4378D1013CB4998",1)</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -8498,17 +8635,17 @@
     </row>
     <row r="25" ht="75" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</f>
         <v>=DISPIMG("ID_937E3FF1032A441DAFCEF81E0E8651CE",1)</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -8519,17 +8656,17 @@
     </row>
     <row r="26" ht="86" customHeight="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C26" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_FB929A3456EC484B83246B63E363119F",1)</f>
         <v>=DISPIMG("ID_FB929A3456EC484B83246B63E363119F",1)</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -8537,17 +8674,17 @@
     </row>
     <row r="27" ht="74" customHeight="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_CDF4F9B6AAE7428396B6B6CB350938A4",1)</f>
         <v>=DISPIMG("ID_CDF4F9B6AAE7428396B6B6CB350938A4",1)</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E27" s="1">
         <v>8</v>
@@ -8558,17 +8695,17 @@
     </row>
     <row r="28" ht="98" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C28" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_9E20CD0B9D3344AFA01653BE39E9CAED",1)</f>
         <v>=DISPIMG("ID_9E20CD0B9D3344AFA01653BE39E9CAED",1)</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
@@ -8576,56 +8713,56 @@
     </row>
     <row r="29" ht="29.25" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C29" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</f>
         <v>=DISPIMG("ID_05B2EF6AB8B64DED9EE5B9B0C23F991B",1)</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" ht="44" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B70ADECACB0640B388DDE4A570E8A4A0",1)</f>
         <v>=DISPIMG("ID_B70ADECACB0640B388DDE4A570E8A4A0",1)</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" ht="93.75" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F991DDDB9E524EFEA1B831F26AB76DE9",1)</f>
         <v>=DISPIMG("ID_F991DDDB9E524EFEA1B831F26AB76DE9",1)</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -8633,332 +8770,352 @@
     </row>
     <row r="32" ht="37.5" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C32" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</f>
         <v>=DISPIMG("ID_3597ED710A4940C9B87FCDF5F4476A1D",1)</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" ht="39" customHeight="1" spans="1:6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" ht="50" customHeight="1" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_BB4C04DA0D82463FB165645D87472EF4",1)</f>
+        <v>=DISPIMG("ID_BB4C04DA0D82463FB165645D87472EF4",1)</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" ht="37.5" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_38F9D2AF49AB4BCA9F11DD0853E30AF5",1)</f>
+        <v>=DISPIMG("ID_38F9D2AF49AB4BCA9F11DD0853E30AF5",1)</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" ht="37" customHeight="1" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E34" s="1">
+      <c r="B35" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_36828F0C21034B8DBBF17DCCDA5DA267",1)</f>
+        <v>=DISPIMG("ID_36828F0C21034B8DBBF17DCCDA5DA267",1)</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E35" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="56.25" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="36" ht="37.5" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_A9DB86C046194BD7BA43F0E79E4830FA",1)</f>
+        <v>=DISPIMG("ID_A9DB86C046194BD7BA43F0E79E4830FA",1)</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="37" ht="56.25" spans="1:5">
+    <row r="37" ht="37" customHeight="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_8658678BBB954416846A781790E04465",1)</f>
+        <v>=DISPIMG("ID_8658678BBB954416846A781790E04465",1)</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E37" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="38" ht="75" spans="1:5">
+    <row r="38" ht="56.25" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E38" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" ht="75" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="40" ht="56.25" spans="1:5">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="E40" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" ht="37.5" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" ht="56.25" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="42" ht="56.25" spans="1:5">
+    <row r="42" ht="37.5" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>374</v>
+        <v>359</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" ht="56.25" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E43" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="43" ht="75" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+    <row r="44" ht="75" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D44" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>379</v>
+      <c r="D44" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E45" s="1">
+        <v>382</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E46" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="37.5" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="47" ht="37.5" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" ht="37.5" spans="1:5">
+      <c r="A48" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E47" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" ht="75" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="49" ht="93.75" spans="1:5">
+    <row r="49" ht="75" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" ht="93.75" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E50" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="51" ht="75" spans="1:5">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E51" s="1">
+        <v>383</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" ht="75" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E52" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="54" ht="56.25" spans="1:5">
-      <c r="A54" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>394</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E54" s="1">
-        <v>5</v>
+        <v>382</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="55" ht="56.25" spans="1:5">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -8971,7 +9128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" ht="37.5" spans="1:5">
+    <row r="56" ht="56.25" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>399</v>
       </c>
@@ -8982,10 +9139,10 @@
         <v>401</v>
       </c>
       <c r="E56" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" ht="75" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" ht="37.5" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>402</v>
       </c>
@@ -8996,26 +9153,26 @@
         <v>404</v>
       </c>
       <c r="E57" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" ht="75" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E58" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="58" ht="56.25" spans="1:5">
-      <c r="A58" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E58" s="1">
-        <v>4</v>
-      </c>
-    </row>
     <row r="59" ht="56.25" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>407</v>
+      <c r="A59" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>408</v>
@@ -9024,11 +9181,11 @@
         <v>409</v>
       </c>
       <c r="E59" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" ht="56.25" spans="1:5">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -9041,23 +9198,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" ht="37.5" spans="1:5">
+    <row r="61" ht="56.25" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B61" s="19" t="s">
         <v>413</v>
       </c>
+      <c r="B61" s="20" t="s">
+        <v>414</v>
+      </c>
       <c r="D61" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" ht="56.25" spans="1:5">
-      <c r="A62" s="3" t="s">
         <v>415</v>
+      </c>
+      <c r="E61" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" ht="37.5" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>416</v>
@@ -9066,18 +9223,32 @@
         <v>417</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" ht="56.25" spans="1:4">
-      <c r="A63" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" ht="56.25" spans="1:5">
+      <c r="A63" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="19" t="s">
         <v>419</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>420</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" ht="56.25" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -9112,7 +9283,7 @@
   <sheetData>
     <row r="2" ht="30" customHeight="1" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -9121,73 +9292,73 @@
     </row>
     <row r="3" ht="38.25" spans="2:4">
       <c r="B3" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" ht="57" spans="2:6">
       <c r="B4" s="8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" ht="84" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" ht="19.5" spans="2:10">
       <c r="B8" s="9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -9200,28 +9371,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="2:7">
@@ -9229,19 +9400,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -9274,13 +9445,13 @@
   <sheetData>
     <row r="2" ht="81" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -2391,11 +2391,236 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="ID_19D2822555484122B1A19AE87FFD1927" descr="S_Axe06"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3006725" y="30086300"/>
+          <a:ext cx="323215" cy="323215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="ID_DEBA4EF89213482E8901533D1E663720" descr="Ice Cube"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3097530" y="30817185"/>
+          <a:ext cx="303530" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="ID_78111E53C0A24E34802FBAA95F98312C" descr="Ignite"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3097530" y="31609030"/>
+          <a:ext cx="304165" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="ID_C45D4AF5D4FB4FF6801F8DE1A2A665B5" descr="Frost Nova"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3064510" y="32445960"/>
+          <a:ext cx="303530" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="ID_66DABD3D114D4ED1889A2F8B72197191" descr="S_Physic01"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="32247205"/>
+          <a:ext cx="427355" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="ID_41280E9E4E9A4CA7A4C14BD14E0E85CE" descr="Very Magic Arrow"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3122295" y="34122360"/>
+          <a:ext cx="303530" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="ID_2F3AB0F4F76E4A7F89B7B19D6534EE66" descr="Shocking Startup"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3081020" y="34876740"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="ID_4A43E83676EA4DAA893ABC1CBA6011E0" descr="Momentum Magic"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105785" y="35497135"/>
+          <a:ext cx="303530" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="ID_94307C1A67984EFF9A26A73E0F27F702" descr="Everblocker"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3106420" y="36019105"/>
+          <a:ext cx="304165" cy="309245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="472">
   <si>
     <t>Player Level</t>
   </si>
@@ -3769,6 +3994,60 @@
 85% SP + 20% max mana</t>
   </si>
   <si>
+    <t>Ice Cube</t>
+  </si>
+  <si>
+    <t>Conjure an ice cube :3</t>
+  </si>
+  <si>
+    <t>Ignite</t>
+  </si>
+  <si>
+    <t>All enemies bleed</t>
+  </si>
+  <si>
+    <t>Obstacle Focus</t>
+  </si>
+  <si>
+    <t>Choose an obstacle.
+AoE around it.
+Effect depends on material.</t>
+  </si>
+  <si>
+    <t>Frost Nova</t>
+  </si>
+  <si>
+    <t>50% SP around and root.
+If already rooted, 100% SP
+and stun.</t>
+  </si>
+  <si>
+    <t>Very Magic Arrow</t>
+  </si>
+  <si>
+    <t>Magic arrow becomes usable
+in a straight line too.</t>
+  </si>
+  <si>
+    <t>Shocking Startup</t>
+  </si>
+  <si>
+    <t>At combat start, damage random
+enemy for 10 SHOCK damage.</t>
+  </si>
+  <si>
+    <t>Momentum Magic</t>
+  </si>
+  <si>
+    <t>Any spell cast = +1 SP until turn end</t>
+  </si>
+  <si>
+    <t>Everblocker</t>
+  </si>
+  <si>
+    <t>Any spell cast = 1 BLOCK</t>
+  </si>
+  <si>
     <t>Ice Spike</t>
   </si>
   <si>
@@ -3778,12 +4057,6 @@
 in a straight line</t>
   </si>
   <si>
-    <t>Ignite</t>
-  </si>
-  <si>
-    <t>All enemies bleed</t>
-  </si>
-  <si>
     <t>Slowdown</t>
   </si>
   <si>
@@ -3797,11 +4070,6 @@
   <si>
     <t>4 range
 75% SP health</t>
-  </si>
-  <si>
-    <t>40% SP
-4 range (TIR)
-Stuns the target</t>
   </si>
   <si>
     <t>Soul Drain</t>
@@ -4139,10 +4407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -4243,6 +4511,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -4257,32 +4540,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4297,6 +4565,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -4304,15 +4580,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4327,14 +4596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -4342,11 +4603,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4366,7 +4626,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4380,8 +4640,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4396,97 +4664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4504,7 +4688,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4516,7 +4772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4528,25 +4790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4558,25 +4808,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4894,21 +5162,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4958,6 +5211,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4974,15 +5242,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -4991,20 +5250,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -5014,130 +5282,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6678,7 +6946,6 @@
       <c r="F10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="24"/>
       <c r="N10"/>
     </row>
     <row r="11" ht="102" customHeight="1" spans="1:7">
@@ -8169,10 +8436,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
@@ -8886,6 +9153,10 @@
       <c r="B38" s="1" t="s">
         <v>368</v>
       </c>
+      <c r="C38" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_19D2822555484122B1A19AE87FFD1927",1)</f>
+        <v>=DISPIMG("ID_19D2822555484122B1A19AE87FFD1927",1)</v>
+      </c>
       <c r="D38" s="3" t="s">
         <v>369</v>
       </c>
@@ -8893,27 +9164,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" ht="75" spans="1:5">
+    <row r="39" ht="63" customHeight="1" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>370</v>
       </c>
+      <c r="C39" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_DEBA4EF89213482E8901533D1E663720",1)</f>
+        <v>=DISPIMG("ID_DEBA4EF89213482E8901533D1E663720",1)</v>
+      </c>
       <c r="D39" s="3" t="s">
         <v>371</v>
       </c>
       <c r="E39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" ht="60" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="C40" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_78111E53C0A24E34802FBAA95F98312C",1)</f>
+        <v>=DISPIMG("ID_78111E53C0A24E34802FBAA95F98312C",1)</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>373</v>
       </c>
@@ -8921,334 +9200,446 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="56.25" spans="1:5">
+    <row r="41" ht="60" customHeight="1" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>374</v>
       </c>
+      <c r="C41" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_66DABD3D114D4ED1889A2F8B72197191",1)</f>
+        <v>=DISPIMG("ID_66DABD3D114D4ED1889A2F8B72197191",1)</v>
+      </c>
       <c r="D41" s="3" t="s">
         <v>375</v>
       </c>
       <c r="E41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" ht="37.5" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" ht="74" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="C42" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_C45D4AF5D4FB4FF6801F8DE1A2A665B5",1)</f>
+        <v>=DISPIMG("ID_C45D4AF5D4FB4FF6801F8DE1A2A665B5",1)</v>
+      </c>
       <c r="D42" s="3" t="s">
         <v>377</v>
       </c>
       <c r="E42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" ht="56.25" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" ht="62" customHeight="1" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>366</v>
+      <c r="B43" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_41280E9E4E9A4CA7A4C14BD14E0E85CE",1)</f>
+        <v>=DISPIMG("ID_41280E9E4E9A4CA7A4C14BD14E0E85CE",1)</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E43" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" ht="75" spans="1:4">
+        <v>379</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" ht="58" customHeight="1" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>379</v>
+      <c r="B44" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_2F3AB0F4F76E4A7F89B7B19D6534EE66",1)</f>
+        <v>=DISPIMG("ID_2F3AB0F4F76E4A7F89B7B19D6534EE66",1)</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>381</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" ht="45" customHeight="1" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D45" s="1" t="s">
         <v>382</v>
       </c>
+      <c r="C45" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_4A43E83676EA4DAA893ABC1CBA6011E0",1)</f>
+        <v>=DISPIMG("ID_4A43E83676EA4DAA893ABC1CBA6011E0",1)</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" ht="46" customHeight="1" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="37.5" spans="1:5">
+        <v>384</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_94307C1A67984EFF9A26A73E0F27F702",1)</f>
+        <v>=DISPIMG("ID_94307C1A67984EFF9A26A73E0F27F702",1)</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" ht="75" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" ht="37.5" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" ht="56.25" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="49" ht="75" spans="1:5">
+    <row r="49" ht="37.5" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="50" ht="93.75" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E50" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    <row r="50" spans="2:4">
+      <c r="B50" s="19"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" ht="75" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B51" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="52" ht="75" spans="1:5">
+      <c r="D51" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="D52" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E52" s="1">
-        <v>4</v>
+      <c r="D52" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>287</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="37.5" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="55" ht="56.25" spans="1:5">
-      <c r="A55" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" ht="37.5" spans="1:5">
+      <c r="A55" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B55" s="20" t="s">
-        <v>397</v>
+      <c r="B55" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E55" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" ht="56.25" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" ht="75" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E56" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" ht="37.5" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" ht="93.75" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B57" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>403</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>404</v>
       </c>
       <c r="E57" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" ht="75" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="D58" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" ht="75" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="E58" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" ht="56.25" spans="1:5">
-      <c r="A59" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="E59" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="60" ht="56.25" spans="1:5">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62" ht="56.25" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="D62" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" ht="56.25" spans="1:5">
+      <c r="A63" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E60" s="1">
+      <c r="B63" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" ht="37.5" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E64" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="61" ht="56.25" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="E61" s="1">
+    <row r="65" ht="75" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" ht="56.25" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" ht="56.25" spans="1:5">
+      <c r="A67" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E67" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="62" ht="37.5" spans="1:5">
-      <c r="A62" s="1" t="s">
+    <row r="68" ht="56.25" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E68" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" ht="37.5" spans="1:5">
+      <c r="A69" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="B69" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="63" ht="56.25" spans="1:5">
-      <c r="A63" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E63" s="1" t="s">
+    <row r="70" ht="56.25" spans="1:5">
+      <c r="A70" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="64" ht="56.25" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>423</v>
+    <row r="71" ht="56.25" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -9283,7 +9674,7 @@
   <sheetData>
     <row r="2" ht="30" customHeight="1" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -9292,73 +9683,73 @@
     </row>
     <row r="3" ht="38.25" spans="2:4">
       <c r="B3" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" ht="57" spans="2:6">
       <c r="B4" s="8" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" ht="84" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" ht="19.5" spans="2:10">
       <c r="B8" s="9" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -9371,28 +9762,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="2:7">
@@ -9400,19 +9791,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -9448,10 +9839,10 @@
         <v>293</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/Design Tables.xlsx
+++ b/Design Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="13095" activeTab="3"/>
+    <workbookView windowWidth="24225" windowHeight="12045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Stats" sheetId="1" r:id="rId1"/>
@@ -4407,10 +4407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -4511,30 +4511,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4548,9 +4526,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4565,6 +4589,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -4572,32 +4611,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4610,31 +4625,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4654,6 +4647,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -4664,7 +4664,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4676,7 +4694,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4688,19 +4760,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4712,73 +4802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4796,55 +4826,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5162,6 +5162,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5242,17 +5253,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -5264,7 +5264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5282,130 +5282,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8439,7 +8439,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
